--- a/NVDL_rsi_method.xlsx
+++ b/NVDL_rsi_method.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="10">
   <si>
     <t>Buy_Time</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:F360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,13 +459,13 @@
         <v>45482.78472222222</v>
       </c>
       <c r="C3">
-        <v>76.95</v>
+        <v>76.645</v>
       </c>
       <c r="D3">
         <v>77.3</v>
       </c>
       <c r="E3">
-        <v>0.004548408057179913</v>
+        <v>0.008545893404657853</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -479,13 +479,13 @@
         <v>45484.80555555555</v>
       </c>
       <c r="C4">
-        <v>75.28</v>
+        <v>74.93000000000001</v>
       </c>
       <c r="D4">
         <v>74.87</v>
       </c>
       <c r="E4">
-        <v>-0.005446333687566373</v>
+        <v>-0.0008007473642066231</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -499,13 +499,13 @@
         <v>45488.62847222222</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>75.05</v>
       </c>
       <c r="D5">
         <v>76</v>
       </c>
       <c r="E5">
-        <v>0.01333333333333333</v>
+        <v>0.0126582278481013</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -519,16 +519,16 @@
         <v>45488.72569444445</v>
       </c>
       <c r="C6">
-        <v>74.03</v>
+        <v>73.78</v>
       </c>
       <c r="D6">
         <v>73.81999999999999</v>
       </c>
       <c r="E6">
-        <v>-0.002836687829258516</v>
+        <v>0.0005421523448087835</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -539,13 +539,13 @@
         <v>45490.57986111111</v>
       </c>
       <c r="C7">
-        <v>65.90000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="D7">
         <v>64.5</v>
       </c>
       <c r="E7">
-        <v>-0.02124430955993939</v>
+        <v>-0.02758932609678876</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -579,13 +579,13 @@
         <v>45491.64236111111</v>
       </c>
       <c r="C9">
-        <v>62.96</v>
+        <v>62.68</v>
       </c>
       <c r="D9">
         <v>61.01</v>
       </c>
       <c r="E9">
-        <v>-0.03097204574332914</v>
+        <v>-0.02664326738991707</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -599,16 +599,16 @@
         <v>45491.67708333334</v>
       </c>
       <c r="C10">
-        <v>62.31</v>
+        <v>62.655</v>
       </c>
       <c r="D10">
         <v>63.46</v>
       </c>
       <c r="E10">
-        <v>0.0184561065639544</v>
+        <v>0.01284813662117947</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -619,13 +619,13 @@
         <v>45491.69444444445</v>
       </c>
       <c r="C11">
-        <v>63.34</v>
+        <v>63.19</v>
       </c>
       <c r="D11">
         <v>64.68000000000001</v>
       </c>
       <c r="E11">
-        <v>0.02115566782443959</v>
+        <v>0.02357968032916615</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -639,13 +639,13 @@
         <v>45492.5625</v>
       </c>
       <c r="C12">
-        <v>65.18000000000001</v>
+        <v>65.045</v>
       </c>
       <c r="D12">
         <v>64.7</v>
       </c>
       <c r="E12">
-        <v>-0.00736422215403504</v>
+        <v>-0.005304020293642845</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -659,13 +659,13 @@
         <v>45492.65277777778</v>
       </c>
       <c r="C13">
-        <v>64.16</v>
+        <v>64.23</v>
       </c>
       <c r="D13">
         <v>63.36</v>
       </c>
       <c r="E13">
-        <v>-0.01246882793017452</v>
+        <v>-0.01354507239607667</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -679,13 +679,13 @@
         <v>45492.65972222222</v>
       </c>
       <c r="C14">
-        <v>63.61</v>
+        <v>63.48</v>
       </c>
       <c r="D14">
         <v>63.94</v>
       </c>
       <c r="E14">
-        <v>0.005187863543467982</v>
+        <v>0.007246376811594217</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -739,13 +739,13 @@
         <v>45497.5625</v>
       </c>
       <c r="C17">
-        <v>67.01000000000001</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="D17">
         <v>62.78</v>
       </c>
       <c r="E17">
-        <v>-0.06312490673033881</v>
+        <v>-0.06354415274463014</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -756,16 +756,16 @@
         <v>45497.61805555555</v>
       </c>
       <c r="B18" s="2">
-        <v>45497.63194444445</v>
+        <v>45497.66666666666</v>
       </c>
       <c r="C18">
-        <v>62.07</v>
+        <v>61.48</v>
       </c>
       <c r="D18">
-        <v>61.8</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>-0.004349927501208364</v>
+        <v>-0.02407286922576443</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -773,119 +773,119 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45497.64236111111</v>
+        <v>45497.73263888889</v>
       </c>
       <c r="B19" s="2">
-        <v>45497.66319444445</v>
+        <v>45497.74652777778</v>
       </c>
       <c r="C19">
-        <v>61.75</v>
+        <v>60.98</v>
       </c>
       <c r="D19">
-        <v>60.51</v>
+        <v>60.01</v>
       </c>
       <c r="E19">
-        <v>-0.02008097165991906</v>
+        <v>-0.01590685470646112</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45497.73263888889</v>
+        <v>45498.74305555555</v>
       </c>
       <c r="B20" s="2">
-        <v>45497.74652777778</v>
+        <v>45498.76388888889</v>
       </c>
       <c r="C20">
-        <v>60.87</v>
+        <v>58.71</v>
       </c>
       <c r="D20">
-        <v>60.01</v>
+        <v>57.58</v>
       </c>
       <c r="E20">
-        <v>-0.01412847051092491</v>
+        <v>-0.01924714699369788</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45498.74305555555</v>
+        <v>45498.75694444445</v>
       </c>
       <c r="B21" s="2">
-        <v>45498.76388888889</v>
+        <v>45498.77430555555</v>
       </c>
       <c r="C21">
-        <v>58.55</v>
+        <v>58.31</v>
       </c>
       <c r="D21">
-        <v>57.58</v>
+        <v>57.76</v>
       </c>
       <c r="E21">
-        <v>-0.01656703672075148</v>
+        <v>-0.009432344366318028</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45498.75694444445</v>
+        <v>45498.81597222222</v>
       </c>
       <c r="B22" s="2">
-        <v>45498.77430555555</v>
+        <v>45498.83333333334</v>
       </c>
       <c r="C22">
-        <v>57.99</v>
+        <v>57.53</v>
       </c>
       <c r="D22">
-        <v>57.76</v>
+        <v>55.36</v>
       </c>
       <c r="E22">
-        <v>-0.003966201069149922</v>
+        <v>-0.0377194507213628</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45498.81597222222</v>
+        <v>45499.64583333334</v>
       </c>
       <c r="B23" s="2">
-        <v>45498.83333333334</v>
+        <v>45499.67013888889</v>
       </c>
       <c r="C23">
-        <v>57.8</v>
+        <v>56.08</v>
       </c>
       <c r="D23">
-        <v>55.36</v>
+        <v>56.325</v>
       </c>
       <c r="E23">
-        <v>-0.04221453287197228</v>
+        <v>0.004368758915834603</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45499.64583333334</v>
+        <v>45499.81944444445</v>
       </c>
       <c r="B24" s="2">
-        <v>45499.67013888889</v>
+        <v>45502.57291666666</v>
       </c>
       <c r="C24">
-        <v>56.08</v>
+        <v>56.17</v>
       </c>
       <c r="D24">
-        <v>56.325</v>
+        <v>59.03</v>
       </c>
       <c r="E24">
-        <v>0.004368758915834603</v>
+        <v>0.05091685953355883</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -893,139 +893,139 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45499.81944444445</v>
+        <v>45503.68402777778</v>
       </c>
       <c r="B25" s="2">
-        <v>45502.57291666666</v>
+        <v>45503.71527777778</v>
       </c>
       <c r="C25">
-        <v>56.01</v>
+        <v>47.8</v>
       </c>
       <c r="D25">
-        <v>59.03</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>0.05391894304588472</v>
+        <v>0.004184100418410101</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45503.68402777778</v>
+        <v>45504.57291666666</v>
       </c>
       <c r="B26" s="2">
-        <v>45503.70486111111</v>
+        <v>45504.58680555555</v>
       </c>
       <c r="C26">
-        <v>47.49</v>
+        <v>56.07</v>
       </c>
       <c r="D26">
-        <v>46.03</v>
+        <v>57.77</v>
       </c>
       <c r="E26">
-        <v>-0.03074331438197517</v>
+        <v>0.03031924380238992</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45504.57291666666</v>
+        <v>45505.67361111111</v>
       </c>
       <c r="B27" s="2">
-        <v>45504.58680555555</v>
+        <v>45505.6875</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>55.67</v>
       </c>
       <c r="D27">
-        <v>57.77</v>
+        <v>54.07</v>
       </c>
       <c r="E27">
-        <v>0.05036363636363642</v>
+        <v>-0.02874079396443329</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45505.67361111111</v>
+        <v>45505.80208333334</v>
       </c>
       <c r="B28" s="2">
-        <v>45505.6875</v>
+        <v>45505.82638888889</v>
       </c>
       <c r="C28">
-        <v>55.63</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>54.07</v>
+        <v>50.05</v>
       </c>
       <c r="E28">
-        <v>-0.02804242315297505</v>
+        <v>0.0009999999999999432</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45505.80208333334</v>
+        <v>45506.57638888889</v>
       </c>
       <c r="B29" s="2">
-        <v>45505.82638888889</v>
+        <v>45506.59027777778</v>
       </c>
       <c r="C29">
-        <v>49.96</v>
+        <v>46.37</v>
       </c>
       <c r="D29">
-        <v>50.05</v>
+        <v>44.04</v>
       </c>
       <c r="E29">
-        <v>0.001801441152922264</v>
+        <v>-0.05024800517576015</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45506.57638888889</v>
+        <v>45509.59375</v>
       </c>
       <c r="B30" s="2">
-        <v>45506.59027777778</v>
+        <v>45509.60763888889</v>
       </c>
       <c r="C30">
-        <v>47.08</v>
+        <v>42.955</v>
       </c>
       <c r="D30">
-        <v>44.04</v>
+        <v>42.97</v>
       </c>
       <c r="E30">
-        <v>-0.06457094307561596</v>
+        <v>0.0003492026539401832</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45509.59375</v>
+        <v>45509.60416666666</v>
       </c>
       <c r="B31" s="2">
-        <v>45509.60763888889</v>
+        <v>45509.61805555555</v>
       </c>
       <c r="C31">
-        <v>42.365</v>
+        <v>42.8</v>
       </c>
       <c r="D31">
-        <v>42.97</v>
+        <v>43.44</v>
       </c>
       <c r="E31">
-        <v>0.01428065620205351</v>
+        <v>0.0149532710280374</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -1033,119 +1033,119 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45509.60416666666</v>
+        <v>45510.86111111111</v>
       </c>
       <c r="B32" s="2">
-        <v>45509.61805555555</v>
+        <v>45511.56597222222</v>
       </c>
       <c r="C32">
-        <v>42.035</v>
+        <v>47.66</v>
       </c>
       <c r="D32">
-        <v>43.44</v>
+        <v>49.45</v>
       </c>
       <c r="E32">
-        <v>0.0334245271797312</v>
+        <v>0.03755770037767533</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45510.86111111111</v>
+        <v>45512.58680555555</v>
       </c>
       <c r="B33" s="2">
-        <v>45511.56597222222</v>
+        <v>45512.60416666666</v>
       </c>
       <c r="C33">
-        <v>47.66</v>
+        <v>43.02</v>
       </c>
       <c r="D33">
-        <v>49.45</v>
+        <v>44.11</v>
       </c>
       <c r="E33">
-        <v>0.03755770037767533</v>
+        <v>0.02533705253370517</v>
       </c>
       <c r="F33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45512.58680555555</v>
+        <v>45513.69791666666</v>
       </c>
       <c r="B34" s="2">
-        <v>45512.60069444445</v>
+        <v>45513.71875</v>
       </c>
       <c r="C34">
-        <v>43.26</v>
+        <v>45.8</v>
       </c>
       <c r="D34">
-        <v>44.09</v>
+        <v>46.89</v>
       </c>
       <c r="E34">
-        <v>0.01918631530282028</v>
+        <v>0.02379912663755466</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45513.69791666666</v>
+        <v>45513.78819444445</v>
       </c>
       <c r="B35" s="2">
-        <v>45513.71875</v>
+        <v>45513.80208333334</v>
       </c>
       <c r="C35">
-        <v>45.81</v>
+        <v>46.34</v>
       </c>
       <c r="D35">
-        <v>46.89</v>
+        <v>46.45</v>
       </c>
       <c r="E35">
-        <v>0.02357563850687619</v>
+        <v>0.00237375917134224</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45513.78819444445</v>
+        <v>45516.56944444445</v>
       </c>
       <c r="B36" s="2">
-        <v>45513.80208333334</v>
+        <v>45516.58333333334</v>
       </c>
       <c r="C36">
-        <v>46.345</v>
+        <v>48.72</v>
       </c>
       <c r="D36">
-        <v>46.45</v>
+        <v>48.68</v>
       </c>
       <c r="E36">
-        <v>0.002265616571367008</v>
+        <v>-0.0008210180623973553</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45516.56944444445</v>
+        <v>45516.69097222222</v>
       </c>
       <c r="B37" s="2">
-        <v>45516.58333333334</v>
+        <v>45516.70486111111</v>
       </c>
       <c r="C37">
-        <v>48.61</v>
+        <v>51.02</v>
       </c>
       <c r="D37">
-        <v>48.68</v>
+        <v>50.3</v>
       </c>
       <c r="E37">
-        <v>0.001440032915038064</v>
+        <v>-0.01411211289690329</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -1153,19 +1153,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45516.69097222222</v>
+        <v>45517.56597222222</v>
       </c>
       <c r="B38" s="2">
-        <v>45516.70486111111</v>
+        <v>45517.57986111111</v>
       </c>
       <c r="C38">
-        <v>50.88</v>
+        <v>52.71</v>
       </c>
       <c r="D38">
-        <v>50.3</v>
+        <v>54.41</v>
       </c>
       <c r="E38">
-        <v>-0.01139937106918249</v>
+        <v>0.03225194460254213</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1173,19 +1173,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45517.56597222222</v>
+        <v>45517.70486111111</v>
       </c>
       <c r="B39" s="2">
-        <v>45517.57986111111</v>
+        <v>45517.71875</v>
       </c>
       <c r="C39">
-        <v>53</v>
+        <v>55.57</v>
       </c>
       <c r="D39">
-        <v>54.41</v>
+        <v>56.06</v>
       </c>
       <c r="E39">
-        <v>0.0266037735849056</v>
+        <v>0.008817707396077056</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1193,39 +1193,39 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45517.70486111111</v>
+        <v>45518.77430555555</v>
       </c>
       <c r="B40" s="2">
-        <v>45517.71875</v>
+        <v>45518.78819444445</v>
       </c>
       <c r="C40">
-        <v>55.49</v>
+        <v>57.65</v>
       </c>
       <c r="D40">
-        <v>56.06</v>
+        <v>57.88</v>
       </c>
       <c r="E40">
-        <v>0.01027212110290143</v>
+        <v>0.003989592367736409</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45518.77430555555</v>
+        <v>45519.82291666666</v>
       </c>
       <c r="B41" s="2">
-        <v>45518.78819444445</v>
+        <v>45520.5625</v>
       </c>
       <c r="C41">
-        <v>57.77</v>
+        <v>62.62</v>
       </c>
       <c r="D41">
-        <v>57.88</v>
+        <v>62.85</v>
       </c>
       <c r="E41">
-        <v>0.001904102475333208</v>
+        <v>0.003672947939955349</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1233,79 +1233,79 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45519.82291666666</v>
+        <v>45520.66319444445</v>
       </c>
       <c r="B42" s="2">
-        <v>45520.5625</v>
+        <v>45520.68055555555</v>
       </c>
       <c r="C42">
-        <v>62.74</v>
+        <v>63.68</v>
       </c>
       <c r="D42">
-        <v>62.85</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="E42">
-        <v>0.001753267452980546</v>
+        <v>0.008322864321607946</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45520.66319444445</v>
+        <v>45523.57986111111</v>
       </c>
       <c r="B43" s="2">
-        <v>45520.68055555555</v>
+        <v>45523.59375</v>
       </c>
       <c r="C43">
-        <v>63.61</v>
+        <v>65.03</v>
       </c>
       <c r="D43">
-        <v>64.20999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="E43">
-        <v>0.009432479169941744</v>
+        <v>-0.01276333999692447</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45523.57986111111</v>
+        <v>45524.64930555555</v>
       </c>
       <c r="B44" s="2">
-        <v>45523.59375</v>
+        <v>45524.66666666666</v>
       </c>
       <c r="C44">
-        <v>64.83</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="D44">
-        <v>64.2</v>
+        <v>68.41</v>
       </c>
       <c r="E44">
-        <v>-0.00971772327626092</v>
+        <v>0.003373423291287617</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45524.64930555555</v>
+        <v>45525.57638888889</v>
       </c>
       <c r="B45" s="2">
-        <v>45524.66666666666</v>
+        <v>45525.59375</v>
       </c>
       <c r="C45">
-        <v>67.95</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="D45">
-        <v>68.41</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E45">
-        <v>0.006769683590875552</v>
+        <v>0.01475143826523086</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1313,39 +1313,39 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45525.57638888889</v>
+        <v>45525.70486111111</v>
       </c>
       <c r="B46" s="2">
-        <v>45525.59027777778</v>
+        <v>45525.73263888889</v>
       </c>
       <c r="C46">
-        <v>68.47</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D46">
-        <v>68.34</v>
+        <v>68.105</v>
       </c>
       <c r="E46">
-        <v>-0.001898641740908361</v>
+        <v>0.003019145802650932</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45525.70486111111</v>
+        <v>45525.84027777778</v>
       </c>
       <c r="B47" s="2">
-        <v>45525.73263888889</v>
+        <v>45526.57291666666</v>
       </c>
       <c r="C47">
-        <v>67.94</v>
+        <v>68.27</v>
       </c>
       <c r="D47">
-        <v>68.105</v>
+        <v>70.33</v>
       </c>
       <c r="E47">
-        <v>0.002428613482484637</v>
+        <v>0.03017430789512235</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1353,19 +1353,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45525.84027777778</v>
+        <v>45527.5625</v>
       </c>
       <c r="B48" s="2">
-        <v>45526.57291666666</v>
+        <v>45527.57638888889</v>
       </c>
       <c r="C48">
-        <v>68.27</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D48">
-        <v>70.33</v>
+        <v>67</v>
       </c>
       <c r="E48">
-        <v>0.03017430789512235</v>
+        <v>0.02274461914211563</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1373,19 +1373,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45527.5625</v>
+        <v>45527.57291666666</v>
       </c>
       <c r="B49" s="2">
-        <v>45527.57638888889</v>
+        <v>45527.58680555555</v>
       </c>
       <c r="C49">
-        <v>65.70999999999999</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D49">
-        <v>67</v>
+        <v>68.61</v>
       </c>
       <c r="E49">
-        <v>0.01963171511185522</v>
+        <v>0.02387703327861505</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1393,59 +1393,59 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45527.57291666666</v>
+        <v>45527.71527777778</v>
       </c>
       <c r="B50" s="2">
-        <v>45527.58680555555</v>
+        <v>45527.73958333334</v>
       </c>
       <c r="C50">
-        <v>66.81</v>
+        <v>67.23</v>
       </c>
       <c r="D50">
-        <v>68.61</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E50">
-        <v>0.02694207453973952</v>
+        <v>0.01160196340919234</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45527.71527777778</v>
+        <v>45530.64930555555</v>
       </c>
       <c r="B51" s="2">
-        <v>45527.73958333334</v>
+        <v>45530.67013888889</v>
       </c>
       <c r="C51">
-        <v>67.17</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="D51">
-        <v>68.01000000000001</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="E51">
-        <v>0.01250558284948643</v>
+        <v>-0.0163320347617619</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45530.64930555555</v>
+        <v>45530.77083333334</v>
       </c>
       <c r="B52" s="2">
-        <v>45530.67013888889</v>
+        <v>45530.79513888889</v>
       </c>
       <c r="C52">
-        <v>66.86</v>
+        <v>66.23</v>
       </c>
       <c r="D52">
-        <v>65.65000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E52">
-        <v>-0.01809751720011956</v>
+        <v>0.00256681262267857</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1453,59 +1453,59 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45530.77083333334</v>
+        <v>45531.58680555555</v>
       </c>
       <c r="B53" s="2">
-        <v>45530.79513888889</v>
+        <v>45531.60763888889</v>
       </c>
       <c r="C53">
-        <v>66.38</v>
+        <v>65.91</v>
       </c>
       <c r="D53">
-        <v>66.40000000000001</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="E53">
-        <v>0.0003012955709552611</v>
+        <v>0.02685480200273115</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45531.58680555555</v>
+        <v>45531.81597222222</v>
       </c>
       <c r="B54" s="2">
-        <v>45531.60763888889</v>
+        <v>45531.82986111111</v>
       </c>
       <c r="C54">
-        <v>66.20999999999999</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="D54">
-        <v>67.68000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E54">
-        <v>0.0222020842772997</v>
+        <v>-0.003370457209847447</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45531.81597222222</v>
+        <v>45532.79513888889</v>
       </c>
       <c r="B55" s="2">
-        <v>45531.82986111111</v>
+        <v>45532.80902777778</v>
       </c>
       <c r="C55">
-        <v>68.16</v>
+        <v>65.41</v>
       </c>
       <c r="D55">
-        <v>68.01000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="E55">
-        <v>-0.002200704225351988</v>
+        <v>0.005962391071701584</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1513,59 +1513,59 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45532.79513888889</v>
+        <v>45533.61458333334</v>
       </c>
       <c r="B56" s="2">
-        <v>45532.80902777778</v>
+        <v>45533.64583333334</v>
       </c>
       <c r="C56">
-        <v>65.535</v>
+        <v>61.5</v>
       </c>
       <c r="D56">
-        <v>65.8</v>
+        <v>60.53</v>
       </c>
       <c r="E56">
-        <v>0.004043640802624561</v>
+        <v>-0.01577235772357722</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45533.61458333334</v>
+        <v>45533.75694444445</v>
       </c>
       <c r="B57" s="2">
-        <v>45533.62847222222</v>
+        <v>45533.77083333334</v>
       </c>
       <c r="C57">
-        <v>60.99</v>
+        <v>59.73</v>
       </c>
       <c r="D57">
-        <v>61.76</v>
+        <v>57.7</v>
       </c>
       <c r="E57">
-        <v>0.01262502049516308</v>
+        <v>-0.03398627155533223</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45533.75694444445</v>
+        <v>45533.76736111111</v>
       </c>
       <c r="B58" s="2">
-        <v>45533.77083333334</v>
+        <v>45533.78125</v>
       </c>
       <c r="C58">
-        <v>59.37</v>
+        <v>58.32</v>
       </c>
       <c r="D58">
-        <v>57.7</v>
+        <v>57.15</v>
       </c>
       <c r="E58">
-        <v>-0.02812868452080166</v>
+        <v>-0.02006172839506176</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -1573,19 +1573,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45533.76736111111</v>
+        <v>45538.65972222222</v>
       </c>
       <c r="B59" s="2">
-        <v>45533.78125</v>
+        <v>45538.68055555555</v>
       </c>
       <c r="C59">
-        <v>59.05</v>
+        <v>49.97</v>
       </c>
       <c r="D59">
-        <v>57.15</v>
+        <v>49.4</v>
       </c>
       <c r="E59">
-        <v>-0.03217612193056729</v>
+        <v>-0.01140684410646388</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -1593,79 +1593,79 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45538.65972222222</v>
+        <v>45538.70486111111</v>
       </c>
       <c r="B60" s="2">
-        <v>45538.68402777778</v>
+        <v>45538.73958333334</v>
       </c>
       <c r="C60">
-        <v>49.77</v>
+        <v>49.435</v>
       </c>
       <c r="D60">
-        <v>49.31</v>
+        <v>49.04</v>
       </c>
       <c r="E60">
-        <v>-0.009242515571629513</v>
+        <v>-0.007990290280165938</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45538.70486111111</v>
+        <v>45538.80555555555</v>
       </c>
       <c r="B61" s="2">
-        <v>45538.73958333334</v>
+        <v>45538.81944444445</v>
       </c>
       <c r="C61">
-        <v>49.465</v>
+        <v>47.78</v>
       </c>
       <c r="D61">
-        <v>49.04</v>
+        <v>47.28</v>
       </c>
       <c r="E61">
-        <v>-0.00859193369048831</v>
+        <v>-0.01046462955211385</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45538.80555555555</v>
+        <v>45539.58333333334</v>
       </c>
       <c r="B62" s="2">
-        <v>45538.81944444445</v>
+        <v>45539.59722222222</v>
       </c>
       <c r="C62">
-        <v>47.92</v>
+        <v>46.06</v>
       </c>
       <c r="D62">
-        <v>47.28</v>
+        <v>46.81</v>
       </c>
       <c r="E62">
-        <v>-0.01335559265442405</v>
+        <v>0.01628310898827616</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45539.58333333334</v>
+        <v>45539.67013888889</v>
       </c>
       <c r="B63" s="2">
-        <v>45539.59722222222</v>
+        <v>45539.68402777778</v>
       </c>
       <c r="C63">
-        <v>45.31</v>
+        <v>46.96</v>
       </c>
       <c r="D63">
-        <v>46.81</v>
+        <v>47.8</v>
       </c>
       <c r="E63">
-        <v>0.03310527477378062</v>
+        <v>0.01788756388415665</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -1673,119 +1673,119 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45539.67013888889</v>
+        <v>45540.68055555555</v>
       </c>
       <c r="B64" s="2">
-        <v>45539.68402777778</v>
+        <v>45540.70138888889</v>
       </c>
       <c r="C64">
-        <v>46.93</v>
+        <v>46.63</v>
       </c>
       <c r="D64">
-        <v>47.8</v>
+        <v>46.11</v>
       </c>
       <c r="E64">
-        <v>0.01853824845514591</v>
+        <v>-0.01115161912931596</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45540.68055555555</v>
+        <v>45541.6875</v>
       </c>
       <c r="B65" s="2">
-        <v>45540.70138888889</v>
+        <v>45541.70486111111</v>
       </c>
       <c r="C65">
-        <v>46.45</v>
+        <v>42.32</v>
       </c>
       <c r="D65">
-        <v>46.11</v>
+        <v>41.815</v>
       </c>
       <c r="E65">
-        <v>-0.007319698600645928</v>
+        <v>-0.01193289224952747</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45541.6875</v>
+        <v>45544.65277777778</v>
       </c>
       <c r="B66" s="2">
-        <v>45541.71180555555</v>
+        <v>45544.67013888889</v>
       </c>
       <c r="C66">
-        <v>41.93</v>
+        <v>44.3</v>
       </c>
       <c r="D66">
-        <v>42.5</v>
+        <v>44.53</v>
       </c>
       <c r="E66">
-        <v>0.0135940853803959</v>
+        <v>0.005191873589164875</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45544.65277777778</v>
+        <v>45548.60763888889</v>
       </c>
       <c r="B67" s="2">
-        <v>45544.67013888889</v>
+        <v>45548.625</v>
       </c>
       <c r="C67">
-        <v>44.3</v>
+        <v>56.21</v>
       </c>
       <c r="D67">
-        <v>44.53</v>
+        <v>57.07</v>
       </c>
       <c r="E67">
-        <v>0.005191873589164875</v>
+        <v>0.01529976872442625</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45548.60763888889</v>
+        <v>45548.71180555555</v>
       </c>
       <c r="B68" s="2">
-        <v>45548.62152777778</v>
+        <v>45548.72569444445</v>
       </c>
       <c r="C68">
-        <v>55.96</v>
+        <v>56.68</v>
       </c>
       <c r="D68">
-        <v>56.87</v>
+        <v>56.6</v>
       </c>
       <c r="E68">
-        <v>0.01626161543959965</v>
+        <v>-0.001411432604093124</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45548.71180555555</v>
+        <v>45548.76736111111</v>
       </c>
       <c r="B69" s="2">
-        <v>45548.72569444445</v>
+        <v>45548.78125</v>
       </c>
       <c r="C69">
-        <v>56.68</v>
+        <v>56.12</v>
       </c>
       <c r="D69">
-        <v>56.6</v>
+        <v>56.35</v>
       </c>
       <c r="E69">
-        <v>-0.001411432604093124</v>
+        <v>0.004098360655737776</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -1793,39 +1793,39 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45548.76736111111</v>
+        <v>45551.71527777778</v>
       </c>
       <c r="B70" s="2">
-        <v>45548.78125</v>
+        <v>45551.73958333334</v>
       </c>
       <c r="C70">
-        <v>56.09</v>
+        <v>54.16</v>
       </c>
       <c r="D70">
-        <v>56.35</v>
+        <v>54.46</v>
       </c>
       <c r="E70">
-        <v>0.004635407380994794</v>
+        <v>0.0055391432791729</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45551.71527777778</v>
+        <v>45551.82291666666</v>
       </c>
       <c r="B71" s="2">
-        <v>45551.73958333334</v>
+        <v>45552.56597222222</v>
       </c>
       <c r="C71">
-        <v>54.17</v>
+        <v>54.09</v>
       </c>
       <c r="D71">
-        <v>54.46</v>
+        <v>55.545</v>
       </c>
       <c r="E71">
-        <v>0.005353516706664189</v>
+        <v>0.02689961175818078</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -1833,139 +1833,139 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45551.82291666666</v>
+        <v>45552.78819444445</v>
       </c>
       <c r="B72" s="2">
-        <v>45552.56597222222</v>
+        <v>45552.81597222222</v>
       </c>
       <c r="C72">
-        <v>54.21</v>
+        <v>52.84</v>
       </c>
       <c r="D72">
-        <v>55.545</v>
+        <v>52.98</v>
       </c>
       <c r="E72">
-        <v>0.02462645268400666</v>
+        <v>0.002649507948523722</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45552.78819444445</v>
+        <v>45554.57291666666</v>
       </c>
       <c r="B73" s="2">
-        <v>45552.81597222222</v>
+        <v>45554.58680555555</v>
       </c>
       <c r="C73">
-        <v>52.83</v>
+        <v>55.58</v>
       </c>
       <c r="D73">
-        <v>52.98</v>
+        <v>55.62</v>
       </c>
       <c r="E73">
-        <v>0.002839295854628025</v>
+        <v>0.0007196833393306792</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45554.57291666666</v>
+        <v>45555.5625</v>
       </c>
       <c r="B74" s="2">
-        <v>45554.58680555555</v>
+        <v>45555.57986111111</v>
       </c>
       <c r="C74">
-        <v>55.63</v>
+        <v>55.27</v>
       </c>
       <c r="D74">
-        <v>55.62</v>
+        <v>55.06</v>
       </c>
       <c r="E74">
-        <v>-0.0001797591227755728</v>
+        <v>-0.003799529582051761</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45555.5625</v>
+        <v>45555.66319444445</v>
       </c>
       <c r="B75" s="2">
-        <v>45555.57638888889</v>
+        <v>45555.69097222222</v>
       </c>
       <c r="C75">
-        <v>54.36</v>
+        <v>53.7</v>
       </c>
       <c r="D75">
-        <v>55.25</v>
+        <v>53.89</v>
       </c>
       <c r="E75">
-        <v>0.01637233259749817</v>
+        <v>0.003538175046554892</v>
       </c>
       <c r="F75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45555.66319444445</v>
+        <v>45555.73611111111</v>
       </c>
       <c r="B76" s="2">
-        <v>45555.69097222222</v>
+        <v>45555.75</v>
       </c>
       <c r="C76">
-        <v>53.59</v>
+        <v>53.83</v>
       </c>
       <c r="D76">
-        <v>53.89</v>
+        <v>53.2</v>
       </c>
       <c r="E76">
-        <v>0.005598059339428945</v>
+        <v>-0.01170351105331591</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45555.73611111111</v>
+        <v>45555.78125</v>
       </c>
       <c r="B77" s="2">
-        <v>45555.75</v>
+        <v>45555.80902777778</v>
       </c>
       <c r="C77">
-        <v>53.78</v>
+        <v>53.22</v>
       </c>
       <c r="D77">
-        <v>53.2</v>
+        <v>54.02</v>
       </c>
       <c r="E77">
-        <v>-0.01078467831907769</v>
+        <v>0.01503194287861714</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45555.78125</v>
+        <v>45558.65972222222</v>
       </c>
       <c r="B78" s="2">
-        <v>45555.80902777778</v>
+        <v>45558.67361111111</v>
       </c>
       <c r="C78">
-        <v>53.31</v>
+        <v>53.52</v>
       </c>
       <c r="D78">
-        <v>54.02</v>
+        <v>53.14</v>
       </c>
       <c r="E78">
-        <v>0.013318326767961</v>
+        <v>-0.007100149476831139</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -1973,19 +1973,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45558.65972222222</v>
+        <v>45558.73263888889</v>
       </c>
       <c r="B79" s="2">
-        <v>45558.67361111111</v>
+        <v>45558.74652777778</v>
       </c>
       <c r="C79">
-        <v>53.42</v>
+        <v>52.98</v>
       </c>
       <c r="D79">
-        <v>53.14</v>
+        <v>53.32</v>
       </c>
       <c r="E79">
-        <v>-0.005241482590789988</v>
+        <v>0.006417516043790174</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -1993,79 +1993,79 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45558.73263888889</v>
+        <v>45559.79861111111</v>
       </c>
       <c r="B80" s="2">
-        <v>45558.74652777778</v>
+        <v>45559.8125</v>
       </c>
       <c r="C80">
-        <v>52.98</v>
+        <v>57.86</v>
       </c>
       <c r="D80">
-        <v>53.32</v>
+        <v>57.22</v>
       </c>
       <c r="E80">
-        <v>0.006417516043790174</v>
+        <v>-0.01106118216384377</v>
       </c>
       <c r="F80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45559.79861111111</v>
+        <v>45560.70138888889</v>
       </c>
       <c r="B81" s="2">
-        <v>45559.8125</v>
+        <v>45560.71527777778</v>
       </c>
       <c r="C81">
-        <v>58</v>
+        <v>60.29</v>
       </c>
       <c r="D81">
-        <v>57.22</v>
+        <v>59.73</v>
       </c>
       <c r="E81">
-        <v>-0.01344827586206898</v>
+        <v>-0.009288439210482705</v>
       </c>
       <c r="F81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45560.70138888889</v>
+        <v>45561.66319444445</v>
       </c>
       <c r="B82" s="2">
-        <v>45560.71527777778</v>
+        <v>45561.67708333334</v>
       </c>
       <c r="C82">
-        <v>60.25</v>
+        <v>61.24</v>
       </c>
       <c r="D82">
-        <v>59.73</v>
+        <v>60.11</v>
       </c>
       <c r="E82">
-        <v>-0.008630705394190924</v>
+        <v>-0.01845199216198567</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45561.66319444445</v>
+        <v>45561.74652777778</v>
       </c>
       <c r="B83" s="2">
-        <v>45561.68055555555</v>
+        <v>45561.76736111111</v>
       </c>
       <c r="C83">
-        <v>60.77</v>
+        <v>60.01</v>
       </c>
       <c r="D83">
-        <v>59.86</v>
+        <v>60.67</v>
       </c>
       <c r="E83">
-        <v>-0.01497449399374697</v>
+        <v>0.01099816697217137</v>
       </c>
       <c r="F83" t="s">
         <v>7</v>
@@ -2073,79 +2073,79 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45561.74652777778</v>
+        <v>45562.58333333334</v>
       </c>
       <c r="B84" s="2">
-        <v>45561.76736111111</v>
+        <v>45562.59722222222</v>
       </c>
       <c r="C84">
-        <v>60.13</v>
+        <v>59.39</v>
       </c>
       <c r="D84">
-        <v>60.67</v>
+        <v>58.15</v>
       </c>
       <c r="E84">
-        <v>0.00898054215865623</v>
+        <v>-0.02087893584778586</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45562.58333333334</v>
+        <v>45562.65277777778</v>
       </c>
       <c r="B85" s="2">
-        <v>45562.59722222222</v>
+        <v>45562.68402777778</v>
       </c>
       <c r="C85">
-        <v>59.49</v>
+        <v>57.45</v>
       </c>
       <c r="D85">
-        <v>58.15</v>
+        <v>57.52</v>
       </c>
       <c r="E85">
-        <v>-0.02252479408303922</v>
+        <v>0.001218450826805923</v>
       </c>
       <c r="F85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45562.65277777778</v>
+        <v>45562.80902777778</v>
       </c>
       <c r="B86" s="2">
-        <v>45562.68402777778</v>
+        <v>45562.82638888889</v>
       </c>
       <c r="C86">
-        <v>57.35</v>
+        <v>57.28</v>
       </c>
       <c r="D86">
-        <v>57.52</v>
+        <v>58.27</v>
       </c>
       <c r="E86">
-        <v>0.002964254577157833</v>
+        <v>0.01728351955307266</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45562.80902777778</v>
+        <v>45565.61111111111</v>
       </c>
       <c r="B87" s="2">
-        <v>45562.82638888889</v>
+        <v>45565.64930555555</v>
       </c>
       <c r="C87">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="D87">
-        <v>58.27</v>
+        <v>57.25</v>
       </c>
       <c r="E87">
-        <v>0.02588028169014095</v>
+        <v>0.0114840989399293</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
@@ -2153,19 +2153,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45565.61111111111</v>
+        <v>45565.64236111111</v>
       </c>
       <c r="B88" s="2">
-        <v>45565.64930555555</v>
+        <v>45565.65625</v>
       </c>
       <c r="C88">
-        <v>56.91</v>
+        <v>57.62</v>
       </c>
       <c r="D88">
-        <v>57.25</v>
+        <v>57.8</v>
       </c>
       <c r="E88">
-        <v>0.005974345457740352</v>
+        <v>0.003123915307185</v>
       </c>
       <c r="F88" t="s">
         <v>7</v>
@@ -2173,19 +2173,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45565.64236111111</v>
+        <v>45565.78472222222</v>
       </c>
       <c r="B89" s="2">
-        <v>45565.65625</v>
+        <v>45565.82638888889</v>
       </c>
       <c r="C89">
-        <v>57.49</v>
+        <v>57.1</v>
       </c>
       <c r="D89">
-        <v>57.8</v>
+        <v>57.73</v>
       </c>
       <c r="E89">
-        <v>0.005392242129065841</v>
+        <v>0.01103327495621708</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
@@ -2193,139 +2193,139 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45565.78472222222</v>
+        <v>45566.65972222222</v>
       </c>
       <c r="B90" s="2">
-        <v>45565.82638888889</v>
+        <v>45566.67361111111</v>
       </c>
       <c r="C90">
-        <v>56.75</v>
+        <v>54.29</v>
       </c>
       <c r="D90">
-        <v>57.73</v>
+        <v>54.68</v>
       </c>
       <c r="E90">
-        <v>0.0172687224669603</v>
+        <v>0.007183643396573965</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45566.65972222222</v>
+        <v>45566.67708333334</v>
       </c>
       <c r="B91" s="2">
-        <v>45566.67361111111</v>
+        <v>45566.69444444445</v>
       </c>
       <c r="C91">
-        <v>54.42</v>
+        <v>54.61</v>
       </c>
       <c r="D91">
-        <v>54.68</v>
+        <v>53.67</v>
       </c>
       <c r="E91">
-        <v>0.004777655273796362</v>
+        <v>-0.01721296465848741</v>
       </c>
       <c r="F91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45566.67708333334</v>
+        <v>45566.71180555555</v>
       </c>
       <c r="B92" s="2">
-        <v>45566.69444444445</v>
+        <v>45566.72569444445</v>
       </c>
       <c r="C92">
-        <v>54.68</v>
+        <v>53.47</v>
       </c>
       <c r="D92">
-        <v>53.67</v>
+        <v>53.01</v>
       </c>
       <c r="E92">
-        <v>-0.018471104608632</v>
+        <v>-0.008602954927997024</v>
       </c>
       <c r="F92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45566.71180555555</v>
+        <v>45566.74652777778</v>
       </c>
       <c r="B93" s="2">
-        <v>45566.72569444445</v>
+        <v>45566.76736111111</v>
       </c>
       <c r="C93">
-        <v>53.38</v>
+        <v>54.25</v>
       </c>
       <c r="D93">
-        <v>53.01</v>
+        <v>54.58</v>
       </c>
       <c r="E93">
-        <v>-0.006931434994380002</v>
+        <v>0.006082949308755729</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45566.74652777778</v>
+        <v>45567.74305555555</v>
       </c>
       <c r="B94" s="2">
-        <v>45566.76736111111</v>
+        <v>45567.78125</v>
       </c>
       <c r="C94">
-        <v>53.94</v>
+        <v>55.26</v>
       </c>
       <c r="D94">
-        <v>54.58</v>
+        <v>55.555</v>
       </c>
       <c r="E94">
-        <v>0.01186503522432333</v>
+        <v>0.005338400289540386</v>
       </c>
       <c r="F94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45567.74305555555</v>
+        <v>45568.64930555555</v>
       </c>
       <c r="B95" s="2">
-        <v>45567.78125</v>
+        <v>45568.67013888889</v>
       </c>
       <c r="C95">
-        <v>55.26</v>
+        <v>59.36</v>
       </c>
       <c r="D95">
-        <v>55.555</v>
+        <v>59.35</v>
       </c>
       <c r="E95">
-        <v>0.005338400289540386</v>
+        <v>-0.0001684636118598048</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45568.64930555555</v>
+        <v>45568.73263888889</v>
       </c>
       <c r="B96" s="2">
-        <v>45568.67013888889</v>
+        <v>45568.75694444445</v>
       </c>
       <c r="C96">
-        <v>59.53</v>
+        <v>59.125</v>
       </c>
       <c r="D96">
-        <v>59.35</v>
+        <v>59.36</v>
       </c>
       <c r="E96">
-        <v>-0.003023685536704178</v>
+        <v>0.003974630021141639</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
@@ -2333,39 +2333,39 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45568.73263888889</v>
+        <v>45568.82291666666</v>
       </c>
       <c r="B97" s="2">
-        <v>45568.74652777778</v>
+        <v>45569.57291666666</v>
       </c>
       <c r="C97">
-        <v>59.33</v>
+        <v>59.23</v>
       </c>
       <c r="D97">
-        <v>59.415</v>
+        <v>60.41</v>
       </c>
       <c r="E97">
-        <v>0.001432664756447006</v>
+        <v>0.01992233665372277</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45568.82291666666</v>
+        <v>45573.5625</v>
       </c>
       <c r="B98" s="2">
-        <v>45569.57291666666</v>
+        <v>45573.57638888889</v>
       </c>
       <c r="C98">
-        <v>58.91</v>
+        <v>66.785</v>
       </c>
       <c r="D98">
-        <v>60.41</v>
+        <v>66.91</v>
       </c>
       <c r="E98">
-        <v>0.02546257002206756</v>
+        <v>0.00187167777195478</v>
       </c>
       <c r="F98" t="s">
         <v>7</v>
@@ -2373,39 +2373,39 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45573.5625</v>
+        <v>45573.6875</v>
       </c>
       <c r="B99" s="2">
-        <v>45573.57638888889</v>
+        <v>45573.70833333334</v>
       </c>
       <c r="C99">
-        <v>66.5</v>
+        <v>68.72</v>
       </c>
       <c r="D99">
-        <v>66.91</v>
+        <v>68.28</v>
       </c>
       <c r="E99">
-        <v>0.006165413533834535</v>
+        <v>-0.006402793946449326</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45573.6875</v>
+        <v>45573.75</v>
       </c>
       <c r="B100" s="2">
-        <v>45573.70833333334</v>
+        <v>45573.76736111111</v>
       </c>
       <c r="C100">
-        <v>68.81</v>
+        <v>68.56</v>
       </c>
       <c r="D100">
-        <v>68.28</v>
+        <v>68.84</v>
       </c>
       <c r="E100">
-        <v>-0.007702368841738136</v>
+        <v>0.004084014002333739</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
@@ -2413,19 +2413,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45573.75</v>
+        <v>45574.70138888889</v>
       </c>
       <c r="B101" s="2">
-        <v>45573.76736111111</v>
+        <v>45574.71875</v>
       </c>
       <c r="C101">
-        <v>68.70999999999999</v>
+        <v>68.13</v>
       </c>
       <c r="D101">
-        <v>68.84</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E101">
-        <v>0.001892009896667293</v>
+        <v>-0.002054895053574058</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>
@@ -2433,39 +2433,39 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45574.70138888889</v>
+        <v>45574.71527777778</v>
       </c>
       <c r="B102" s="2">
-        <v>45574.71875</v>
+        <v>45574.72916666666</v>
       </c>
       <c r="C102">
-        <v>68.55</v>
+        <v>68.17</v>
       </c>
       <c r="D102">
-        <v>67.98999999999999</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E102">
-        <v>-0.008169219547775381</v>
+        <v>-0.0002933841865922843</v>
       </c>
       <c r="F102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45574.71527777778</v>
+        <v>45575.73263888889</v>
       </c>
       <c r="B103" s="2">
-        <v>45574.72916666666</v>
+        <v>45575.74652777778</v>
       </c>
       <c r="C103">
-        <v>68.16</v>
+        <v>71.11</v>
       </c>
       <c r="D103">
-        <v>68.15000000000001</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="E103">
-        <v>-0.0001467136150233407</v>
+        <v>-0.004500070313598554</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -2473,19 +2473,19 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45575.73263888889</v>
+        <v>45579.68055555555</v>
       </c>
       <c r="B104" s="2">
-        <v>45575.74652777778</v>
+        <v>45579.70138888889</v>
       </c>
       <c r="C104">
-        <v>71.16</v>
+        <v>74.83</v>
       </c>
       <c r="D104">
-        <v>70.79000000000001</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="E104">
-        <v>-0.005199550309162315</v>
+        <v>-0.0005345449685953767</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -2493,39 +2493,39 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45579.68055555555</v>
+        <v>45580.56597222222</v>
       </c>
       <c r="B105" s="2">
-        <v>45579.70138888889</v>
+        <v>45580.57986111111</v>
       </c>
       <c r="C105">
-        <v>74.83</v>
+        <v>74.11</v>
       </c>
       <c r="D105">
-        <v>74.79000000000001</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="E105">
-        <v>-0.0005345449685953767</v>
+        <v>-0.03467818108217505</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45580.56597222222</v>
+        <v>45580.64930555555</v>
       </c>
       <c r="B106" s="2">
-        <v>45580.57986111111</v>
+        <v>45580.66319444445</v>
       </c>
       <c r="C106">
-        <v>74.34999999999999</v>
+        <v>67.36</v>
       </c>
       <c r="D106">
-        <v>71.54000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="E106">
-        <v>-0.03779421654337577</v>
+        <v>-0.014103325415677</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -2533,99 +2533,99 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45580.64930555555</v>
+        <v>45580.6875</v>
       </c>
       <c r="B107" s="2">
-        <v>45580.66319444445</v>
+        <v>45580.72569444445</v>
       </c>
       <c r="C107">
-        <v>68.16</v>
+        <v>67</v>
       </c>
       <c r="D107">
-        <v>66.41</v>
+        <v>66.77</v>
       </c>
       <c r="E107">
-        <v>-0.02567488262910798</v>
+        <v>-0.003432835820895582</v>
       </c>
       <c r="F107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45580.6875</v>
+        <v>45582.73263888889</v>
       </c>
       <c r="B108" s="2">
-        <v>45580.70486111111</v>
+        <v>45582.74652777778</v>
       </c>
       <c r="C108">
-        <v>66.62</v>
+        <v>75.75</v>
       </c>
       <c r="D108">
-        <v>67.11</v>
+        <v>75.56</v>
       </c>
       <c r="E108">
-        <v>0.007355148604022739</v>
+        <v>-0.002508250825082478</v>
       </c>
       <c r="F108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45580.70138888889</v>
+        <v>45582.81597222222</v>
       </c>
       <c r="B109" s="2">
-        <v>45580.72569444445</v>
+        <v>45582.82986111111</v>
       </c>
       <c r="C109">
-        <v>67.23</v>
+        <v>73.53</v>
       </c>
       <c r="D109">
-        <v>66.77</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="E109">
-        <v>-0.006842183549010976</v>
+        <v>-0.009247926016591961</v>
       </c>
       <c r="F109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45582.73263888889</v>
+        <v>45583.57291666666</v>
       </c>
       <c r="B110" s="2">
-        <v>45582.74652777778</v>
+        <v>45583.59722222222</v>
       </c>
       <c r="C110">
-        <v>75.81999999999999</v>
+        <v>73.62</v>
       </c>
       <c r="D110">
-        <v>75.56</v>
+        <v>74.11</v>
       </c>
       <c r="E110">
-        <v>-0.003429174360326971</v>
+        <v>0.006655800054332992</v>
       </c>
       <c r="F110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45582.81597222222</v>
+        <v>45583.66319444445</v>
       </c>
       <c r="B111" s="2">
-        <v>45582.82986111111</v>
+        <v>45583.67708333334</v>
       </c>
       <c r="C111">
-        <v>73.97</v>
+        <v>73.8</v>
       </c>
       <c r="D111">
-        <v>72.84999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="E111">
-        <v>-0.01514127348925246</v>
+        <v>-0.008130081300812931</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -2633,39 +2633,39 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45583.57291666666</v>
+        <v>45583.69791666666</v>
       </c>
       <c r="B112" s="2">
-        <v>45583.60069444445</v>
+        <v>45583.71875</v>
       </c>
       <c r="C112">
-        <v>74.09999999999999</v>
+        <v>73.94</v>
       </c>
       <c r="D112">
-        <v>74.16</v>
+        <v>74.08</v>
       </c>
       <c r="E112">
-        <v>0.0008097165991903142</v>
+        <v>0.00189342710305654</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45583.66319444445</v>
+        <v>45583.80902777778</v>
       </c>
       <c r="B113" s="2">
-        <v>45583.67708333334</v>
+        <v>45583.82291666666</v>
       </c>
       <c r="C113">
-        <v>73.81</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="D113">
-        <v>73.2</v>
+        <v>73.89</v>
       </c>
       <c r="E113">
-        <v>-0.008264462809917347</v>
+        <v>-0.002430133657351055</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
@@ -2673,19 +2673,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45583.69791666666</v>
+        <v>45586.56597222222</v>
       </c>
       <c r="B114" s="2">
-        <v>45583.71875</v>
+        <v>45586.57986111111</v>
       </c>
       <c r="C114">
-        <v>73.73</v>
+        <v>75.92</v>
       </c>
       <c r="D114">
-        <v>74.08</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="E114">
-        <v>0.004747050047470423</v>
+        <v>0.01883561643835607</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
@@ -2693,39 +2693,39 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45583.80902777778</v>
+        <v>45586.65625</v>
       </c>
       <c r="B115" s="2">
-        <v>45583.82291666666</v>
+        <v>45586.67013888889</v>
       </c>
       <c r="C115">
-        <v>74.08</v>
+        <v>77.06</v>
       </c>
       <c r="D115">
-        <v>73.89</v>
+        <v>77.39</v>
       </c>
       <c r="E115">
-        <v>-0.002564794816414656</v>
+        <v>0.004282377368284431</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45586.56597222222</v>
+        <v>45587.81597222222</v>
       </c>
       <c r="B116" s="2">
-        <v>45586.57986111111</v>
+        <v>45587.83333333334</v>
       </c>
       <c r="C116">
-        <v>75.81999999999999</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="D116">
-        <v>77.34999999999999</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="E116">
-        <v>0.02017937219730943</v>
+        <v>-0.0003758456527184531</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
@@ -2733,79 +2733,79 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45586.65625</v>
+        <v>45588.67361111111</v>
       </c>
       <c r="B117" s="2">
-        <v>45586.67013888889</v>
+        <v>45588.6875</v>
       </c>
       <c r="C117">
-        <v>77.13</v>
+        <v>75.97</v>
       </c>
       <c r="D117">
-        <v>77.39</v>
+        <v>75.12</v>
       </c>
       <c r="E117">
-        <v>0.003370932192402504</v>
+        <v>-0.01118862708964057</v>
       </c>
       <c r="F117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45587.81597222222</v>
+        <v>45589.69097222222</v>
       </c>
       <c r="B118" s="2">
-        <v>45587.83333333334</v>
+        <v>45589.71875</v>
       </c>
       <c r="C118">
-        <v>79.95999999999999</v>
+        <v>75.34</v>
       </c>
       <c r="D118">
-        <v>79.79000000000001</v>
+        <v>75.31</v>
       </c>
       <c r="E118">
-        <v>-0.002126063031515602</v>
+        <v>-0.0003981948500132882</v>
       </c>
       <c r="F118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45588.67361111111</v>
+        <v>45590.72569444445</v>
       </c>
       <c r="B119" s="2">
-        <v>45588.6875</v>
+        <v>45590.73958333334</v>
       </c>
       <c r="C119">
-        <v>75.97</v>
+        <v>78.52</v>
       </c>
       <c r="D119">
-        <v>75.12</v>
+        <v>78.14</v>
       </c>
       <c r="E119">
-        <v>-0.01118862708964057</v>
+        <v>-0.004839531329597497</v>
       </c>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45589.69097222222</v>
+        <v>45593.59375</v>
       </c>
       <c r="B120" s="2">
-        <v>45589.71875</v>
+        <v>45593.60763888889</v>
       </c>
       <c r="C120">
-        <v>75.23</v>
+        <v>77.38</v>
       </c>
       <c r="D120">
-        <v>75.31</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="E120">
-        <v>0.001063405556294009</v>
+        <v>-0.004781597311966792</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -2813,59 +2813,59 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45590.72569444445</v>
+        <v>45593.70486111111</v>
       </c>
       <c r="B121" s="2">
-        <v>45590.73958333334</v>
+        <v>45593.72222222222</v>
       </c>
       <c r="C121">
-        <v>78.7</v>
+        <v>76.2</v>
       </c>
       <c r="D121">
-        <v>78.14</v>
+        <v>76.86</v>
       </c>
       <c r="E121">
-        <v>-0.007115628970775124</v>
+        <v>0.0086614173228346</v>
       </c>
       <c r="F121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45593.59375</v>
+        <v>45594.77430555555</v>
       </c>
       <c r="B122" s="2">
-        <v>45593.60763888889</v>
+        <v>45594.78819444445</v>
       </c>
       <c r="C122">
-        <v>77.65000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D122">
-        <v>77.01000000000001</v>
+        <v>77.45999999999999</v>
       </c>
       <c r="E122">
-        <v>-0.008242112041210567</v>
+        <v>-0.001804123711340214</v>
       </c>
       <c r="F122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45593.70486111111</v>
+        <v>45595.61805555555</v>
       </c>
       <c r="B123" s="2">
-        <v>45593.72222222222</v>
+        <v>45595.63194444445</v>
       </c>
       <c r="C123">
-        <v>76.2</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="D123">
-        <v>76.86</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E123">
-        <v>0.0086614173228346</v>
+        <v>0.002284025258632104</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
@@ -2873,19 +2873,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45594.77430555555</v>
+        <v>45595.76388888889</v>
       </c>
       <c r="B124" s="2">
-        <v>45594.78819444445</v>
+        <v>45595.79166666666</v>
       </c>
       <c r="C124">
-        <v>77.48999999999999</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="D124">
-        <v>77.45999999999999</v>
+        <v>75.13</v>
       </c>
       <c r="E124">
-        <v>-0.0003871467286101579</v>
+        <v>-0.009492419248516796</v>
       </c>
       <c r="F124" t="s">
         <v>7</v>
@@ -2893,79 +2893,79 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45595.61805555555</v>
+        <v>45595.82986111111</v>
       </c>
       <c r="B125" s="2">
-        <v>45595.63194444445</v>
+        <v>45596.57291666666</v>
       </c>
       <c r="C125">
-        <v>74.91</v>
+        <v>74.87</v>
       </c>
       <c r="D125">
-        <v>74.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E125">
-        <v>-0.004138299292484345</v>
+        <v>-0.07038867370108201</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45595.76388888889</v>
+        <v>45596.56944444445</v>
       </c>
       <c r="B126" s="2">
-        <v>45595.79166666666</v>
+        <v>45596.58333333334</v>
       </c>
       <c r="C126">
-        <v>75.55</v>
+        <v>71.13</v>
       </c>
       <c r="D126">
-        <v>75.13</v>
+        <v>68.3</v>
       </c>
       <c r="E126">
-        <v>-0.005559232296492412</v>
+        <v>-0.03978630676226625</v>
       </c>
       <c r="F126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45595.82986111111</v>
+        <v>45596.65972222222</v>
       </c>
       <c r="B127" s="2">
-        <v>45596.57291666666</v>
+        <v>45596.67361111111</v>
       </c>
       <c r="C127">
-        <v>75.06</v>
+        <v>67.45</v>
       </c>
       <c r="D127">
-        <v>69.59999999999999</v>
+        <v>68.61</v>
       </c>
       <c r="E127">
-        <v>-0.0727418065547563</v>
+        <v>0.01719792438843583</v>
       </c>
       <c r="F127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45596.56944444445</v>
+        <v>45597.74305555555</v>
       </c>
       <c r="B128" s="2">
-        <v>45596.58333333334</v>
+        <v>45597.76041666666</v>
       </c>
       <c r="C128">
-        <v>70.73999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="D128">
-        <v>68.3</v>
+        <v>70.44</v>
       </c>
       <c r="E128">
-        <v>-0.03449250777495049</v>
+        <v>-0.004381625441696145</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -2973,59 +2973,59 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45596.65972222222</v>
+        <v>45597.77083333334</v>
       </c>
       <c r="B129" s="2">
-        <v>45596.68402777778</v>
+        <v>45597.80208333334</v>
       </c>
       <c r="C129">
-        <v>67.72</v>
+        <v>70.66</v>
       </c>
       <c r="D129">
-        <v>68.47</v>
+        <v>70.81</v>
       </c>
       <c r="E129">
-        <v>0.01107501476668636</v>
+        <v>0.002122841777526262</v>
       </c>
       <c r="F129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45597.74305555555</v>
+        <v>45601.61458333334</v>
       </c>
       <c r="B130" s="2">
-        <v>45597.76041666666</v>
+        <v>45601.63194444445</v>
       </c>
       <c r="C130">
-        <v>70.75</v>
+        <v>73.58</v>
       </c>
       <c r="D130">
-        <v>70.44</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="E130">
-        <v>-0.004381625441696145</v>
+        <v>0.002174503941288347</v>
       </c>
       <c r="F130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45597.77083333334</v>
+        <v>45601.76736111111</v>
       </c>
       <c r="B131" s="2">
-        <v>45597.80208333334</v>
+        <v>45601.78125</v>
       </c>
       <c r="C131">
-        <v>70.44</v>
+        <v>74.88</v>
       </c>
       <c r="D131">
-        <v>70.81</v>
+        <v>74.3</v>
       </c>
       <c r="E131">
-        <v>0.005252697331061961</v>
+        <v>-0.007745726495726473</v>
       </c>
       <c r="F131" t="s">
         <v>9</v>
@@ -3033,59 +3033,59 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45601.61458333334</v>
+        <v>45601.77430555555</v>
       </c>
       <c r="B132" s="2">
-        <v>45601.63194444445</v>
+        <v>45601.78819444445</v>
       </c>
       <c r="C132">
-        <v>73.2</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D132">
-        <v>73.73999999999999</v>
+        <v>74.39</v>
       </c>
       <c r="E132">
-        <v>0.00737704918032776</v>
+        <v>0.0005379959650303464</v>
       </c>
       <c r="F132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45601.76736111111</v>
+        <v>45603.61458333334</v>
       </c>
       <c r="B133" s="2">
-        <v>45601.78125</v>
+        <v>45603.62847222222</v>
       </c>
       <c r="C133">
-        <v>74.87</v>
+        <v>83.12</v>
       </c>
       <c r="D133">
-        <v>74.3</v>
+        <v>84.27</v>
       </c>
       <c r="E133">
-        <v>-0.007613196206758479</v>
+        <v>0.0138354186717997</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45601.77430555555</v>
+        <v>45603.69791666666</v>
       </c>
       <c r="B134" s="2">
-        <v>45601.78819444445</v>
+        <v>45603.71875</v>
       </c>
       <c r="C134">
-        <v>74.55</v>
+        <v>83.91</v>
       </c>
       <c r="D134">
-        <v>74.39</v>
+        <v>83.58</v>
       </c>
       <c r="E134">
-        <v>-0.002146210596914777</v>
+        <v>-0.003932785126921682</v>
       </c>
       <c r="F134" t="s">
         <v>9</v>
@@ -3093,179 +3093,179 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45603.61458333334</v>
+        <v>45604.67013888889</v>
       </c>
       <c r="B135" s="2">
-        <v>45603.62847222222</v>
+        <v>45604.71180555555</v>
       </c>
       <c r="C135">
-        <v>82.90000000000001</v>
+        <v>82.42</v>
       </c>
       <c r="D135">
-        <v>84.27</v>
+        <v>82.87</v>
       </c>
       <c r="E135">
-        <v>0.01652593486127853</v>
+        <v>0.005459839844697923</v>
       </c>
       <c r="F135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45603.69791666666</v>
+        <v>45604.85763888889</v>
       </c>
       <c r="B136" s="2">
-        <v>45603.71875</v>
+        <v>45607.60763888889</v>
       </c>
       <c r="C136">
-        <v>83.76000000000001</v>
+        <v>82.84</v>
       </c>
       <c r="D136">
-        <v>83.58</v>
+        <v>82.095</v>
       </c>
       <c r="E136">
-        <v>-0.002148997134670568</v>
+        <v>-0.008993239980685713</v>
       </c>
       <c r="F136" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45604.67013888889</v>
+        <v>45607.74305555555</v>
       </c>
       <c r="B137" s="2">
-        <v>45604.70833333334</v>
+        <v>45607.76041666666</v>
       </c>
       <c r="C137">
-        <v>82.18000000000001</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="D137">
-        <v>83.08</v>
+        <v>80.06</v>
       </c>
       <c r="E137">
-        <v>0.01095156972499381</v>
+        <v>-0.009771181199752531</v>
       </c>
       <c r="F137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45604.85763888889</v>
+        <v>45607.79166666666</v>
       </c>
       <c r="B138" s="2">
-        <v>45607.60763888889</v>
+        <v>45607.80902777778</v>
       </c>
       <c r="C138">
-        <v>82.84</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D138">
-        <v>82.095</v>
+        <v>79.89</v>
       </c>
       <c r="E138">
-        <v>-0.008993239980685713</v>
+        <v>-0.0001251564455570102</v>
       </c>
       <c r="F138" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45607.74305555555</v>
+        <v>45607.8125</v>
       </c>
       <c r="B139" s="2">
-        <v>45607.76041666666</v>
+        <v>45607.83333333334</v>
       </c>
       <c r="C139">
-        <v>80.47</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="D139">
-        <v>80.06</v>
+        <v>80.41</v>
       </c>
       <c r="E139">
-        <v>-0.005095066484404083</v>
+        <v>0.00149458213974331</v>
       </c>
       <c r="F139" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45607.79166666666</v>
+        <v>45608.78125</v>
       </c>
       <c r="B140" s="2">
-        <v>45607.80902777778</v>
+        <v>45608.79513888889</v>
       </c>
       <c r="C140">
-        <v>80.09999999999999</v>
+        <v>83.63</v>
       </c>
       <c r="D140">
-        <v>79.89</v>
+        <v>83.47</v>
       </c>
       <c r="E140">
-        <v>-0.00262172284644187</v>
+        <v>-0.001913189046992665</v>
       </c>
       <c r="F140" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45607.8125</v>
+        <v>45609.61111111111</v>
       </c>
       <c r="B141" s="2">
-        <v>45607.83333333334</v>
+        <v>45609.625</v>
       </c>
       <c r="C141">
-        <v>80.27</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="D141">
-        <v>80.41</v>
+        <v>82.88</v>
       </c>
       <c r="E141">
-        <v>0.001744113616544171</v>
+        <v>-0.01345077966908713</v>
       </c>
       <c r="F141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45608.78125</v>
+        <v>45609.68402777778</v>
       </c>
       <c r="B142" s="2">
-        <v>45608.79513888889</v>
+        <v>45609.70138888889</v>
       </c>
       <c r="C142">
-        <v>83.5</v>
+        <v>82.73</v>
       </c>
       <c r="D142">
-        <v>83.47</v>
+        <v>82.23</v>
       </c>
       <c r="E142">
-        <v>-0.0003592814371257621</v>
+        <v>-0.006043756799226399</v>
       </c>
       <c r="F142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45609.61111111111</v>
+        <v>45609.70833333334</v>
       </c>
       <c r="B143" s="2">
-        <v>45609.625</v>
+        <v>45609.73958333334</v>
       </c>
       <c r="C143">
-        <v>83.2</v>
+        <v>82.06</v>
       </c>
       <c r="D143">
-        <v>82.88</v>
+        <v>81.86</v>
       </c>
       <c r="E143">
-        <v>-0.003846153846153935</v>
+        <v>-0.002437241043139201</v>
       </c>
       <c r="F143" t="s">
         <v>9</v>
@@ -3273,59 +3273,59 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45609.68402777778</v>
+        <v>45610.83680555555</v>
       </c>
       <c r="B144" s="2">
-        <v>45609.70138888889</v>
+        <v>45610.85069444445</v>
       </c>
       <c r="C144">
-        <v>82.61</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="D144">
-        <v>82.23</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="E144">
-        <v>-0.004599927369567794</v>
+        <v>0.0009820770930519581</v>
       </c>
       <c r="F144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45609.70833333334</v>
+        <v>45611.67013888889</v>
       </c>
       <c r="B145" s="2">
-        <v>45609.73958333334</v>
+        <v>45611.69097222222</v>
       </c>
       <c r="C145">
-        <v>82.12</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="D145">
-        <v>81.86</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="E145">
-        <v>-0.003166098392596263</v>
+        <v>-0.008978963571061939</v>
       </c>
       <c r="F145" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45610.83680555555</v>
+        <v>45611.69444444445</v>
       </c>
       <c r="B146" s="2">
-        <v>45610.85069444445</v>
+        <v>45611.70833333334</v>
       </c>
       <c r="C146">
-        <v>81.25</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="D146">
-        <v>81.54000000000001</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="E146">
-        <v>0.003569230769230846</v>
+        <v>-0.01299883010529052</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -3333,19 +3333,19 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45611.67013888889</v>
+        <v>45611.75</v>
       </c>
       <c r="B147" s="2">
-        <v>45611.68402777778</v>
+        <v>45611.76388888889</v>
       </c>
       <c r="C147">
-        <v>78.27</v>
+        <v>76.39</v>
       </c>
       <c r="D147">
-        <v>77.72499999999999</v>
+        <v>75.3</v>
       </c>
       <c r="E147">
-        <v>-0.006963076529960415</v>
+        <v>-0.0142688833616966</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -3353,59 +3353,59 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45611.68055555555</v>
+        <v>45611.75694444445</v>
       </c>
       <c r="B148" s="2">
-        <v>45611.70138888889</v>
+        <v>45611.77083333334</v>
       </c>
       <c r="C148">
-        <v>77.78</v>
+        <v>75.52</v>
       </c>
       <c r="D148">
-        <v>76.62</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="E148">
-        <v>-0.01491385960401127</v>
+        <v>0.001721398305084874</v>
       </c>
       <c r="F148" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45611.69444444445</v>
+        <v>45614.65972222222</v>
       </c>
       <c r="B149" s="2">
-        <v>45611.70833333334</v>
+        <v>45614.67361111111</v>
       </c>
       <c r="C149">
-        <v>77.18000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D149">
-        <v>75.93000000000001</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="E149">
-        <v>-0.01619590567504535</v>
+        <v>0.0006702412868634232</v>
       </c>
       <c r="F149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45611.75</v>
+        <v>45614.76736111111</v>
       </c>
       <c r="B150" s="2">
-        <v>45611.76388888889</v>
+        <v>45614.78819444445</v>
       </c>
       <c r="C150">
-        <v>76.31</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D150">
-        <v>75.3</v>
+        <v>74.77</v>
       </c>
       <c r="E150">
-        <v>-0.01323548683003545</v>
+        <v>0.005648957632817777</v>
       </c>
       <c r="F150" t="s">
         <v>9</v>
@@ -3413,19 +3413,19 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45611.75694444445</v>
+        <v>45616.77777777778</v>
       </c>
       <c r="B151" s="2">
-        <v>45611.77083333334</v>
+        <v>45616.79166666666</v>
       </c>
       <c r="C151">
-        <v>75.83</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="D151">
-        <v>75.65000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E151">
-        <v>-0.002373730713437856</v>
+        <v>0.001777552056881673</v>
       </c>
       <c r="F151" t="s">
         <v>9</v>
@@ -3433,39 +3433,39 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45614.65972222222</v>
+        <v>45617.66666666666</v>
       </c>
       <c r="B152" s="2">
-        <v>45614.67361111111</v>
+        <v>45617.6875</v>
       </c>
       <c r="C152">
-        <v>74.29000000000001</v>
+        <v>78.41</v>
       </c>
       <c r="D152">
-        <v>74.65000000000001</v>
+        <v>79.87</v>
       </c>
       <c r="E152">
-        <v>0.004845874276484041</v>
+        <v>0.01862007397015697</v>
       </c>
       <c r="F152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45614.76736111111</v>
+        <v>45618.6875</v>
       </c>
       <c r="B153" s="2">
-        <v>45614.78819444445</v>
+        <v>45618.70486111111</v>
       </c>
       <c r="C153">
-        <v>74.38</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D153">
-        <v>74.77</v>
+        <v>76.48</v>
       </c>
       <c r="E153">
-        <v>0.005243344985211086</v>
+        <v>0.004993429697766225</v>
       </c>
       <c r="F153" t="s">
         <v>9</v>
@@ -3473,19 +3473,19 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45616.77777777778</v>
+        <v>45618.70138888889</v>
       </c>
       <c r="B154" s="2">
-        <v>45616.79166666666</v>
+        <v>45618.76041666666</v>
       </c>
       <c r="C154">
-        <v>78.81999999999999</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="D154">
-        <v>78.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E154">
-        <v>0.001014970819589096</v>
+        <v>-0.0002620545073374741</v>
       </c>
       <c r="F154" t="s">
         <v>9</v>
@@ -3493,19 +3493,19 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45617.66666666666</v>
+        <v>45621.61111111111</v>
       </c>
       <c r="B155" s="2">
-        <v>45617.68055555555</v>
+        <v>45621.625</v>
       </c>
       <c r="C155">
-        <v>79.27</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="D155">
-        <v>78.06999999999999</v>
+        <v>71.89</v>
       </c>
       <c r="E155">
-        <v>-0.01513813548631264</v>
+        <v>-0.01614889831668253</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -3513,39 +3513,39 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45618.6875</v>
+        <v>45621.75694444445</v>
       </c>
       <c r="B156" s="2">
-        <v>45618.70486111111</v>
+        <v>45621.77430555555</v>
       </c>
       <c r="C156">
-        <v>76.53</v>
+        <v>71.67</v>
       </c>
       <c r="D156">
-        <v>76.48</v>
+        <v>70.86</v>
       </c>
       <c r="E156">
-        <v>-0.0006533385600417766</v>
+        <v>-0.011301799916283</v>
       </c>
       <c r="F156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45618.70138888889</v>
+        <v>45621.82638888889</v>
       </c>
       <c r="B157" s="2">
-        <v>45618.76041666666</v>
+        <v>45621.84027777778</v>
       </c>
       <c r="C157">
-        <v>76.15000000000001</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="D157">
-        <v>76.3</v>
+        <v>70.38</v>
       </c>
       <c r="E157">
-        <v>0.00196979645436627</v>
+        <v>-0.008173618940248003</v>
       </c>
       <c r="F157" t="s">
         <v>9</v>
@@ -3553,179 +3553,179 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45621.61111111111</v>
+        <v>45622.60416666666</v>
       </c>
       <c r="B158" s="2">
-        <v>45621.625</v>
+        <v>45622.61805555555</v>
       </c>
       <c r="C158">
-        <v>74.22</v>
+        <v>72.41</v>
       </c>
       <c r="D158">
-        <v>71.89</v>
+        <v>70.69</v>
       </c>
       <c r="E158">
-        <v>-0.0313931554836971</v>
+        <v>-0.02375362518989088</v>
       </c>
       <c r="F158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45621.75694444445</v>
+        <v>45622.61458333334</v>
       </c>
       <c r="B159" s="2">
-        <v>45621.77430555555</v>
+        <v>45622.62847222222</v>
       </c>
       <c r="C159">
-        <v>71.61</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="D159">
-        <v>70.86</v>
+        <v>70.84</v>
       </c>
       <c r="E159">
-        <v>-0.01047339757017176</v>
+        <v>-0.009369318976366964</v>
       </c>
       <c r="F159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45621.82638888889</v>
+        <v>45622.84027777778</v>
       </c>
       <c r="B160" s="2">
-        <v>45621.84027777778</v>
+        <v>45622.86458333334</v>
       </c>
       <c r="C160">
-        <v>71.13500000000001</v>
+        <v>70.28</v>
       </c>
       <c r="D160">
-        <v>70.38</v>
+        <v>70.55</v>
       </c>
       <c r="E160">
-        <v>-0.01061362198636409</v>
+        <v>0.003841775754126295</v>
       </c>
       <c r="F160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45622.60416666666</v>
+        <v>45623.6875</v>
       </c>
       <c r="B161" s="2">
-        <v>45622.61805555555</v>
+        <v>45623.71875</v>
       </c>
       <c r="C161">
-        <v>71.42</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D161">
-        <v>70.69</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="E161">
-        <v>-0.01022122654718572</v>
+        <v>-0.002423875170428887</v>
       </c>
       <c r="F161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45622.61458333334</v>
+        <v>45623.72916666666</v>
       </c>
       <c r="B162" s="2">
-        <v>45622.62847222222</v>
+        <v>45623.75694444445</v>
       </c>
       <c r="C162">
-        <v>71.39</v>
+        <v>65.89</v>
       </c>
       <c r="D162">
-        <v>70.84</v>
+        <v>66.94</v>
       </c>
       <c r="E162">
-        <v>-0.007704160246533088</v>
+        <v>0.01593565032630137</v>
       </c>
       <c r="F162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45622.84027777778</v>
+        <v>45625.70833333334</v>
       </c>
       <c r="B163" s="2">
-        <v>45622.86458333334</v>
+        <v>45625.72222222222</v>
       </c>
       <c r="C163">
-        <v>70.31999999999999</v>
+        <v>72.56</v>
       </c>
       <c r="D163">
-        <v>70.55</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="E163">
-        <v>0.003270762229806655</v>
+        <v>0.001653803748621893</v>
       </c>
       <c r="F163" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45623.6875</v>
+        <v>45628.61458333334</v>
       </c>
       <c r="B164" s="2">
-        <v>45623.71875</v>
+        <v>45628.62847222222</v>
       </c>
       <c r="C164">
-        <v>66.15000000000001</v>
+        <v>73.86</v>
       </c>
       <c r="D164">
-        <v>65.84999999999999</v>
+        <v>73.55</v>
       </c>
       <c r="E164">
-        <v>-0.004535147392290421</v>
+        <v>-0.004197129704847038</v>
       </c>
       <c r="F164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45623.72916666666</v>
+        <v>45628.68402777778</v>
       </c>
       <c r="B165" s="2">
-        <v>45623.75694444445</v>
+        <v>45628.69791666666</v>
       </c>
       <c r="C165">
-        <v>66.08</v>
+        <v>72.56</v>
       </c>
       <c r="D165">
-        <v>66.94</v>
+        <v>73.09</v>
       </c>
       <c r="E165">
-        <v>0.01301452784503631</v>
+        <v>0.007304299889746432</v>
       </c>
       <c r="F165" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45625.70833333334</v>
+        <v>45628.70138888889</v>
       </c>
       <c r="B166" s="2">
-        <v>45625.72222222222</v>
+        <v>45628.71527777778</v>
       </c>
       <c r="C166">
-        <v>72.45</v>
+        <v>72.95</v>
       </c>
       <c r="D166">
-        <v>72.68000000000001</v>
+        <v>73.06</v>
       </c>
       <c r="E166">
-        <v>0.003174603174603229</v>
+        <v>0.001507882111034948</v>
       </c>
       <c r="F166" t="s">
         <v>9</v>
@@ -3733,59 +3733,59 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45628.61458333334</v>
+        <v>45628.79513888889</v>
       </c>
       <c r="B167" s="2">
-        <v>45628.62847222222</v>
+        <v>45628.80902777778</v>
       </c>
       <c r="C167">
-        <v>73.59999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="D167">
-        <v>73.55</v>
+        <v>71.7</v>
       </c>
       <c r="E167">
-        <v>-0.0006793478260869179</v>
+        <v>-0.002920317062995324</v>
       </c>
       <c r="F167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45628.68402777778</v>
+        <v>45628.82291666666</v>
       </c>
       <c r="B168" s="2">
-        <v>45628.69791666666</v>
+        <v>45628.85416666666</v>
       </c>
       <c r="C168">
-        <v>72.54000000000001</v>
+        <v>71.69</v>
       </c>
       <c r="D168">
-        <v>73.09</v>
+        <v>72.36</v>
       </c>
       <c r="E168">
-        <v>0.00758202371105593</v>
+        <v>0.009345794392523388</v>
       </c>
       <c r="F168" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45628.70138888889</v>
+        <v>45629.68055555555</v>
       </c>
       <c r="B169" s="2">
-        <v>45628.71527777778</v>
+        <v>45629.70138888889</v>
       </c>
       <c r="C169">
-        <v>73.06</v>
+        <v>72.56</v>
       </c>
       <c r="D169">
-        <v>73.06</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.000551267916207167</v>
       </c>
       <c r="F169" t="s">
         <v>9</v>
@@ -3793,99 +3793,99 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45628.79513888889</v>
+        <v>45632.75</v>
       </c>
       <c r="B170" s="2">
-        <v>45628.80902777778</v>
+        <v>45632.83680555555</v>
       </c>
       <c r="C170">
-        <v>71.94</v>
+        <v>75.88</v>
       </c>
       <c r="D170">
-        <v>71.7</v>
+        <v>75.69</v>
       </c>
       <c r="E170">
-        <v>-0.003336113427856476</v>
+        <v>-0.002503953610964651</v>
       </c>
       <c r="F170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45628.82291666666</v>
+        <v>45635.67013888889</v>
       </c>
       <c r="B171" s="2">
-        <v>45628.85416666666</v>
+        <v>45635.68402777778</v>
       </c>
       <c r="C171">
-        <v>71.69</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D171">
-        <v>72.36</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="E171">
-        <v>0.009345794392523388</v>
+        <v>0.005077574047954858</v>
       </c>
       <c r="F171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45629.68055555555</v>
+        <v>45636.60763888889</v>
       </c>
       <c r="B172" s="2">
-        <v>45629.70138888889</v>
+        <v>45636.62152777778</v>
       </c>
       <c r="C172">
-        <v>72.62</v>
+        <v>72.73999999999999</v>
       </c>
       <c r="D172">
-        <v>72.59999999999999</v>
+        <v>74.22</v>
       </c>
       <c r="E172">
-        <v>-0.0002754062241808073</v>
+        <v>0.02034643937310976</v>
       </c>
       <c r="F172" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45632.75</v>
+        <v>45636.75</v>
       </c>
       <c r="B173" s="2">
-        <v>45632.83680555555</v>
+        <v>45636.77083333334</v>
       </c>
       <c r="C173">
-        <v>75.88</v>
+        <v>69.61</v>
       </c>
       <c r="D173">
-        <v>75.69</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="E173">
-        <v>-0.002503953610964651</v>
+        <v>0.001436575204711885</v>
       </c>
       <c r="F173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45635.67013888889</v>
+        <v>45636.80208333334</v>
       </c>
       <c r="B174" s="2">
-        <v>45635.68402777778</v>
+        <v>45636.82291666666</v>
       </c>
       <c r="C174">
-        <v>70.59999999999999</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="D174">
-        <v>71.26000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="E174">
-        <v>0.009348441926345763</v>
+        <v>-0.003336718409981198</v>
       </c>
       <c r="F174" t="s">
         <v>9</v>
@@ -3893,19 +3893,19 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45636.60763888889</v>
+        <v>45636.87152777778</v>
       </c>
       <c r="B175" s="2">
-        <v>45636.62152777778</v>
+        <v>45637.61458333334</v>
       </c>
       <c r="C175">
-        <v>72.70999999999999</v>
+        <v>68.05</v>
       </c>
       <c r="D175">
-        <v>74.22</v>
+        <v>70.66500000000001</v>
       </c>
       <c r="E175">
-        <v>0.02076743226516305</v>
+        <v>0.03842762674504055</v>
       </c>
       <c r="F175" t="s">
         <v>7</v>
@@ -3913,59 +3913,59 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45636.75</v>
+        <v>45637.61458333334</v>
       </c>
       <c r="B176" s="2">
-        <v>45636.77083333334</v>
+        <v>45637.62847222222</v>
       </c>
       <c r="C176">
-        <v>69.61</v>
+        <v>70.66500000000001</v>
       </c>
       <c r="D176">
-        <v>69.70999999999999</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E176">
-        <v>0.001436575204711885</v>
+        <v>-0.00955211207811521</v>
       </c>
       <c r="F176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45636.80208333334</v>
+        <v>45638.66666666666</v>
       </c>
       <c r="B177" s="2">
-        <v>45636.82291666666</v>
+        <v>45638.69097222222</v>
       </c>
       <c r="C177">
-        <v>68.93000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="D177">
-        <v>68.7</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="E177">
-        <v>-0.003336718409981198</v>
+        <v>-0.01237553342816487</v>
       </c>
       <c r="F177" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45636.87152777778</v>
+        <v>45638.74305555555</v>
       </c>
       <c r="B178" s="2">
-        <v>45637.61458333334</v>
+        <v>45638.75694444445</v>
       </c>
       <c r="C178">
-        <v>68.26000000000001</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="D178">
-        <v>70.66500000000001</v>
+        <v>71.36</v>
       </c>
       <c r="E178">
-        <v>0.03523293290360388</v>
+        <v>0.008479366873939999</v>
       </c>
       <c r="F178" t="s">
         <v>7</v>
@@ -3973,39 +3973,39 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45637.61458333334</v>
+        <v>45639.60763888889</v>
       </c>
       <c r="B179" s="2">
-        <v>45637.62847222222</v>
+        <v>45639.62152777778</v>
       </c>
       <c r="C179">
-        <v>70.20999999999999</v>
+        <v>70.825</v>
       </c>
       <c r="D179">
-        <v>69.98999999999999</v>
+        <v>71.78</v>
       </c>
       <c r="E179">
-        <v>-0.003133456772539508</v>
+        <v>0.01348393928697491</v>
       </c>
       <c r="F179" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45638.66666666666</v>
+        <v>45639.72569444445</v>
       </c>
       <c r="B180" s="2">
-        <v>45638.69097222222</v>
+        <v>45639.74305555555</v>
       </c>
       <c r="C180">
-        <v>70.3</v>
+        <v>66.25</v>
       </c>
       <c r="D180">
-        <v>69.43000000000001</v>
+        <v>66.34</v>
       </c>
       <c r="E180">
-        <v>-0.01237553342816487</v>
+        <v>0.001358490566037787</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -4013,19 +4013,19 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45638.74305555555</v>
+        <v>45639.75</v>
       </c>
       <c r="B181" s="2">
-        <v>45638.75694444445</v>
+        <v>45639.77777777778</v>
       </c>
       <c r="C181">
-        <v>70.76000000000001</v>
+        <v>66.63</v>
       </c>
       <c r="D181">
-        <v>71.36</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="E181">
-        <v>0.008479366873939999</v>
+        <v>0.007804292360798593</v>
       </c>
       <c r="F181" t="s">
         <v>7</v>
@@ -4033,19 +4033,19 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45639.60763888889</v>
+        <v>45639.84375</v>
       </c>
       <c r="B182" s="2">
-        <v>45639.62152777778</v>
+        <v>45639.85763888889</v>
       </c>
       <c r="C182">
-        <v>71.26000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D182">
-        <v>71.78</v>
+        <v>66.92</v>
       </c>
       <c r="E182">
-        <v>0.00729722144260449</v>
+        <v>0.001796407185628811</v>
       </c>
       <c r="F182" t="s">
         <v>9</v>
@@ -4053,19 +4053,19 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45639.72569444445</v>
+        <v>45642.65277777778</v>
       </c>
       <c r="B183" s="2">
-        <v>45639.74305555555</v>
+        <v>45642.68402777778</v>
       </c>
       <c r="C183">
-        <v>66.25</v>
+        <v>64.78</v>
       </c>
       <c r="D183">
-        <v>66.34</v>
+        <v>63.84</v>
       </c>
       <c r="E183">
-        <v>0.001358490566037787</v>
+        <v>-0.01451065143562824</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -4073,139 +4073,139 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45639.75</v>
+        <v>45642.6875</v>
       </c>
       <c r="B184" s="2">
-        <v>45639.77777777778</v>
+        <v>45642.70138888889</v>
       </c>
       <c r="C184">
-        <v>66.44</v>
+        <v>63.66</v>
       </c>
       <c r="D184">
-        <v>67.15000000000001</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="E184">
-        <v>0.01068633353401577</v>
+        <v>0.005969211435752587</v>
       </c>
       <c r="F184" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45639.84375</v>
+        <v>45642.71875</v>
       </c>
       <c r="B185" s="2">
-        <v>45639.85763888889</v>
+        <v>45642.76388888889</v>
       </c>
       <c r="C185">
-        <v>66.8</v>
+        <v>63.76</v>
       </c>
       <c r="D185">
-        <v>66.92</v>
+        <v>64.345</v>
       </c>
       <c r="E185">
-        <v>0.001796407185628811</v>
+        <v>0.00917503136762862</v>
       </c>
       <c r="F185" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45642.65277777778</v>
+        <v>45643.86805555555</v>
       </c>
       <c r="B186" s="2">
-        <v>45642.66666666666</v>
+        <v>45644.61111111111</v>
       </c>
       <c r="C186">
-        <v>64.90000000000001</v>
+        <v>62.43</v>
       </c>
       <c r="D186">
-        <v>64.79000000000001</v>
+        <v>67.91</v>
       </c>
       <c r="E186">
-        <v>-0.001694915254237279</v>
+        <v>0.08777831170911415</v>
       </c>
       <c r="F186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45642.6875</v>
+        <v>45645.61111111111</v>
       </c>
       <c r="B187" s="2">
-        <v>45642.70138888889</v>
+        <v>45645.63888888889</v>
       </c>
       <c r="C187">
-        <v>63.95</v>
+        <v>63.71</v>
       </c>
       <c r="D187">
-        <v>64.04000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="E187">
-        <v>0.001407349491790515</v>
+        <v>-0.0001569612305760165</v>
       </c>
       <c r="F187" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45642.71875</v>
+        <v>45645.85763888889</v>
       </c>
       <c r="B188" s="2">
-        <v>45642.76041666666</v>
+        <v>45646.54513888889</v>
       </c>
       <c r="C188">
-        <v>63.4</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="D188">
-        <v>64.41</v>
+        <v>60.28</v>
       </c>
       <c r="E188">
-        <v>0.01593059936908514</v>
+        <v>-0.05827214497734735</v>
       </c>
       <c r="F188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45643.86805555555</v>
+        <v>45645.87152777778</v>
       </c>
       <c r="B189" s="2">
-        <v>45644.61111111111</v>
+        <v>45646.60416666666</v>
       </c>
       <c r="C189">
-        <v>62.33</v>
+        <v>63.43</v>
       </c>
       <c r="D189">
-        <v>67.91</v>
+        <v>61.35</v>
       </c>
       <c r="E189">
-        <v>0.08952350393069146</v>
+        <v>-0.03279205423301274</v>
       </c>
       <c r="F189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45645.61111111111</v>
+        <v>45646.61805555555</v>
       </c>
       <c r="B190" s="2">
-        <v>45645.625</v>
+        <v>45646.63541666666</v>
       </c>
       <c r="C190">
-        <v>63.21</v>
+        <v>61.93</v>
       </c>
       <c r="D190">
-        <v>63.42</v>
+        <v>63.75</v>
       </c>
       <c r="E190">
-        <v>0.003322259136212638</v>
+        <v>0.02938801873082513</v>
       </c>
       <c r="F190" t="s">
         <v>8</v>
@@ -4213,99 +4213,99 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45645.85763888889</v>
+        <v>45646.63194444445</v>
       </c>
       <c r="B191" s="2">
-        <v>45646.54513888889</v>
+        <v>45646.65277777778</v>
       </c>
       <c r="C191">
-        <v>63.905</v>
+        <v>63.87</v>
       </c>
       <c r="D191">
-        <v>60.28</v>
+        <v>65.48</v>
       </c>
       <c r="E191">
-        <v>-0.0567248259134653</v>
+        <v>0.02520745263817139</v>
       </c>
       <c r="F191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45645.87152777778</v>
+        <v>45649.61111111111</v>
       </c>
       <c r="B192" s="2">
-        <v>45646.60416666666</v>
+        <v>45649.625</v>
       </c>
       <c r="C192">
-        <v>63.65</v>
+        <v>69.08</v>
       </c>
       <c r="D192">
-        <v>61.35</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="E192">
-        <v>-0.03613511390416335</v>
+        <v>0.008251302837290206</v>
       </c>
       <c r="F192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45646.61805555555</v>
+        <v>45652.61458333334</v>
       </c>
       <c r="B193" s="2">
-        <v>45646.63541666666</v>
+        <v>45652.62847222222</v>
       </c>
       <c r="C193">
-        <v>61.93</v>
+        <v>71.78</v>
       </c>
       <c r="D193">
-        <v>63.75</v>
+        <v>70.95</v>
       </c>
       <c r="E193">
-        <v>0.02938801873082513</v>
+        <v>-0.01156310950125381</v>
       </c>
       <c r="F193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2">
-        <v>45646.63194444445</v>
+        <v>45652.83333333334</v>
       </c>
       <c r="B194" s="2">
-        <v>45646.64930555555</v>
+        <v>45652.85069444445</v>
       </c>
       <c r="C194">
-        <v>62.905</v>
+        <v>72.58</v>
       </c>
       <c r="D194">
-        <v>65.87</v>
+        <v>72.56</v>
       </c>
       <c r="E194">
-        <v>0.04713456799936418</v>
+        <v>-0.0002755580049599893</v>
       </c>
       <c r="F194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2">
-        <v>45649.61111111111</v>
+        <v>45653.66666666666</v>
       </c>
       <c r="B195" s="2">
-        <v>45649.625</v>
+        <v>45653.69097222222</v>
       </c>
       <c r="C195">
-        <v>69.88</v>
+        <v>67.87</v>
       </c>
       <c r="D195">
-        <v>69.65000000000001</v>
+        <v>68.86</v>
       </c>
       <c r="E195">
-        <v>-0.003291356611333569</v>
+        <v>0.01458670988654774</v>
       </c>
       <c r="F195" t="s">
         <v>7</v>
@@ -4313,39 +4313,39 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2">
-        <v>45652.61458333334</v>
+        <v>45653.75694444445</v>
       </c>
       <c r="B196" s="2">
-        <v>45652.62847222222</v>
+        <v>45653.77083333334</v>
       </c>
       <c r="C196">
-        <v>72.42</v>
+        <v>68.73</v>
       </c>
       <c r="D196">
-        <v>70.95</v>
+        <v>68.19</v>
       </c>
       <c r="E196">
-        <v>-0.02029826014913006</v>
+        <v>-0.007856831078131911</v>
       </c>
       <c r="F196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2">
-        <v>45652.83333333334</v>
+        <v>45657.72569444445</v>
       </c>
       <c r="B197" s="2">
-        <v>45652.85069444445</v>
+        <v>45657.73958333334</v>
       </c>
       <c r="C197">
-        <v>72.59</v>
+        <v>67.3</v>
       </c>
       <c r="D197">
-        <v>72.56</v>
+        <v>66.55</v>
       </c>
       <c r="E197">
-        <v>-0.0004132800661248262</v>
+        <v>-0.01114413075780089</v>
       </c>
       <c r="F197" t="s">
         <v>9</v>
@@ -4353,79 +4353,79 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2">
-        <v>45653.66666666666</v>
+        <v>45657.75347222222</v>
       </c>
       <c r="B198" s="2">
-        <v>45653.69097222222</v>
+        <v>45657.77777777778</v>
       </c>
       <c r="C198">
-        <v>68.15000000000001</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="D198">
-        <v>68.86</v>
+        <v>66.41</v>
       </c>
       <c r="E198">
-        <v>0.01041819515774019</v>
+        <v>-0.01876477541371173</v>
       </c>
       <c r="F198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="2">
-        <v>45653.75694444445</v>
+        <v>45663.85416666666</v>
       </c>
       <c r="B199" s="2">
-        <v>45653.77083333334</v>
+        <v>45663.86805555555</v>
       </c>
       <c r="C199">
-        <v>68.48</v>
+        <v>82.88</v>
       </c>
       <c r="D199">
-        <v>68.19</v>
+        <v>82</v>
       </c>
       <c r="E199">
-        <v>-0.00423481308411224</v>
+        <v>-0.01061776061776056</v>
       </c>
       <c r="F199" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2">
-        <v>45657.72569444445</v>
+        <v>45664.60763888889</v>
       </c>
       <c r="B200" s="2">
-        <v>45657.73958333334</v>
+        <v>45664.62847222222</v>
       </c>
       <c r="C200">
-        <v>67.3</v>
+        <v>82.72</v>
       </c>
       <c r="D200">
-        <v>66.55</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E200">
-        <v>-0.01114413075780089</v>
+        <v>-0.05826885880077361</v>
       </c>
       <c r="F200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="2">
-        <v>45657.75347222222</v>
+        <v>45665.60416666666</v>
       </c>
       <c r="B201" s="2">
-        <v>45657.77777777778</v>
+        <v>45665.61805555555</v>
       </c>
       <c r="C201">
-        <v>67.58</v>
+        <v>73.83</v>
       </c>
       <c r="D201">
-        <v>66.41</v>
+        <v>73.77</v>
       </c>
       <c r="E201">
-        <v>-0.01731281444214267</v>
+        <v>-0.000812677773262932</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -4433,19 +4433,19 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2">
-        <v>45663.85416666666</v>
+        <v>45665.71875</v>
       </c>
       <c r="B202" s="2">
-        <v>45663.86805555555</v>
+        <v>45665.73263888889</v>
       </c>
       <c r="C202">
-        <v>82.95</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="D202">
-        <v>82</v>
+        <v>70.06</v>
       </c>
       <c r="E202">
-        <v>-0.01145268233875832</v>
+        <v>-0.009892594686263466</v>
       </c>
       <c r="F202" t="s">
         <v>9</v>
@@ -4453,59 +4453,59 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="2">
-        <v>45664.60763888889</v>
+        <v>45667.66666666666</v>
       </c>
       <c r="B203" s="2">
-        <v>45664.625</v>
+        <v>45667.6875</v>
       </c>
       <c r="C203">
-        <v>82.84999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D203">
-        <v>78</v>
+        <v>67.015</v>
       </c>
       <c r="E203">
-        <v>-0.05853952926976457</v>
+        <v>0.007744360902255647</v>
       </c>
       <c r="F203" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2">
-        <v>45665.60416666666</v>
+        <v>45672.60416666666</v>
       </c>
       <c r="B204" s="2">
-        <v>45665.61805555555</v>
+        <v>45672.61805555555</v>
       </c>
       <c r="C204">
-        <v>74</v>
+        <v>64.17</v>
       </c>
       <c r="D204">
-        <v>73.77</v>
+        <v>64.52</v>
       </c>
       <c r="E204">
-        <v>-0.003108108108108162</v>
+        <v>0.005454262116253612</v>
       </c>
       <c r="F204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>45665.71875</v>
+        <v>45673.67708333334</v>
       </c>
       <c r="B205" s="2">
-        <v>45665.73263888889</v>
+        <v>45673.69097222222</v>
       </c>
       <c r="C205">
-        <v>70.95</v>
+        <v>67.59</v>
       </c>
       <c r="D205">
-        <v>70.06</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E205">
-        <v>-0.01254404510218464</v>
+        <v>-0.02944222518123996</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>
@@ -4513,39 +4513,39 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="2">
-        <v>45667.66666666666</v>
+        <v>45673.74305555555</v>
       </c>
       <c r="B206" s="2">
-        <v>45667.6875</v>
+        <v>45673.75694444445</v>
       </c>
       <c r="C206">
-        <v>66.5</v>
+        <v>66.02</v>
       </c>
       <c r="D206">
-        <v>67.015</v>
+        <v>65.72</v>
       </c>
       <c r="E206">
-        <v>0.007744360902255647</v>
+        <v>-0.004544077552256849</v>
       </c>
       <c r="F206" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2">
-        <v>45672.60416666666</v>
+        <v>45673.79861111111</v>
       </c>
       <c r="B207" s="2">
-        <v>45672.61805555555</v>
+        <v>45673.82986111111</v>
       </c>
       <c r="C207">
-        <v>64.86</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="D207">
-        <v>64.52</v>
+        <v>66.7</v>
       </c>
       <c r="E207">
-        <v>-0.005242059821153305</v>
+        <v>0.009535341304677005</v>
       </c>
       <c r="F207" t="s">
         <v>7</v>
@@ -4553,39 +4553,39 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>45673.67708333334</v>
+        <v>45674.61111111111</v>
       </c>
       <c r="B208" s="2">
-        <v>45673.69097222222</v>
+        <v>45674.62847222222</v>
       </c>
       <c r="C208">
-        <v>67.34</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="D208">
-        <v>65.59999999999999</v>
+        <v>68.03</v>
       </c>
       <c r="E208">
-        <v>-0.02583902583902597</v>
+        <v>0.01265257517118181</v>
       </c>
       <c r="F208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2">
-        <v>45673.74305555555</v>
+        <v>45679.61458333334</v>
       </c>
       <c r="B209" s="2">
-        <v>45673.75694444445</v>
+        <v>45679.62847222222</v>
       </c>
       <c r="C209">
-        <v>66.06999999999999</v>
+        <v>78.09</v>
       </c>
       <c r="D209">
-        <v>65.72</v>
+        <v>77.45</v>
       </c>
       <c r="E209">
-        <v>-0.005297411835931502</v>
+        <v>-0.008195671660904092</v>
       </c>
       <c r="F209" t="s">
         <v>7</v>
@@ -4593,239 +4593,239 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2">
-        <v>45673.79861111111</v>
+        <v>45681.77777777778</v>
       </c>
       <c r="B210" s="2">
-        <v>45673.82986111111</v>
+        <v>45681.79513888889</v>
       </c>
       <c r="C210">
-        <v>66.02</v>
+        <v>73.55</v>
       </c>
       <c r="D210">
-        <v>66.7</v>
+        <v>72.63</v>
       </c>
       <c r="E210">
-        <v>0.01029990911844906</v>
+        <v>-0.01250849762066624</v>
       </c>
       <c r="F210" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>45674.61111111111</v>
+        <v>45681.82291666666</v>
       </c>
       <c r="B211" s="2">
-        <v>45674.62847222222</v>
+        <v>45681.85069444445</v>
       </c>
       <c r="C211">
-        <v>66.97</v>
+        <v>72.92</v>
       </c>
       <c r="D211">
-        <v>68.03</v>
+        <v>72.515</v>
       </c>
       <c r="E211">
-        <v>0.01582798267881144</v>
+        <v>-0.005554031815688441</v>
       </c>
       <c r="F211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2">
-        <v>45679.61458333334</v>
+        <v>45684.65277777778</v>
       </c>
       <c r="B212" s="2">
-        <v>45679.62847222222</v>
+        <v>45684.66666666666</v>
       </c>
       <c r="C212">
-        <v>77.87</v>
+        <v>54.57</v>
       </c>
       <c r="D212">
-        <v>77.45</v>
+        <v>52.6</v>
       </c>
       <c r="E212">
-        <v>-0.005393604725825115</v>
+        <v>-0.03610042147700199</v>
       </c>
       <c r="F212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
-        <v>45681.77777777778</v>
+        <v>45684.72222222222</v>
       </c>
       <c r="B213" s="2">
-        <v>45681.79513888889</v>
+        <v>45684.73611111111</v>
       </c>
       <c r="C213">
-        <v>73.62</v>
+        <v>48.925</v>
       </c>
       <c r="D213">
-        <v>72.63</v>
+        <v>49.94</v>
       </c>
       <c r="E213">
-        <v>-0.01344743276283631</v>
+        <v>0.02074603985692388</v>
       </c>
       <c r="F213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>45681.82291666666</v>
+        <v>45684.73611111111</v>
       </c>
       <c r="B214" s="2">
-        <v>45681.85069444445</v>
+        <v>45684.75</v>
       </c>
       <c r="C214">
-        <v>72.83</v>
+        <v>49.94</v>
       </c>
       <c r="D214">
-        <v>72.515</v>
+        <v>49.12</v>
       </c>
       <c r="E214">
-        <v>-0.004325140738706545</v>
+        <v>-0.01641970364437325</v>
       </c>
       <c r="F214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2">
-        <v>45684.65277777778</v>
+        <v>45685.63194444445</v>
       </c>
       <c r="B215" s="2">
-        <v>45684.67361111111</v>
+        <v>45685.64583333334</v>
       </c>
       <c r="C215">
-        <v>54.07</v>
+        <v>48.86</v>
       </c>
       <c r="D215">
-        <v>51.6</v>
+        <v>50.41</v>
       </c>
       <c r="E215">
-        <v>-0.0456815239504346</v>
+        <v>0.0317232910356119</v>
       </c>
       <c r="F215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2">
-        <v>45684.72222222222</v>
+        <v>45686.70833333334</v>
       </c>
       <c r="B216" s="2">
-        <v>45684.74652777778</v>
+        <v>45686.74652777778</v>
       </c>
       <c r="C216">
-        <v>49.98</v>
+        <v>51.29</v>
       </c>
       <c r="D216">
-        <v>48.53</v>
+        <v>51.59</v>
       </c>
       <c r="E216">
-        <v>-0.02901160464185666</v>
+        <v>0.005849093390524552</v>
       </c>
       <c r="F216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2">
-        <v>45685.63194444445</v>
+        <v>45686.80555555555</v>
       </c>
       <c r="B217" s="2">
-        <v>45685.64583333334</v>
+        <v>45686.82986111111</v>
       </c>
       <c r="C217">
-        <v>48.82</v>
+        <v>50.12</v>
       </c>
       <c r="D217">
-        <v>50.41</v>
+        <v>50.96</v>
       </c>
       <c r="E217">
-        <v>0.03256861941827113</v>
+        <v>0.01675977653631292</v>
       </c>
       <c r="F217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2">
-        <v>45686.70833333334</v>
+        <v>45687.70138888889</v>
       </c>
       <c r="B218" s="2">
-        <v>45686.74652777778</v>
+        <v>45687.71875</v>
       </c>
       <c r="C218">
-        <v>51.29</v>
+        <v>49.46</v>
       </c>
       <c r="D218">
-        <v>51.59</v>
+        <v>48.75</v>
       </c>
       <c r="E218">
-        <v>0.005849093390524552</v>
+        <v>-0.01435503437120907</v>
       </c>
       <c r="F218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2">
-        <v>45686.80555555555</v>
+        <v>45687.76736111111</v>
       </c>
       <c r="B219" s="2">
-        <v>45686.82638888889</v>
+        <v>45687.78125</v>
       </c>
       <c r="C219">
-        <v>49.85</v>
+        <v>48.51</v>
       </c>
       <c r="D219">
-        <v>51.3</v>
+        <v>48.84</v>
       </c>
       <c r="E219">
-        <v>0.02908726178535598</v>
+        <v>0.006802721088435486</v>
       </c>
       <c r="F219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2">
-        <v>45687.70138888889</v>
+        <v>45691.72569444445</v>
       </c>
       <c r="B220" s="2">
-        <v>45687.71527777778</v>
+        <v>45691.73958333334</v>
       </c>
       <c r="C220">
-        <v>48.68</v>
+        <v>45.63</v>
       </c>
       <c r="D220">
-        <v>48.99</v>
+        <v>45.49</v>
       </c>
       <c r="E220">
-        <v>0.006368118323746966</v>
+        <v>-0.003068156914310773</v>
       </c>
       <c r="F220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2">
-        <v>45687.76736111111</v>
+        <v>45691.75347222222</v>
       </c>
       <c r="B221" s="2">
-        <v>45687.78125</v>
+        <v>45691.76736111111</v>
       </c>
       <c r="C221">
-        <v>48.66</v>
+        <v>45.7</v>
       </c>
       <c r="D221">
-        <v>48.84</v>
+        <v>45.7</v>
       </c>
       <c r="E221">
-        <v>0.003699136868064259</v>
+        <v>0</v>
       </c>
       <c r="F221" t="s">
         <v>9</v>
@@ -4833,39 +4833,39 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2">
-        <v>45691.72569444445</v>
+        <v>45691.77777777778</v>
       </c>
       <c r="B222" s="2">
-        <v>45691.73958333334</v>
+        <v>45691.79166666666</v>
       </c>
       <c r="C222">
-        <v>45.78</v>
+        <v>45.87</v>
       </c>
       <c r="D222">
-        <v>45.49</v>
+        <v>46.65</v>
       </c>
       <c r="E222">
-        <v>-0.00633464394932283</v>
+        <v>0.01700457815565732</v>
       </c>
       <c r="F222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2">
-        <v>45691.75347222222</v>
+        <v>45691.86805555555</v>
       </c>
       <c r="B223" s="2">
-        <v>45691.76736111111</v>
+        <v>45691.90972222222</v>
       </c>
       <c r="C223">
-        <v>45.73</v>
+        <v>46.21</v>
       </c>
       <c r="D223">
-        <v>45.7</v>
+        <v>47.45</v>
       </c>
       <c r="E223">
-        <v>-0.0006560244915808886</v>
+        <v>0.02683401861069037</v>
       </c>
       <c r="F223" t="s">
         <v>9</v>
@@ -4873,379 +4873,379 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2">
-        <v>45691.77777777778</v>
+        <v>45692.61805555555</v>
       </c>
       <c r="B224" s="2">
-        <v>45691.79166666666</v>
+        <v>45692.63541666666</v>
       </c>
       <c r="C224">
-        <v>45.87</v>
+        <v>48.23</v>
       </c>
       <c r="D224">
-        <v>46.65</v>
+        <v>49.28</v>
       </c>
       <c r="E224">
-        <v>0.01700457815565732</v>
+        <v>0.02177068214804073</v>
       </c>
       <c r="F224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>45691.86805555555</v>
+        <v>45692.89930555555</v>
       </c>
       <c r="B225" s="2">
-        <v>45691.90972222222</v>
+        <v>45693.56597222222</v>
       </c>
       <c r="C225">
-        <v>46.21</v>
+        <v>47.95</v>
       </c>
       <c r="D225">
-        <v>47.45</v>
+        <v>49.23</v>
       </c>
       <c r="E225">
-        <v>0.02683401861069037</v>
+        <v>0.02669447340980175</v>
       </c>
       <c r="F225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="2">
-        <v>45692.61805555555</v>
+        <v>45693.81597222222</v>
       </c>
       <c r="B226" s="2">
-        <v>45692.63194444445</v>
+        <v>45693.83680555555</v>
       </c>
       <c r="C226">
-        <v>47.5</v>
+        <v>51.85</v>
       </c>
       <c r="D226">
-        <v>49.1</v>
+        <v>52.25</v>
       </c>
       <c r="E226">
-        <v>0.03368421052631582</v>
+        <v>0.00771456123432977</v>
       </c>
       <c r="F226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="2">
-        <v>45692.89930555555</v>
+        <v>45694.84375</v>
       </c>
       <c r="B227" s="2">
-        <v>45693.56597222222</v>
+        <v>45695.55902777778</v>
       </c>
       <c r="C227">
-        <v>48.02</v>
+        <v>55.49</v>
       </c>
       <c r="D227">
-        <v>49.23</v>
+        <v>55.61</v>
       </c>
       <c r="E227">
-        <v>0.02519783423573498</v>
+        <v>0.002162551811137096</v>
       </c>
       <c r="F227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="2">
-        <v>45693.81597222222</v>
+        <v>45695.67361111111</v>
       </c>
       <c r="B228" s="2">
-        <v>45693.83680555555</v>
+        <v>45695.69791666666</v>
       </c>
       <c r="C228">
-        <v>51.76</v>
+        <v>56.3</v>
       </c>
       <c r="D228">
-        <v>52.25</v>
+        <v>55.47</v>
       </c>
       <c r="E228">
-        <v>0.009466769706336978</v>
+        <v>-0.01474245115452928</v>
       </c>
       <c r="F228" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="2">
-        <v>45694.84375</v>
+        <v>45699.61805555555</v>
       </c>
       <c r="B229" s="2">
-        <v>45695.55902777778</v>
+        <v>45699.63194444445</v>
       </c>
       <c r="C229">
-        <v>55.515</v>
+        <v>60.52</v>
       </c>
       <c r="D229">
-        <v>55.61</v>
+        <v>60.36</v>
       </c>
       <c r="E229">
-        <v>0.001711249211924685</v>
+        <v>-0.002643754130865891</v>
       </c>
       <c r="F229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="2">
-        <v>45695.67361111111</v>
+        <v>45699.77083333334</v>
       </c>
       <c r="B230" s="2">
-        <v>45695.69791666666</v>
+        <v>45699.78472222222</v>
       </c>
       <c r="C230">
-        <v>56.25</v>
+        <v>59.95</v>
       </c>
       <c r="D230">
-        <v>55.47</v>
+        <v>60.14</v>
       </c>
       <c r="E230">
-        <v>-0.01386666666666669</v>
+        <v>0.003169307756463682</v>
       </c>
       <c r="F230" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="2">
-        <v>45699.61805555555</v>
+        <v>45700.56944444445</v>
       </c>
       <c r="B231" s="2">
-        <v>45699.63194444445</v>
+        <v>45700.60416666666</v>
       </c>
       <c r="C231">
-        <v>60.4</v>
+        <v>58.31</v>
       </c>
       <c r="D231">
-        <v>60.36</v>
+        <v>57.72</v>
       </c>
       <c r="E231">
-        <v>-0.000662251655629125</v>
+        <v>-0.01011833304750477</v>
       </c>
       <c r="F231" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2">
-        <v>45699.77083333334</v>
+        <v>45700.625</v>
       </c>
       <c r="B232" s="2">
-        <v>45699.78472222222</v>
+        <v>45700.63888888889</v>
       </c>
       <c r="C232">
-        <v>59.58</v>
+        <v>57.905</v>
       </c>
       <c r="D232">
-        <v>60.14</v>
+        <v>58.55</v>
       </c>
       <c r="E232">
-        <v>0.009399127223900676</v>
+        <v>0.0111389344616181</v>
       </c>
       <c r="F232" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="2">
-        <v>45700.56944444445</v>
+        <v>45700.64930555555</v>
       </c>
       <c r="B233" s="2">
-        <v>45700.60416666666</v>
+        <v>45700.66319444445</v>
       </c>
       <c r="C233">
-        <v>58.31</v>
+        <v>58.49</v>
       </c>
       <c r="D233">
-        <v>57.72</v>
+        <v>58.21</v>
       </c>
       <c r="E233">
-        <v>-0.01011833304750477</v>
+        <v>-0.004787143101384872</v>
       </c>
       <c r="F233" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="2">
-        <v>45700.625</v>
+        <v>45700.70138888889</v>
       </c>
       <c r="B234" s="2">
-        <v>45700.63888888889</v>
+        <v>45700.71875</v>
       </c>
       <c r="C234">
-        <v>58.4</v>
+        <v>58.06</v>
       </c>
       <c r="D234">
-        <v>58.55</v>
+        <v>58.66</v>
       </c>
       <c r="E234">
-        <v>0.002568493150684907</v>
+        <v>0.01033413709955209</v>
       </c>
       <c r="F234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="2">
-        <v>45700.64930555555</v>
+        <v>45700.79166666666</v>
       </c>
       <c r="B235" s="2">
-        <v>45700.66319444445</v>
+        <v>45700.80555555555</v>
       </c>
       <c r="C235">
-        <v>58.51</v>
+        <v>57.43</v>
       </c>
       <c r="D235">
-        <v>58.21</v>
+        <v>57.61</v>
       </c>
       <c r="E235">
-        <v>-0.005127328661767171</v>
+        <v>0.003134250391781294</v>
       </c>
       <c r="F235" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="2">
-        <v>45700.70138888889</v>
+        <v>45706.76041666666</v>
       </c>
       <c r="B236" s="2">
-        <v>45700.71875</v>
+        <v>45706.78472222222</v>
       </c>
       <c r="C236">
-        <v>58.08</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D236">
-        <v>58.66</v>
+        <v>66.16</v>
       </c>
       <c r="E236">
-        <v>0.009986225895316775</v>
+        <v>0.0009077155824508665</v>
       </c>
       <c r="F236" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="2">
-        <v>45700.79166666666</v>
+        <v>45707.60763888889</v>
       </c>
       <c r="B237" s="2">
-        <v>45700.80555555555</v>
+        <v>45707.62152777778</v>
       </c>
       <c r="C237">
-        <v>57.68</v>
+        <v>65.02</v>
       </c>
       <c r="D237">
-        <v>57.61</v>
+        <v>64.03</v>
       </c>
       <c r="E237">
-        <v>-0.001213592233009714</v>
+        <v>-0.01522608428175938</v>
       </c>
       <c r="F237" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="2">
-        <v>45706.76041666666</v>
+        <v>45707.64236111111</v>
       </c>
       <c r="B238" s="2">
-        <v>45706.78472222222</v>
+        <v>45707.66666666666</v>
       </c>
       <c r="C238">
-        <v>66.05</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="D238">
-        <v>66.16</v>
+        <v>66.09</v>
       </c>
       <c r="E238">
-        <v>0.00166540499621498</v>
+        <v>0.01349486275111194</v>
       </c>
       <c r="F238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="2">
-        <v>45707.60763888889</v>
+        <v>45707.73958333334</v>
       </c>
       <c r="B239" s="2">
-        <v>45707.62152777778</v>
+        <v>45707.75347222222</v>
       </c>
       <c r="C239">
-        <v>65.5</v>
+        <v>66.48</v>
       </c>
       <c r="D239">
-        <v>64.03</v>
+        <v>66.22</v>
       </c>
       <c r="E239">
-        <v>-0.02244274809160304</v>
+        <v>-0.003910950661853266</v>
       </c>
       <c r="F239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="2">
-        <v>45707.64236111111</v>
+        <v>45707.81944444445</v>
       </c>
       <c r="B240" s="2">
-        <v>45707.65625</v>
+        <v>45707.83333333334</v>
       </c>
       <c r="C240">
-        <v>64.44</v>
+        <v>66.05</v>
       </c>
       <c r="D240">
-        <v>65.87</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E240">
-        <v>0.02219118559900693</v>
+        <v>0.00408781226343673</v>
       </c>
       <c r="F240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="2">
-        <v>45707.73958333334</v>
+        <v>45709.69097222222</v>
       </c>
       <c r="B241" s="2">
-        <v>45707.75347222222</v>
+        <v>45709.70486111111</v>
       </c>
       <c r="C241">
-        <v>66.58</v>
+        <v>65.11</v>
       </c>
       <c r="D241">
-        <v>66.22</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="E241">
-        <v>-0.005407029137879235</v>
+        <v>-0.001075103670711</v>
       </c>
       <c r="F241" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2">
-        <v>45707.81944444445</v>
+        <v>45709.79513888889</v>
       </c>
       <c r="B242" s="2">
-        <v>45707.83333333334</v>
+        <v>45709.8125</v>
       </c>
       <c r="C242">
-        <v>66.15000000000001</v>
+        <v>62.25</v>
       </c>
       <c r="D242">
-        <v>66.31999999999999</v>
+        <v>62</v>
       </c>
       <c r="E242">
-        <v>0.002569916855630952</v>
+        <v>-0.004016064257028112</v>
       </c>
       <c r="F242" t="s">
         <v>9</v>
@@ -5253,59 +5253,59 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="2">
-        <v>45709.69097222222</v>
+        <v>45709.86805555555</v>
       </c>
       <c r="B243" s="2">
-        <v>45709.70486111111</v>
+        <v>45712.57291666666</v>
       </c>
       <c r="C243">
-        <v>65.09</v>
+        <v>61</v>
       </c>
       <c r="D243">
-        <v>65.04000000000001</v>
+        <v>62.47</v>
       </c>
       <c r="E243">
-        <v>-0.0007681671531724867</v>
+        <v>0.02409836065573769</v>
       </c>
       <c r="F243" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="2">
-        <v>45709.79513888889</v>
+        <v>45712.55902777778</v>
       </c>
       <c r="B244" s="2">
-        <v>45709.8125</v>
+        <v>45712.58680555555</v>
       </c>
       <c r="C244">
-        <v>62.63</v>
+        <v>62.73</v>
       </c>
       <c r="D244">
-        <v>62</v>
+        <v>62.57</v>
       </c>
       <c r="E244">
-        <v>-0.01005907711959129</v>
+        <v>-0.002550613741431478</v>
       </c>
       <c r="F244" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2">
-        <v>45709.86805555555</v>
+        <v>45712.86458333334</v>
       </c>
       <c r="B245" s="2">
-        <v>45712.57291666666</v>
+        <v>45713.57638888889</v>
       </c>
       <c r="C245">
-        <v>60.88</v>
+        <v>58.01</v>
       </c>
       <c r="D245">
-        <v>62.47</v>
+        <v>56.97</v>
       </c>
       <c r="E245">
-        <v>0.02611695137976341</v>
+        <v>-0.01792794345802446</v>
       </c>
       <c r="F245" t="s">
         <v>6</v>
@@ -5313,19 +5313,19 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2">
-        <v>45712.55902777778</v>
+        <v>45713.84027777778</v>
       </c>
       <c r="B246" s="2">
-        <v>45712.58680555555</v>
+        <v>45713.85416666666</v>
       </c>
       <c r="C246">
-        <v>62.73</v>
+        <v>54.84</v>
       </c>
       <c r="D246">
-        <v>62.57</v>
+        <v>54.94</v>
       </c>
       <c r="E246">
-        <v>-0.002550613741431478</v>
+        <v>0.00182348650619975</v>
       </c>
       <c r="F246" t="s">
         <v>7</v>
@@ -5333,59 +5333,59 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="2">
-        <v>45712.86458333334</v>
+        <v>45714.61458333334</v>
       </c>
       <c r="B247" s="2">
-        <v>45713.57638888889</v>
+        <v>45714.62847222222</v>
       </c>
       <c r="C247">
-        <v>58</v>
+        <v>57.14</v>
       </c>
       <c r="D247">
-        <v>56.97</v>
+        <v>56.85</v>
       </c>
       <c r="E247">
-        <v>-0.01775862068965519</v>
+        <v>-0.005075253762688119</v>
       </c>
       <c r="F247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="2">
-        <v>45713.84027777778</v>
+        <v>45714.82986111111</v>
       </c>
       <c r="B248" s="2">
-        <v>45713.85416666666</v>
+        <v>45714.84375</v>
       </c>
       <c r="C248">
-        <v>54.84</v>
+        <v>55.6</v>
       </c>
       <c r="D248">
-        <v>54.94</v>
+        <v>56.08</v>
       </c>
       <c r="E248">
-        <v>0.00182348650619975</v>
+        <v>0.0086330935251798</v>
       </c>
       <c r="F248" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="2">
-        <v>45714.61458333334</v>
+        <v>45714.83680555555</v>
       </c>
       <c r="B249" s="2">
-        <v>45714.62847222222</v>
+        <v>45714.85416666666</v>
       </c>
       <c r="C249">
-        <v>56.37</v>
+        <v>55.96</v>
       </c>
       <c r="D249">
-        <v>56.85</v>
+        <v>56.65</v>
       </c>
       <c r="E249">
-        <v>0.00851516764236303</v>
+        <v>0.01233023588277337</v>
       </c>
       <c r="F249" t="s">
         <v>7</v>
@@ -5393,19 +5393,19 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="2">
-        <v>45714.82986111111</v>
+        <v>45715.91319444445</v>
       </c>
       <c r="B250" s="2">
-        <v>45714.84375</v>
+        <v>45716.61111111111</v>
       </c>
       <c r="C250">
-        <v>56.29</v>
+        <v>48.18</v>
       </c>
       <c r="D250">
-        <v>56.08</v>
+        <v>46.9</v>
       </c>
       <c r="E250">
-        <v>-0.003730680405045316</v>
+        <v>-0.02656704026567043</v>
       </c>
       <c r="F250" t="s">
         <v>6</v>
@@ -5413,39 +5413,39 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2">
-        <v>45714.83680555555</v>
+        <v>45716.78472222222</v>
       </c>
       <c r="B251" s="2">
-        <v>45714.85416666666</v>
+        <v>45716.80208333334</v>
       </c>
       <c r="C251">
-        <v>55.85</v>
+        <v>48.35</v>
       </c>
       <c r="D251">
-        <v>56.65</v>
+        <v>47.98</v>
       </c>
       <c r="E251">
-        <v>0.01432408236347354</v>
+        <v>-0.007652533609100404</v>
       </c>
       <c r="F251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2">
-        <v>45715.91319444445</v>
+        <v>45720.61458333334</v>
       </c>
       <c r="B252" s="2">
-        <v>45716.61111111111</v>
+        <v>45720.63194444445</v>
       </c>
       <c r="C252">
-        <v>48.18</v>
+        <v>42.72</v>
       </c>
       <c r="D252">
-        <v>46.9</v>
+        <v>40.86</v>
       </c>
       <c r="E252">
-        <v>-0.02656704026567043</v>
+        <v>-0.04353932584269662</v>
       </c>
       <c r="F252" t="s">
         <v>6</v>
@@ -5453,159 +5453,159 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="2">
-        <v>45716.78472222222</v>
+        <v>45721.63888888889</v>
       </c>
       <c r="B253" s="2">
-        <v>45716.80208333334</v>
+        <v>45721.65972222222</v>
       </c>
       <c r="C253">
-        <v>48.15</v>
+        <v>43.49</v>
       </c>
       <c r="D253">
-        <v>47.98</v>
+        <v>44.09</v>
       </c>
       <c r="E253">
-        <v>-0.003530633437175529</v>
+        <v>0.01379627500574848</v>
       </c>
       <c r="F253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="2">
-        <v>45720.61458333334</v>
+        <v>45721.69444444445</v>
       </c>
       <c r="B254" s="2">
-        <v>45720.63194444445</v>
+        <v>45721.71527777778</v>
       </c>
       <c r="C254">
-        <v>42.42</v>
+        <v>42.84</v>
       </c>
       <c r="D254">
-        <v>40.86</v>
+        <v>43.81</v>
       </c>
       <c r="E254">
-        <v>-0.03677510608203683</v>
+        <v>0.02264239028944908</v>
       </c>
       <c r="F254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="2">
-        <v>45721.63888888889</v>
+        <v>45721.71180555555</v>
       </c>
       <c r="B255" s="2">
-        <v>45721.65972222222</v>
+        <v>45721.73263888889</v>
       </c>
       <c r="C255">
-        <v>43.5</v>
+        <v>43.87</v>
       </c>
       <c r="D255">
-        <v>44.09</v>
+        <v>44.32</v>
       </c>
       <c r="E255">
-        <v>0.01356321839080468</v>
+        <v>0.0102575792113062</v>
       </c>
       <c r="F255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="2">
-        <v>45721.69444444445</v>
+        <v>45722.79166666666</v>
       </c>
       <c r="B256" s="2">
-        <v>45721.71527777778</v>
+        <v>45722.80902777778</v>
       </c>
       <c r="C256">
-        <v>43.11</v>
+        <v>40.16</v>
       </c>
       <c r="D256">
-        <v>43.81</v>
+        <v>39.59</v>
       </c>
       <c r="E256">
-        <v>0.016237531895152</v>
+        <v>-0.0141932270916333</v>
       </c>
       <c r="F256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="2">
-        <v>45721.71180555555</v>
+        <v>45727.59722222222</v>
       </c>
       <c r="B257" s="2">
-        <v>45721.72916666666</v>
+        <v>45727.61111111111</v>
       </c>
       <c r="C257">
-        <v>43.62</v>
+        <v>37.08</v>
       </c>
       <c r="D257">
-        <v>44.27</v>
+        <v>36.32</v>
       </c>
       <c r="E257">
-        <v>0.01490142136634584</v>
+        <v>-0.02049622437971947</v>
       </c>
       <c r="F257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="2">
-        <v>45722.79166666666</v>
+        <v>45727.63888888889</v>
       </c>
       <c r="B258" s="2">
-        <v>45722.80555555555</v>
+        <v>45727.65277777778</v>
       </c>
       <c r="C258">
-        <v>40.48</v>
+        <v>38.06</v>
       </c>
       <c r="D258">
-        <v>39.75</v>
+        <v>39.16</v>
       </c>
       <c r="E258">
-        <v>-0.01803359683794459</v>
+        <v>0.02890173410404609</v>
       </c>
       <c r="F258" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="2">
-        <v>45727.59722222222</v>
+        <v>45728.64583333334</v>
       </c>
       <c r="B259" s="2">
-        <v>45727.61111111111</v>
+        <v>45728.66319444445</v>
       </c>
       <c r="C259">
-        <v>37.79</v>
+        <v>42.25</v>
       </c>
       <c r="D259">
-        <v>36.32</v>
+        <v>42.87</v>
       </c>
       <c r="E259">
-        <v>-0.03889917967716324</v>
+        <v>0.01467455621301769</v>
       </c>
       <c r="F259" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="2">
-        <v>45727.63888888889</v>
+        <v>45728.77430555555</v>
       </c>
       <c r="B260" s="2">
-        <v>45727.65625</v>
+        <v>45728.80208333334</v>
       </c>
       <c r="C260">
-        <v>38.15</v>
+        <v>43.1</v>
       </c>
       <c r="D260">
-        <v>38.96</v>
+        <v>43.01</v>
       </c>
       <c r="E260">
-        <v>0.02123197903014423</v>
+        <v>-0.002088167053364348</v>
       </c>
       <c r="F260" t="s">
         <v>7</v>
@@ -5613,39 +5613,39 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="2">
-        <v>45728.64583333334</v>
+        <v>45733.65972222222</v>
       </c>
       <c r="B261" s="2">
-        <v>45728.66319444445</v>
+        <v>45733.67361111111</v>
       </c>
       <c r="C261">
-        <v>42.3</v>
+        <v>45.79</v>
       </c>
       <c r="D261">
-        <v>42.87</v>
+        <v>45.75</v>
       </c>
       <c r="E261">
-        <v>0.01347517730496455</v>
+        <v>-0.0008735531775496648</v>
       </c>
       <c r="F261" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2">
-        <v>45728.77430555555</v>
+        <v>45733.73611111111</v>
       </c>
       <c r="B262" s="2">
-        <v>45728.80208333334</v>
+        <v>45733.75</v>
       </c>
       <c r="C262">
-        <v>42.95</v>
+        <v>45.55</v>
       </c>
       <c r="D262">
-        <v>43.01</v>
+        <v>45.42</v>
       </c>
       <c r="E262">
-        <v>0.001396973224679748</v>
+        <v>-0.002854006586168945</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -5653,119 +5653,119 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="2">
-        <v>45733.65972222222</v>
+        <v>45734.625</v>
       </c>
       <c r="B263" s="2">
-        <v>45733.67361111111</v>
+        <v>45734.64236111111</v>
       </c>
       <c r="C263">
-        <v>45.8</v>
+        <v>42.78</v>
       </c>
       <c r="D263">
-        <v>45.75</v>
+        <v>43.67</v>
       </c>
       <c r="E263">
-        <v>-0.001091703056768497</v>
+        <v>0.02080411407199627</v>
       </c>
       <c r="F263" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="2">
-        <v>45733.73611111111</v>
+        <v>45735.56944444445</v>
       </c>
       <c r="B264" s="2">
-        <v>45733.75</v>
+        <v>45735.58680555555</v>
       </c>
       <c r="C264">
-        <v>45.56</v>
+        <v>42.89</v>
       </c>
       <c r="D264">
-        <v>45.42</v>
+        <v>44.27</v>
       </c>
       <c r="E264">
-        <v>-0.003072870939420557</v>
+        <v>0.03217533224527868</v>
       </c>
       <c r="F264" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="2">
-        <v>45734.625</v>
+        <v>45736.72916666666</v>
       </c>
       <c r="B265" s="2">
-        <v>45734.63888888889</v>
+        <v>45736.76388888889</v>
       </c>
       <c r="C265">
-        <v>43.1</v>
+        <v>44.58</v>
       </c>
       <c r="D265">
-        <v>43.46</v>
+        <v>44.86</v>
       </c>
       <c r="E265">
-        <v>0.008352668213457063</v>
+        <v>0.00628084342754601</v>
       </c>
       <c r="F265" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="2">
-        <v>45735.56944444445</v>
+        <v>45737.77083333334</v>
       </c>
       <c r="B266" s="2">
-        <v>45735.58680555555</v>
+        <v>45737.78819444445</v>
       </c>
       <c r="C266">
-        <v>43.44</v>
+        <v>43.8</v>
       </c>
       <c r="D266">
-        <v>44.27</v>
+        <v>43.79</v>
       </c>
       <c r="E266">
-        <v>0.01910681399631688</v>
+        <v>-0.0002283105022830596</v>
       </c>
       <c r="F266" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="2">
-        <v>45736.72916666666</v>
+        <v>45740.5625</v>
       </c>
       <c r="B267" s="2">
-        <v>45736.74305555555</v>
+        <v>45740.57638888889</v>
       </c>
       <c r="C267">
-        <v>44.33</v>
+        <v>46.19</v>
       </c>
       <c r="D267">
-        <v>44.64</v>
+        <v>45.73</v>
       </c>
       <c r="E267">
-        <v>0.006993006993007044</v>
+        <v>-0.009958865555315022</v>
       </c>
       <c r="F267" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="2">
-        <v>45736.74305555555</v>
+        <v>45741.8125</v>
       </c>
       <c r="B268" s="2">
-        <v>45736.76388888889</v>
+        <v>45742.5625</v>
       </c>
       <c r="C268">
-        <v>44.8</v>
+        <v>46.42</v>
       </c>
       <c r="D268">
-        <v>44.86</v>
+        <v>44.04</v>
       </c>
       <c r="E268">
-        <v>0.001339285714285765</v>
+        <v>-0.051271003877639</v>
       </c>
       <c r="F268" t="s">
         <v>7</v>
@@ -5773,59 +5773,59 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="2">
-        <v>45737.77083333334</v>
+        <v>45742.65277777778</v>
       </c>
       <c r="B269" s="2">
-        <v>45737.78819444445</v>
+        <v>45742.67013888889</v>
       </c>
       <c r="C269">
-        <v>43.8</v>
+        <v>41.87</v>
       </c>
       <c r="D269">
-        <v>43.79</v>
+        <v>41.33</v>
       </c>
       <c r="E269">
-        <v>-0.0002283105022830596</v>
+        <v>-0.01289706233580127</v>
       </c>
       <c r="F269" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="2">
-        <v>45740.5625</v>
+        <v>45742.73263888889</v>
       </c>
       <c r="B270" s="2">
-        <v>45740.57638888889</v>
+        <v>45742.76041666666</v>
       </c>
       <c r="C270">
-        <v>45.76</v>
+        <v>40.31</v>
       </c>
       <c r="D270">
-        <v>45.73</v>
+        <v>40.7</v>
       </c>
       <c r="E270">
-        <v>-0.0006555944055944304</v>
+        <v>0.009675018605805025</v>
       </c>
       <c r="F270" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="2">
-        <v>45741.8125</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B271" s="2">
-        <v>45742.5625</v>
+        <v>45744.65972222222</v>
       </c>
       <c r="C271">
-        <v>46.37</v>
+        <v>38.26</v>
       </c>
       <c r="D271">
-        <v>44.04</v>
+        <v>37.99</v>
       </c>
       <c r="E271">
-        <v>-0.05024800517576015</v>
+        <v>-0.007056978567694616</v>
       </c>
       <c r="F271" t="s">
         <v>7</v>
@@ -5833,19 +5833,19 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2">
-        <v>45742.65277777778</v>
+        <v>45747.64930555555</v>
       </c>
       <c r="B272" s="2">
-        <v>45742.67013888889</v>
+        <v>45747.66319444445</v>
       </c>
       <c r="C272">
-        <v>41.96</v>
+        <v>35.19</v>
       </c>
       <c r="D272">
-        <v>41.33</v>
+        <v>34.84</v>
       </c>
       <c r="E272">
-        <v>-0.01501429933269787</v>
+        <v>-0.00994600738846247</v>
       </c>
       <c r="F272" t="s">
         <v>6</v>
@@ -5853,19 +5853,19 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="2">
-        <v>45742.73263888889</v>
+        <v>45748.74652777778</v>
       </c>
       <c r="B273" s="2">
-        <v>45742.76041666666</v>
+        <v>45748.76041666666</v>
       </c>
       <c r="C273">
-        <v>40.55</v>
+        <v>37.23</v>
       </c>
       <c r="D273">
-        <v>40.7</v>
+        <v>36.57</v>
       </c>
       <c r="E273">
-        <v>0.003699136868064259</v>
+        <v>-0.01772763900080571</v>
       </c>
       <c r="F273" t="s">
         <v>6</v>
@@ -5873,19 +5873,19 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="2">
-        <v>45744.64583333334</v>
+        <v>45748.81597222222</v>
       </c>
       <c r="B274" s="2">
-        <v>45744.65972222222</v>
+        <v>45748.82986111111</v>
       </c>
       <c r="C274">
-        <v>37.98</v>
+        <v>37.7</v>
       </c>
       <c r="D274">
-        <v>37.99</v>
+        <v>38.24</v>
       </c>
       <c r="E274">
-        <v>0.0002632964718274123</v>
+        <v>0.01432360742705568</v>
       </c>
       <c r="F274" t="s">
         <v>7</v>
@@ -5893,79 +5893,79 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="2">
-        <v>45747.64930555555</v>
+        <v>45749.81597222222</v>
       </c>
       <c r="B275" s="2">
-        <v>45747.66666666666</v>
+        <v>45749.86458333334</v>
       </c>
       <c r="C275">
-        <v>35.09</v>
+        <v>38.1</v>
       </c>
       <c r="D275">
-        <v>35.02</v>
+        <v>35.75</v>
       </c>
       <c r="E275">
-        <v>-0.001994870333428335</v>
+        <v>-0.06167979002624675</v>
       </c>
       <c r="F275" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="2">
-        <v>45748.74652777778</v>
+        <v>45750.61458333334</v>
       </c>
       <c r="B276" s="2">
-        <v>45748.76041666666</v>
+        <v>45750.62847222222</v>
       </c>
       <c r="C276">
-        <v>37.39</v>
+        <v>33.17</v>
       </c>
       <c r="D276">
-        <v>36.57</v>
+        <v>32.7</v>
       </c>
       <c r="E276">
-        <v>-0.0219309975929393</v>
+        <v>-0.01416943020801926</v>
       </c>
       <c r="F276" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="2">
-        <v>45748.81597222222</v>
+        <v>45751.72222222222</v>
       </c>
       <c r="B277" s="2">
-        <v>45748.82986111111</v>
+        <v>45751.73611111111</v>
       </c>
       <c r="C277">
-        <v>37.5</v>
+        <v>27.66</v>
       </c>
       <c r="D277">
-        <v>38.24</v>
+        <v>27.86</v>
       </c>
       <c r="E277">
-        <v>0.01973333333333339</v>
+        <v>0.007230657989877053</v>
       </c>
       <c r="F277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="2">
-        <v>45749.81597222222</v>
+        <v>45751.73611111111</v>
       </c>
       <c r="B278" s="2">
-        <v>45749.86805555555</v>
+        <v>45751.75</v>
       </c>
       <c r="C278">
-        <v>38.17</v>
+        <v>27.86</v>
       </c>
       <c r="D278">
-        <v>36.57</v>
+        <v>28.48</v>
       </c>
       <c r="E278">
-        <v>-0.04191773644223216</v>
+        <v>0.02225412778176601</v>
       </c>
       <c r="F278" t="s">
         <v>7</v>
@@ -5973,79 +5973,79 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="2">
-        <v>45750.61458333334</v>
+        <v>45751.80902777778</v>
       </c>
       <c r="B279" s="2">
-        <v>45750.62847222222</v>
+        <v>45751.82291666666</v>
       </c>
       <c r="C279">
-        <v>33.7</v>
+        <v>28.21</v>
       </c>
       <c r="D279">
-        <v>32.7</v>
+        <v>28.11</v>
       </c>
       <c r="E279">
-        <v>-0.02967359050445104</v>
+        <v>-0.003544842254519724</v>
       </c>
       <c r="F279" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="2">
-        <v>45751.72222222222</v>
+        <v>45754.8125</v>
       </c>
       <c r="B280" s="2">
-        <v>45751.74305555555</v>
+        <v>45754.82986111111</v>
       </c>
       <c r="C280">
-        <v>27.36</v>
+        <v>29.72</v>
       </c>
       <c r="D280">
-        <v>28.2</v>
+        <v>29.62</v>
       </c>
       <c r="E280">
-        <v>0.03070175438596491</v>
+        <v>-0.003364737550470992</v>
       </c>
       <c r="F280" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="2">
-        <v>45751.73611111111</v>
+        <v>45754.82291666666</v>
       </c>
       <c r="B281" s="2">
-        <v>45751.75</v>
+        <v>45755.50694444445</v>
       </c>
       <c r="C281">
-        <v>27.82</v>
+        <v>29.49</v>
       </c>
       <c r="D281">
-        <v>28.48</v>
+        <v>32.35</v>
       </c>
       <c r="E281">
-        <v>0.02372393961179008</v>
+        <v>0.09698202780603606</v>
       </c>
       <c r="F281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2">
-        <v>45751.80902777778</v>
+        <v>45755.51041666666</v>
       </c>
       <c r="B282" s="2">
-        <v>45751.82291666666</v>
+        <v>45755.56597222222</v>
       </c>
       <c r="C282">
-        <v>28.26</v>
+        <v>32.24</v>
       </c>
       <c r="D282">
-        <v>28.11</v>
+        <v>32.94</v>
       </c>
       <c r="E282">
-        <v>-0.005307855626327039</v>
+        <v>0.02171215880893287</v>
       </c>
       <c r="F282" t="s">
         <v>7</v>
@@ -6053,39 +6053,39 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="2">
-        <v>45754.8125</v>
+        <v>45755.74652777778</v>
       </c>
       <c r="B283" s="2">
-        <v>45754.82638888889</v>
+        <v>45755.76736111111</v>
       </c>
       <c r="C283">
-        <v>29.33</v>
+        <v>31.14</v>
       </c>
       <c r="D283">
-        <v>29.19</v>
+        <v>30.62</v>
       </c>
       <c r="E283">
-        <v>-0.004773269689737369</v>
+        <v>-0.01669877970456004</v>
       </c>
       <c r="F283" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="2">
-        <v>45754.82291666666</v>
+        <v>45757.60763888889</v>
       </c>
       <c r="B284" s="2">
-        <v>45755.50694444445</v>
+        <v>45757.62152777778</v>
       </c>
       <c r="C284">
-        <v>29.37</v>
+        <v>36.78</v>
       </c>
       <c r="D284">
-        <v>32.35</v>
+        <v>36.03</v>
       </c>
       <c r="E284">
-        <v>0.1014640789921689</v>
+        <v>-0.02039151712887439</v>
       </c>
       <c r="F284" t="s">
         <v>6</v>
@@ -6093,299 +6093,299 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="2">
-        <v>45755.51041666666</v>
+        <v>45757.71527777778</v>
       </c>
       <c r="B285" s="2">
-        <v>45755.56597222222</v>
+        <v>45757.72916666666</v>
       </c>
       <c r="C285">
-        <v>32.24</v>
+        <v>33.32</v>
       </c>
       <c r="D285">
-        <v>32.94</v>
+        <v>34.21</v>
       </c>
       <c r="E285">
-        <v>0.02171215880893287</v>
+        <v>0.0267106842737095</v>
       </c>
       <c r="F285" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="2">
-        <v>45755.74652777778</v>
+        <v>45758.54861111111</v>
       </c>
       <c r="B286" s="2">
-        <v>45755.76736111111</v>
+        <v>45758.57986111111</v>
       </c>
       <c r="C286">
-        <v>31.14</v>
+        <v>35.38</v>
       </c>
       <c r="D286">
-        <v>30.62</v>
+        <v>36.76</v>
       </c>
       <c r="E286">
-        <v>-0.01669877970456004</v>
+        <v>0.03900508762012423</v>
       </c>
       <c r="F286" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="2">
-        <v>45757.60763888889</v>
+        <v>45758.8125</v>
       </c>
       <c r="B287" s="2">
-        <v>45757.62152777778</v>
+        <v>45758.82638888889</v>
       </c>
       <c r="C287">
-        <v>36.69</v>
+        <v>36.47</v>
       </c>
       <c r="D287">
-        <v>36.03</v>
+        <v>36.68</v>
       </c>
       <c r="E287">
-        <v>-0.01798855273916589</v>
+        <v>0.00575815738963534</v>
       </c>
       <c r="F287" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2">
-        <v>45757.71527777778</v>
+        <v>45761.70138888889</v>
       </c>
       <c r="B288" s="2">
-        <v>45757.72916666666</v>
+        <v>45761.71527777778</v>
       </c>
       <c r="C288">
-        <v>33.59</v>
+        <v>36.53</v>
       </c>
       <c r="D288">
-        <v>34.21</v>
+        <v>36.72</v>
       </c>
       <c r="E288">
-        <v>0.01845787436737116</v>
+        <v>0.005201204489460655</v>
       </c>
       <c r="F288" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="2">
-        <v>45758.54861111111</v>
+        <v>45763.69097222222</v>
       </c>
       <c r="B289" s="2">
-        <v>45758.57986111111</v>
+        <v>45763.71180555555</v>
       </c>
       <c r="C289">
-        <v>35.38</v>
+        <v>32.33</v>
       </c>
       <c r="D289">
-        <v>36.76</v>
+        <v>31.8</v>
       </c>
       <c r="E289">
-        <v>0.03900508762012423</v>
+        <v>-0.01639344262295074</v>
       </c>
       <c r="F289" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="2">
-        <v>45758.8125</v>
+        <v>45763.74305555555</v>
       </c>
       <c r="B290" s="2">
-        <v>45758.82638888889</v>
+        <v>45763.75694444445</v>
       </c>
       <c r="C290">
-        <v>36.24</v>
+        <v>31.38</v>
       </c>
       <c r="D290">
-        <v>36.68</v>
+        <v>31.08</v>
       </c>
       <c r="E290">
-        <v>0.01214128035320082</v>
+        <v>-0.009560229445506715</v>
       </c>
       <c r="F290" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="2">
-        <v>45761.70138888889</v>
+        <v>45763.82291666666</v>
       </c>
       <c r="B291" s="2">
-        <v>45761.71527777778</v>
+        <v>45763.83680555555</v>
       </c>
       <c r="C291">
-        <v>36.72</v>
+        <v>31.31</v>
       </c>
       <c r="D291">
-        <v>36.72</v>
+        <v>32.41</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>0.03513254551261571</v>
       </c>
       <c r="F291" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="2">
-        <v>45763.69097222222</v>
+        <v>45764.65625</v>
       </c>
       <c r="B292" s="2">
-        <v>45763.71180555555</v>
+        <v>45764.67013888889</v>
       </c>
       <c r="C292">
-        <v>32.33</v>
+        <v>30.07</v>
       </c>
       <c r="D292">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="E292">
-        <v>-0.01639344262295074</v>
+        <v>0.01097439308280673</v>
       </c>
       <c r="F292" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="2">
-        <v>45763.74305555555</v>
+        <v>45764.82291666666</v>
       </c>
       <c r="B293" s="2">
-        <v>45763.75694444445</v>
+        <v>45768.56597222222</v>
       </c>
       <c r="C293">
-        <v>31.38</v>
+        <v>30.3</v>
       </c>
       <c r="D293">
-        <v>31.08</v>
+        <v>28.46</v>
       </c>
       <c r="E293">
-        <v>-0.009560229445506715</v>
+        <v>-0.06072607260726072</v>
       </c>
       <c r="F293" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="2">
-        <v>45763.82291666666</v>
+        <v>45768.64236111111</v>
       </c>
       <c r="B294" s="2">
-        <v>45763.83680555555</v>
+        <v>45768.71527777778</v>
       </c>
       <c r="C294">
-        <v>31.29</v>
+        <v>27.3</v>
       </c>
       <c r="D294">
-        <v>32.41</v>
+        <v>26.92</v>
       </c>
       <c r="E294">
-        <v>0.03579418344519007</v>
+        <v>-0.01391941391941388</v>
       </c>
       <c r="F294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="2">
-        <v>45764.65625</v>
+        <v>45769.78472222222</v>
       </c>
       <c r="B295" s="2">
-        <v>45764.67013888889</v>
+        <v>45769.80555555555</v>
       </c>
       <c r="C295">
-        <v>30.07</v>
+        <v>28.86</v>
       </c>
       <c r="D295">
-        <v>30.4</v>
+        <v>28.45</v>
       </c>
       <c r="E295">
-        <v>0.01097439308280673</v>
+        <v>-0.01420651420651421</v>
       </c>
       <c r="F295" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="2">
-        <v>45764.82291666666</v>
+        <v>45769.82986111111</v>
       </c>
       <c r="B296" s="2">
-        <v>45768.56597222222</v>
+        <v>45770.5625</v>
       </c>
       <c r="C296">
-        <v>30.46</v>
+        <v>29</v>
       </c>
       <c r="D296">
-        <v>28.46</v>
+        <v>32.3</v>
       </c>
       <c r="E296">
-        <v>-0.06565988181221273</v>
+        <v>0.1137931034482758</v>
       </c>
       <c r="F296" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="2">
-        <v>45768.64236111111</v>
+        <v>45770.69444444445</v>
       </c>
       <c r="B297" s="2">
-        <v>45768.66666666666</v>
+        <v>45770.71180555555</v>
       </c>
       <c r="C297">
-        <v>27.35</v>
+        <v>31.83</v>
       </c>
       <c r="D297">
-        <v>27.26</v>
+        <v>32.155</v>
       </c>
       <c r="E297">
-        <v>-0.003290676416819007</v>
+        <v>0.0102104932453661</v>
       </c>
       <c r="F297" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="2">
-        <v>45768.69444444445</v>
+        <v>45771.57291666666</v>
       </c>
       <c r="B298" s="2">
-        <v>45768.71180555555</v>
+        <v>45771.58680555555</v>
       </c>
       <c r="C298">
-        <v>27.42</v>
+        <v>32.27</v>
       </c>
       <c r="D298">
-        <v>26.86</v>
+        <v>32.54</v>
       </c>
       <c r="E298">
-        <v>-0.02042304886943845</v>
+        <v>0.008366904245429067</v>
       </c>
       <c r="F298" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="2">
-        <v>45769.78472222222</v>
+        <v>45772.78819444445</v>
       </c>
       <c r="B299" s="2">
-        <v>45769.80555555555</v>
+        <v>45772.80208333334</v>
       </c>
       <c r="C299">
-        <v>28.9</v>
+        <v>36.43</v>
       </c>
       <c r="D299">
-        <v>28.45</v>
+        <v>36.1</v>
       </c>
       <c r="E299">
-        <v>-0.01557093425605534</v>
+        <v>-0.00905846829536092</v>
       </c>
       <c r="F299" t="s">
         <v>7</v>
@@ -6393,59 +6393,59 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="2">
-        <v>45769.82986111111</v>
+        <v>45775.68402777778</v>
       </c>
       <c r="B300" s="2">
-        <v>45770.5625</v>
+        <v>45775.70833333334</v>
       </c>
       <c r="C300">
-        <v>28.74</v>
+        <v>33.39</v>
       </c>
       <c r="D300">
-        <v>32.3</v>
+        <v>33.53</v>
       </c>
       <c r="E300">
-        <v>0.1238691718858733</v>
+        <v>0.004192872117400436</v>
       </c>
       <c r="F300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="2">
-        <v>45770.69444444445</v>
+        <v>45775.72916666666</v>
       </c>
       <c r="B301" s="2">
-        <v>45770.71180555555</v>
+        <v>45775.75347222222</v>
       </c>
       <c r="C301">
-        <v>31.76</v>
+        <v>33.25</v>
       </c>
       <c r="D301">
-        <v>32.155</v>
+        <v>33.65</v>
       </c>
       <c r="E301">
-        <v>0.01243702770780855</v>
+        <v>0.01203007518796988</v>
       </c>
       <c r="F301" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="2">
-        <v>45771.57291666666</v>
+        <v>45776.65277777778</v>
       </c>
       <c r="B302" s="2">
-        <v>45771.58680555555</v>
+        <v>45776.68055555555</v>
       </c>
       <c r="C302">
-        <v>32.04</v>
+        <v>35.03</v>
       </c>
       <c r="D302">
-        <v>32.54</v>
+        <v>34.9</v>
       </c>
       <c r="E302">
-        <v>0.01560549313358302</v>
+        <v>-0.003711104767342351</v>
       </c>
       <c r="F302" t="s">
         <v>7</v>
@@ -6453,19 +6453,19 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="2">
-        <v>45772.78819444445</v>
+        <v>45776.72916666666</v>
       </c>
       <c r="B303" s="2">
-        <v>45772.80208333334</v>
+        <v>45776.75</v>
       </c>
       <c r="C303">
-        <v>36.49</v>
+        <v>34.82</v>
       </c>
       <c r="D303">
-        <v>36.1</v>
+        <v>35.26</v>
       </c>
       <c r="E303">
-        <v>-0.01068785968758565</v>
+        <v>0.012636415852958</v>
       </c>
       <c r="F303" t="s">
         <v>7</v>
@@ -6473,59 +6473,59 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="2">
-        <v>45775.68402777778</v>
+        <v>45779.5625</v>
       </c>
       <c r="B304" s="2">
-        <v>45775.71527777778</v>
+        <v>45779.57638888889</v>
       </c>
       <c r="C304">
-        <v>33.57</v>
+        <v>38.815</v>
       </c>
       <c r="D304">
-        <v>33.1</v>
+        <v>38.08</v>
       </c>
       <c r="E304">
-        <v>-0.01400059577003273</v>
+        <v>-0.01893597835888186</v>
       </c>
       <c r="F304" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="2">
-        <v>45775.72916666666</v>
+        <v>45782.62152777778</v>
       </c>
       <c r="B305" s="2">
-        <v>45775.75347222222</v>
+        <v>45782.65277777778</v>
       </c>
       <c r="C305">
-        <v>33.19</v>
+        <v>37.85</v>
       </c>
       <c r="D305">
-        <v>33.65</v>
+        <v>37.82</v>
       </c>
       <c r="E305">
-        <v>0.01385959626393495</v>
+        <v>-0.0007926023778071634</v>
       </c>
       <c r="F305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="2">
-        <v>45776.65277777778</v>
+        <v>45783.68402777778</v>
       </c>
       <c r="B306" s="2">
-        <v>45776.68055555555</v>
+        <v>45783.70833333334</v>
       </c>
       <c r="C306">
-        <v>34.88</v>
+        <v>37.43</v>
       </c>
       <c r="D306">
-        <v>34.9</v>
+        <v>37.38</v>
       </c>
       <c r="E306">
-        <v>0.0005733944954127299</v>
+        <v>-0.001335826876836686</v>
       </c>
       <c r="F306" t="s">
         <v>7</v>
@@ -6533,19 +6533,19 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="2">
-        <v>45776.72916666666</v>
+        <v>45785.64236111111</v>
       </c>
       <c r="B307" s="2">
-        <v>45776.75</v>
+        <v>45785.66319444445</v>
       </c>
       <c r="C307">
-        <v>34.82</v>
+        <v>40.29</v>
       </c>
       <c r="D307">
-        <v>35.26</v>
+        <v>40.76</v>
       </c>
       <c r="E307">
-        <v>0.012636415852958</v>
+        <v>0.01166542566393643</v>
       </c>
       <c r="F307" t="s">
         <v>7</v>
@@ -6553,59 +6553,59 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="2">
-        <v>45779.5625</v>
+        <v>45790.77430555555</v>
       </c>
       <c r="B308" s="2">
-        <v>45779.57638888889</v>
+        <v>45790.78819444445</v>
       </c>
       <c r="C308">
-        <v>38.2</v>
+        <v>49.27</v>
       </c>
       <c r="D308">
-        <v>38.08</v>
+        <v>49.39</v>
       </c>
       <c r="E308">
-        <v>-0.003141361256544622</v>
+        <v>0.002435559163791302</v>
       </c>
       <c r="F308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="2">
-        <v>45782.62152777778</v>
+        <v>45790.79861111111</v>
       </c>
       <c r="B309" s="2">
-        <v>45782.65277777778</v>
+        <v>45790.8125</v>
       </c>
       <c r="C309">
-        <v>37.83</v>
+        <v>49.17</v>
       </c>
       <c r="D309">
-        <v>37.82</v>
+        <v>49.195</v>
       </c>
       <c r="E309">
-        <v>-0.0002643404705259849</v>
+        <v>0.000508440105755513</v>
       </c>
       <c r="F309" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="2">
-        <v>45783.68402777778</v>
+        <v>45791.62847222222</v>
       </c>
       <c r="B310" s="2">
-        <v>45783.70833333334</v>
+        <v>45791.64236111111</v>
       </c>
       <c r="C310">
-        <v>37.39</v>
+        <v>51.88</v>
       </c>
       <c r="D310">
-        <v>37.38</v>
+        <v>52.23</v>
       </c>
       <c r="E310">
-        <v>-0.000267451190157743</v>
+        <v>0.006746337702390021</v>
       </c>
       <c r="F310" t="s">
         <v>7</v>
@@ -6613,59 +6613,59 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="2">
-        <v>45785.64236111111</v>
+        <v>45792.84027777778</v>
       </c>
       <c r="B311" s="2">
-        <v>45785.66319444445</v>
+        <v>45793.5625</v>
       </c>
       <c r="C311">
-        <v>40.27</v>
+        <v>52.74</v>
       </c>
       <c r="D311">
-        <v>40.76</v>
+        <v>53.65</v>
       </c>
       <c r="E311">
-        <v>0.01216786689843543</v>
+        <v>0.01725445582100866</v>
       </c>
       <c r="F311" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2">
-        <v>45790.77430555555</v>
+        <v>45793.71875</v>
       </c>
       <c r="B312" s="2">
-        <v>45790.78819444445</v>
+        <v>45793.73263888889</v>
       </c>
       <c r="C312">
-        <v>49.23</v>
+        <v>53.16</v>
       </c>
       <c r="D312">
-        <v>49.39</v>
+        <v>53.34</v>
       </c>
       <c r="E312">
-        <v>0.003250050782043544</v>
+        <v>0.003386004514672815</v>
       </c>
       <c r="F312" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="2">
-        <v>45790.79861111111</v>
+        <v>45793.80208333334</v>
       </c>
       <c r="B313" s="2">
-        <v>45790.8125</v>
+        <v>45793.81597222222</v>
       </c>
       <c r="C313">
-        <v>49.25</v>
+        <v>52.85</v>
       </c>
       <c r="D313">
-        <v>49.195</v>
+        <v>52.65</v>
       </c>
       <c r="E313">
-        <v>-0.001116751269035527</v>
+        <v>-0.003784295175023706</v>
       </c>
       <c r="F313" t="s">
         <v>9</v>
@@ -6673,39 +6673,39 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="2">
-        <v>45791.62847222222</v>
+        <v>45796.57638888889</v>
       </c>
       <c r="B314" s="2">
-        <v>45791.64236111111</v>
+        <v>45796.59722222222</v>
       </c>
       <c r="C314">
-        <v>51.4</v>
+        <v>52.18</v>
       </c>
       <c r="D314">
-        <v>52.23</v>
+        <v>53.235</v>
       </c>
       <c r="E314">
-        <v>0.01614785992217896</v>
+        <v>0.02021847451130701</v>
       </c>
       <c r="F314" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="2">
-        <v>45792.84027777778</v>
+        <v>45796.71875</v>
       </c>
       <c r="B315" s="2">
-        <v>45793.5625</v>
+        <v>45796.73958333334</v>
       </c>
       <c r="C315">
-        <v>52.74</v>
+        <v>53.17</v>
       </c>
       <c r="D315">
-        <v>53.65</v>
+        <v>52.99</v>
       </c>
       <c r="E315">
-        <v>0.01725445582100866</v>
+        <v>-0.003385367688546167</v>
       </c>
       <c r="F315" t="s">
         <v>9</v>
@@ -6713,179 +6713,179 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="2">
-        <v>45793.71875</v>
+        <v>45796.80555555555</v>
       </c>
       <c r="B316" s="2">
-        <v>45793.73263888889</v>
+        <v>45796.81944444445</v>
       </c>
       <c r="C316">
-        <v>52.94</v>
+        <v>52.82</v>
       </c>
       <c r="D316">
-        <v>53.34</v>
+        <v>52.81</v>
       </c>
       <c r="E316">
-        <v>0.007555723460521453</v>
+        <v>-0.0001893222264293452</v>
       </c>
       <c r="F316" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="2">
-        <v>45793.80208333334</v>
+        <v>45797.62152777778</v>
       </c>
       <c r="B317" s="2">
-        <v>45793.81597222222</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="C317">
-        <v>52.9</v>
+        <v>51.62</v>
       </c>
       <c r="D317">
-        <v>52.65</v>
+        <v>51.73</v>
       </c>
       <c r="E317">
-        <v>-0.004725897920604915</v>
+        <v>0.002130956993413395</v>
       </c>
       <c r="F317" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="2">
-        <v>45796.57638888889</v>
+        <v>45798.78125</v>
       </c>
       <c r="B318" s="2">
-        <v>45796.59722222222</v>
+        <v>45798.80208333334</v>
       </c>
       <c r="C318">
-        <v>52.19</v>
+        <v>50.88</v>
       </c>
       <c r="D318">
-        <v>53.235</v>
+        <v>49.59</v>
       </c>
       <c r="E318">
-        <v>0.02002299291051929</v>
+        <v>-0.02535377358490564</v>
       </c>
       <c r="F318" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="2">
-        <v>45796.71875</v>
+        <v>45798.82638888889</v>
       </c>
       <c r="B319" s="2">
-        <v>45796.73958333334</v>
+        <v>45799.56597222222</v>
       </c>
       <c r="C319">
-        <v>53.17</v>
+        <v>50.22</v>
       </c>
       <c r="D319">
-        <v>52.99</v>
+        <v>50.22</v>
       </c>
       <c r="E319">
-        <v>-0.003385367688546167</v>
+        <v>0</v>
       </c>
       <c r="F319" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="2">
-        <v>45796.80555555555</v>
+        <v>45800.68055555555</v>
       </c>
       <c r="B320" s="2">
-        <v>45796.81944444445</v>
+        <v>45800.69444444445</v>
       </c>
       <c r="C320">
-        <v>52.77</v>
+        <v>49.5</v>
       </c>
       <c r="D320">
-        <v>52.81</v>
+        <v>49.37</v>
       </c>
       <c r="E320">
-        <v>0.0007580064430547498</v>
+        <v>-0.002626262626262678</v>
       </c>
       <c r="F320" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="2">
-        <v>45797.62152777778</v>
+        <v>45800.82638888889</v>
       </c>
       <c r="B321" s="2">
-        <v>45797.64583333334</v>
+        <v>45804.50347222222</v>
       </c>
       <c r="C321">
-        <v>51.72</v>
+        <v>49.76</v>
       </c>
       <c r="D321">
-        <v>51.73</v>
+        <v>52.15</v>
       </c>
       <c r="E321">
-        <v>0.0001933488012373939</v>
+        <v>0.04803054662379422</v>
       </c>
       <c r="F321" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="2">
-        <v>45798.78125</v>
+        <v>45804.81597222222</v>
       </c>
       <c r="B322" s="2">
-        <v>45798.79513888889</v>
+        <v>45805.56597222222</v>
       </c>
       <c r="C322">
-        <v>51.23</v>
+        <v>52.27</v>
       </c>
       <c r="D322">
-        <v>49.94</v>
+        <v>53.16</v>
       </c>
       <c r="E322">
-        <v>-0.02518055826664062</v>
+        <v>0.01702697532045138</v>
       </c>
       <c r="F322" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="2">
-        <v>45798.82638888889</v>
+        <v>45805.62847222222</v>
       </c>
       <c r="B323" s="2">
-        <v>45799.53472222222</v>
+        <v>45805.65972222222</v>
       </c>
       <c r="C323">
-        <v>50.44</v>
+        <v>52.69</v>
       </c>
       <c r="D323">
-        <v>50.41</v>
+        <v>53.015</v>
       </c>
       <c r="E323">
-        <v>-0.0005947660586836071</v>
+        <v>0.006168153349781796</v>
       </c>
       <c r="F323" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="2">
-        <v>45800.68055555555</v>
+        <v>45805.85763888889</v>
       </c>
       <c r="B324" s="2">
-        <v>45800.69444444445</v>
+        <v>45806.53819444445</v>
       </c>
       <c r="C324">
-        <v>49.47</v>
+        <v>56.15</v>
       </c>
       <c r="D324">
-        <v>49.37</v>
+        <v>57.88</v>
       </c>
       <c r="E324">
-        <v>-0.002021427127552081</v>
+        <v>0.03081032947462162</v>
       </c>
       <c r="F324" t="s">
         <v>7</v>
@@ -6893,79 +6893,79 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="2">
-        <v>45800.82638888889</v>
+        <v>45806.62847222222</v>
       </c>
       <c r="B325" s="2">
-        <v>45804.50347222222</v>
+        <v>45806.64236111111</v>
       </c>
       <c r="C325">
-        <v>49.93</v>
+        <v>57.31</v>
       </c>
       <c r="D325">
-        <v>52.15</v>
+        <v>57.58</v>
       </c>
       <c r="E325">
-        <v>0.04446224714600439</v>
+        <v>0.004711219682428826</v>
       </c>
       <c r="F325" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="2">
-        <v>45804.81597222222</v>
+        <v>45806.70486111111</v>
       </c>
       <c r="B326" s="2">
-        <v>45805.56597222222</v>
+        <v>45806.71875</v>
       </c>
       <c r="C326">
-        <v>52.46</v>
+        <v>56.64</v>
       </c>
       <c r="D326">
-        <v>53.16</v>
+        <v>56.27</v>
       </c>
       <c r="E326">
-        <v>0.01334349980937849</v>
+        <v>-0.006532485875706169</v>
       </c>
       <c r="F326" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="2">
-        <v>45805.62847222222</v>
+        <v>45806.78819444445</v>
       </c>
       <c r="B327" s="2">
-        <v>45805.65972222222</v>
+        <v>45806.81944444445</v>
       </c>
       <c r="C327">
-        <v>52.68</v>
+        <v>55.5</v>
       </c>
       <c r="D327">
-        <v>53.015</v>
+        <v>55.39</v>
       </c>
       <c r="E327">
-        <v>0.006359149582384223</v>
+        <v>-0.001981981981981972</v>
       </c>
       <c r="F327" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="2">
-        <v>45805.85763888889</v>
+        <v>45811.56597222222</v>
       </c>
       <c r="B328" s="2">
-        <v>45806.53819444445</v>
+        <v>45811.57986111111</v>
       </c>
       <c r="C328">
-        <v>55.41</v>
+        <v>54.77</v>
       </c>
       <c r="D328">
-        <v>57.88</v>
+        <v>56.395</v>
       </c>
       <c r="E328">
-        <v>0.04457679119292558</v>
+        <v>0.02966952711338324</v>
       </c>
       <c r="F328" t="s">
         <v>7</v>
@@ -6973,59 +6973,59 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="2">
-        <v>45806.62847222222</v>
+        <v>45812.60069444445</v>
       </c>
       <c r="B329" s="2">
-        <v>45806.64236111111</v>
+        <v>45812.64583333334</v>
       </c>
       <c r="C329">
-        <v>57.69</v>
+        <v>56.9</v>
       </c>
       <c r="D329">
-        <v>57.58</v>
+        <v>57.065</v>
       </c>
       <c r="E329">
-        <v>-0.001906742936384112</v>
+        <v>0.002899824253075556</v>
       </c>
       <c r="F329" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="2">
-        <v>45806.70486111111</v>
+        <v>45812.71180555555</v>
       </c>
       <c r="B330" s="2">
-        <v>45806.71875</v>
+        <v>45812.75347222222</v>
       </c>
       <c r="C330">
-        <v>56.61</v>
+        <v>56.71</v>
       </c>
       <c r="D330">
-        <v>56.27</v>
+        <v>57.09</v>
       </c>
       <c r="E330">
-        <v>-0.006006006006005941</v>
+        <v>0.006700758243696042</v>
       </c>
       <c r="F330" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="2">
-        <v>45806.78819444445</v>
+        <v>45813.82291666666</v>
       </c>
       <c r="B331" s="2">
-        <v>45806.80555555555</v>
+        <v>45813.86805555555</v>
       </c>
       <c r="C331">
-        <v>55.84</v>
+        <v>56.33</v>
       </c>
       <c r="D331">
-        <v>55.65</v>
+        <v>55.35</v>
       </c>
       <c r="E331">
-        <v>-0.003402578796561691</v>
+        <v>-0.0173974791407775</v>
       </c>
       <c r="F331" t="s">
         <v>6</v>
@@ -7033,19 +7033,19 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="2">
-        <v>45811.56597222222</v>
+        <v>45814.52083333334</v>
       </c>
       <c r="B332" s="2">
-        <v>45811.57986111111</v>
+        <v>45814.5625</v>
       </c>
       <c r="C332">
-        <v>54.8</v>
+        <v>57.3</v>
       </c>
       <c r="D332">
-        <v>56.395</v>
+        <v>57.63</v>
       </c>
       <c r="E332">
-        <v>0.02910583941605851</v>
+        <v>0.005759162303665016</v>
       </c>
       <c r="F332" t="s">
         <v>7</v>
@@ -7053,39 +7053,39 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="2">
-        <v>45812.60069444445</v>
+        <v>45814.54861111111</v>
       </c>
       <c r="B333" s="2">
-        <v>45812.63541666666</v>
+        <v>45814.56944444445</v>
       </c>
       <c r="C333">
-        <v>56.54</v>
+        <v>57.77</v>
       </c>
       <c r="D333">
-        <v>57.34</v>
+        <v>58.53</v>
       </c>
       <c r="E333">
-        <v>0.01414927484966403</v>
+        <v>0.0131556171023022</v>
       </c>
       <c r="F333" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="2">
-        <v>45812.71180555555</v>
+        <v>45817.78819444445</v>
       </c>
       <c r="B334" s="2">
-        <v>45812.75347222222</v>
+        <v>45817.80208333334</v>
       </c>
       <c r="C334">
-        <v>56.71</v>
+        <v>58.33</v>
       </c>
       <c r="D334">
-        <v>57.09</v>
+        <v>58.14</v>
       </c>
       <c r="E334">
-        <v>0.006700758243696042</v>
+        <v>-0.003257328990227974</v>
       </c>
       <c r="F334" t="s">
         <v>7</v>
@@ -7093,19 +7093,19 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="2">
-        <v>45813.82291666666</v>
+        <v>45818.56597222222</v>
       </c>
       <c r="B335" s="2">
-        <v>45813.86805555555</v>
+        <v>45818.57986111111</v>
       </c>
       <c r="C335">
-        <v>56.31</v>
+        <v>58.22</v>
       </c>
       <c r="D335">
-        <v>55.35</v>
+        <v>58.12</v>
       </c>
       <c r="E335">
-        <v>-0.01704848161960577</v>
+        <v>-0.001717622810030942</v>
       </c>
       <c r="F335" t="s">
         <v>6</v>
@@ -7113,79 +7113,79 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="2">
-        <v>45814.52083333334</v>
+        <v>45818.57638888889</v>
       </c>
       <c r="B336" s="2">
-        <v>45814.5625</v>
+        <v>45818.61111111111</v>
       </c>
       <c r="C336">
-        <v>57.19</v>
+        <v>57.92</v>
       </c>
       <c r="D336">
-        <v>57.63</v>
+        <v>58.01</v>
       </c>
       <c r="E336">
-        <v>0.007693652736492479</v>
+        <v>0.001553867403314853</v>
       </c>
       <c r="F336" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="2">
-        <v>45814.54861111111</v>
+        <v>45821.75347222222</v>
       </c>
       <c r="B337" s="2">
-        <v>45814.56944444445</v>
+        <v>45821.76736111111</v>
       </c>
       <c r="C337">
-        <v>57.76</v>
+        <v>57.73</v>
       </c>
       <c r="D337">
-        <v>58.53</v>
+        <v>57.1</v>
       </c>
       <c r="E337">
-        <v>0.01333102493074798</v>
+        <v>-0.01091287025809796</v>
       </c>
       <c r="F337" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="2">
-        <v>45817.78819444445</v>
+        <v>45824.80555555555</v>
       </c>
       <c r="B338" s="2">
-        <v>45817.80208333334</v>
+        <v>45824.82291666666</v>
       </c>
       <c r="C338">
-        <v>58.35</v>
+        <v>59.88</v>
       </c>
       <c r="D338">
-        <v>58.14</v>
+        <v>59.59</v>
       </c>
       <c r="E338">
-        <v>-0.003598971722365053</v>
+        <v>-0.004843019372077473</v>
       </c>
       <c r="F338" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="2">
-        <v>45818.56597222222</v>
+        <v>45825.79861111111</v>
       </c>
       <c r="B339" s="2">
-        <v>45818.57986111111</v>
+        <v>45825.8125</v>
       </c>
       <c r="C339">
-        <v>57.7</v>
+        <v>59.13</v>
       </c>
       <c r="D339">
-        <v>58.12</v>
+        <v>59.15</v>
       </c>
       <c r="E339">
-        <v>0.007279029462738207</v>
+        <v>0.0003382377811600883</v>
       </c>
       <c r="F339" t="s">
         <v>9</v>
@@ -7193,19 +7193,19 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="2">
-        <v>45818.57638888889</v>
+        <v>45825.82638888889</v>
       </c>
       <c r="B340" s="2">
-        <v>45818.61111111111</v>
+        <v>45826.56944444445</v>
       </c>
       <c r="C340">
-        <v>57.88</v>
+        <v>59.32</v>
       </c>
       <c r="D340">
-        <v>58.01</v>
+        <v>59</v>
       </c>
       <c r="E340">
-        <v>0.002246026261230053</v>
+        <v>-0.00539447066756575</v>
       </c>
       <c r="F340" t="s">
         <v>9</v>
@@ -7213,59 +7213,59 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="2">
-        <v>45821.75347222222</v>
+        <v>45826.76388888889</v>
       </c>
       <c r="B341" s="2">
-        <v>45821.76736111111</v>
+        <v>45826.78472222222</v>
       </c>
       <c r="C341">
-        <v>57.95</v>
+        <v>59.78</v>
       </c>
       <c r="D341">
-        <v>57.1</v>
+        <v>59.54</v>
       </c>
       <c r="E341">
-        <v>-0.01466781708369286</v>
+        <v>-0.004014720642355336</v>
       </c>
       <c r="F341" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="2">
-        <v>45824.80555555555</v>
+        <v>45826.82986111111</v>
       </c>
       <c r="B342" s="2">
-        <v>45824.82291666666</v>
+        <v>45828.56944444445</v>
       </c>
       <c r="C342">
-        <v>59.73</v>
+        <v>60.12</v>
       </c>
       <c r="D342">
-        <v>59.59</v>
+        <v>60.35</v>
       </c>
       <c r="E342">
-        <v>-0.002343880796919362</v>
+        <v>0.003825681969394611</v>
       </c>
       <c r="F342" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="2">
-        <v>45825.79861111111</v>
+        <v>45828.65625</v>
       </c>
       <c r="B343" s="2">
-        <v>45825.8125</v>
+        <v>45828.67013888889</v>
       </c>
       <c r="C343">
-        <v>59.065</v>
+        <v>59.04</v>
       </c>
       <c r="D343">
-        <v>59.15</v>
+        <v>59.08</v>
       </c>
       <c r="E343">
-        <v>0.001439092525184134</v>
+        <v>0.0006775067750677363</v>
       </c>
       <c r="F343" t="s">
         <v>9</v>
@@ -7273,59 +7273,59 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="2">
-        <v>45825.82638888889</v>
+        <v>45831.56944444445</v>
       </c>
       <c r="B344" s="2">
-        <v>45826.56944444445</v>
+        <v>45831.59722222222</v>
       </c>
       <c r="C344">
-        <v>59.435</v>
+        <v>58.35</v>
       </c>
       <c r="D344">
-        <v>59</v>
+        <v>58.79</v>
       </c>
       <c r="E344">
-        <v>-0.007318919828383987</v>
+        <v>0.007540702656383851</v>
       </c>
       <c r="F344" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="2">
-        <v>45826.76388888889</v>
+        <v>45831.70833333334</v>
       </c>
       <c r="B345" s="2">
-        <v>45826.78472222222</v>
+        <v>45831.73263888889</v>
       </c>
       <c r="C345">
-        <v>59.835</v>
+        <v>58.3</v>
       </c>
       <c r="D345">
-        <v>59.54</v>
+        <v>59.34</v>
       </c>
       <c r="E345">
-        <v>-0.004930224784824963</v>
+        <v>0.01783876500857644</v>
       </c>
       <c r="F345" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="2">
-        <v>45826.82986111111</v>
+        <v>45831.72569444445</v>
       </c>
       <c r="B346" s="2">
-        <v>45828.56944444445</v>
+        <v>45831.73958333334</v>
       </c>
       <c r="C346">
-        <v>60.2</v>
+        <v>59.13</v>
       </c>
       <c r="D346">
-        <v>60.35</v>
+        <v>59.47</v>
       </c>
       <c r="E346">
-        <v>0.002491694352159445</v>
+        <v>0.005750042279722582</v>
       </c>
       <c r="F346" t="s">
         <v>7</v>
@@ -7333,79 +7333,79 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="2">
-        <v>45828.65625</v>
+        <v>45835.56944444445</v>
       </c>
       <c r="B347" s="2">
-        <v>45828.67013888889</v>
+        <v>45835.58333333334</v>
       </c>
       <c r="C347">
-        <v>59.04</v>
+        <v>68.92</v>
       </c>
       <c r="D347">
-        <v>59.08</v>
+        <v>68.91</v>
       </c>
       <c r="E347">
-        <v>0.0006775067750677363</v>
+        <v>-0.0001450957632037887</v>
       </c>
       <c r="F347" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="2">
-        <v>45831.56944444445</v>
+        <v>45835.80555555555</v>
       </c>
       <c r="B348" s="2">
-        <v>45831.59722222222</v>
+        <v>45835.82986111111</v>
       </c>
       <c r="C348">
-        <v>58.37</v>
+        <v>69.34</v>
       </c>
       <c r="D348">
-        <v>58.79</v>
+        <v>70.31</v>
       </c>
       <c r="E348">
-        <v>0.007195477128662014</v>
+        <v>0.01398903951543119</v>
       </c>
       <c r="F348" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="2">
-        <v>45831.70833333334</v>
+        <v>45838.79513888889</v>
       </c>
       <c r="B349" s="2">
-        <v>45831.72916666666</v>
+        <v>45838.82291666666</v>
       </c>
       <c r="C349">
-        <v>58.23</v>
+        <v>70.45</v>
       </c>
       <c r="D349">
-        <v>59.44</v>
+        <v>70.69</v>
       </c>
       <c r="E349">
-        <v>0.02077966683839947</v>
+        <v>0.003406671398154647</v>
       </c>
       <c r="F349" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="2">
-        <v>45831.72569444445</v>
+        <v>45839.66319444445</v>
       </c>
       <c r="B350" s="2">
-        <v>45831.73958333334</v>
+        <v>45839.6875</v>
       </c>
       <c r="C350">
-        <v>58.93</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="D350">
-        <v>59.47</v>
+        <v>66.64</v>
       </c>
       <c r="E350">
-        <v>0.009163414220261313</v>
+        <v>0.01245821938620491</v>
       </c>
       <c r="F350" t="s">
         <v>7</v>
@@ -7413,301 +7413,201 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="2">
-        <v>45835.56944444445</v>
+        <v>45839.78125</v>
       </c>
       <c r="B351" s="2">
-        <v>45835.58333333334</v>
+        <v>45839.79513888889</v>
       </c>
       <c r="C351">
-        <v>69.19</v>
+        <v>67.09</v>
       </c>
       <c r="D351">
-        <v>68.91</v>
+        <v>66.23</v>
       </c>
       <c r="E351">
-        <v>-0.004046827576239358</v>
+        <v>-0.01281860187807422</v>
       </c>
       <c r="F351" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="2">
-        <v>45835.80555555555</v>
+        <v>45840.57291666666</v>
       </c>
       <c r="B352" s="2">
-        <v>45835.82986111111</v>
+        <v>45840.59375</v>
       </c>
       <c r="C352">
-        <v>69.34999999999999</v>
+        <v>67.14</v>
       </c>
       <c r="D352">
-        <v>70.31</v>
+        <v>67.95</v>
       </c>
       <c r="E352">
-        <v>0.01384282624369154</v>
+        <v>0.01206434316353891</v>
       </c>
       <c r="F352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="2">
-        <v>45838.79513888889</v>
+        <v>45840.68055555555</v>
       </c>
       <c r="B353" s="2">
-        <v>45838.82291666666</v>
+        <v>45840.69791666666</v>
       </c>
       <c r="C353">
-        <v>70.485</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="D353">
-        <v>70.69</v>
+        <v>69.485</v>
       </c>
       <c r="E353">
-        <v>0.002908420231254853</v>
+        <v>-0.001221791001868532</v>
       </c>
       <c r="F353" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="2">
-        <v>45839.66319444445</v>
+        <v>45840.75347222222</v>
       </c>
       <c r="B354" s="2">
-        <v>45839.67708333334</v>
+        <v>45840.76736111111</v>
       </c>
       <c r="C354">
-        <v>65.98999999999999</v>
+        <v>69.53</v>
       </c>
       <c r="D354">
-        <v>66.20999999999999</v>
+        <v>69.48</v>
       </c>
       <c r="E354">
-        <v>0.003333838460372767</v>
+        <v>-0.0007191140514885252</v>
       </c>
       <c r="F354" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="2">
-        <v>45839.67013888889</v>
+        <v>45840.77777777778</v>
       </c>
       <c r="B355" s="2">
-        <v>45839.6875</v>
+        <v>45840.79166666666</v>
       </c>
       <c r="C355">
-        <v>65.58</v>
+        <v>69.42</v>
       </c>
       <c r="D355">
-        <v>66.64</v>
+        <v>69.31</v>
       </c>
       <c r="E355">
-        <v>0.0161634644708753</v>
+        <v>-0.001584557764333037</v>
       </c>
       <c r="F355" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="2">
-        <v>45839.78125</v>
+        <v>45840.78819444445</v>
       </c>
       <c r="B356" s="2">
-        <v>45839.79513888889</v>
+        <v>45840.80208333334</v>
       </c>
       <c r="C356">
-        <v>67.37</v>
+        <v>69.25</v>
       </c>
       <c r="D356">
-        <v>66.23</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="E356">
-        <v>-0.01692147840284994</v>
+        <v>-0.0001444043321300378</v>
       </c>
       <c r="F356" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="2">
-        <v>45840.57291666666</v>
+        <v>45845.56597222222</v>
       </c>
       <c r="B357" s="2">
-        <v>45840.59722222222</v>
+        <v>45845.59027777778</v>
       </c>
       <c r="C357">
-        <v>67.37</v>
+        <v>70.91</v>
       </c>
       <c r="D357">
-        <v>68.41</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="E357">
-        <v>0.0154371381920735</v>
+        <v>-0.005217881822027787</v>
       </c>
       <c r="F357" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="2">
-        <v>45840.68055555555</v>
+        <v>45845.58680555555</v>
       </c>
       <c r="B358" s="2">
-        <v>45840.69791666666</v>
+        <v>45845.61458333334</v>
       </c>
       <c r="C358">
-        <v>69.55</v>
+        <v>70.39</v>
       </c>
       <c r="D358">
-        <v>69.485</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="E358">
-        <v>-0.0009345794392523037</v>
+        <v>0.005256428469953183</v>
       </c>
       <c r="F358" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="2">
-        <v>45840.75347222222</v>
+        <v>45845.61805555555</v>
       </c>
       <c r="B359" s="2">
-        <v>45840.76736111111</v>
+        <v>45845.63194444445</v>
       </c>
       <c r="C359">
-        <v>69.48</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="D359">
-        <v>69.48</v>
+        <v>70.17</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>-0.00482201106226072</v>
       </c>
       <c r="F359" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="2">
-        <v>45840.77777777778</v>
+        <v>45845.66319444445</v>
       </c>
       <c r="B360" s="2">
-        <v>45840.79166666666</v>
+        <v>45845.68055555555</v>
       </c>
       <c r="C360">
-        <v>69.47</v>
+        <v>70.37</v>
       </c>
       <c r="D360">
-        <v>69.31</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="E360">
-        <v>-0.002303152439902067</v>
+        <v>0.001278954099758266</v>
       </c>
       <c r="F360" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="2">
-        <v>45840.78819444445</v>
-      </c>
-      <c r="B361" s="2">
-        <v>45840.80208333334</v>
-      </c>
-      <c r="C361">
-        <v>69.27</v>
-      </c>
-      <c r="D361">
-        <v>69.23999999999999</v>
-      </c>
-      <c r="E361">
-        <v>-0.0004330879168471364</v>
-      </c>
-      <c r="F361" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="2">
-        <v>45845.56597222222</v>
-      </c>
-      <c r="B362" s="2">
-        <v>45845.59027777778</v>
-      </c>
-      <c r="C362">
-        <v>70.81</v>
-      </c>
-      <c r="D362">
-        <v>70.54000000000001</v>
-      </c>
-      <c r="E362">
-        <v>-0.003813020759779636</v>
-      </c>
-      <c r="F362" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="2">
-        <v>45845.58680555555</v>
-      </c>
-      <c r="B363" s="2">
-        <v>45845.61458333334</v>
-      </c>
-      <c r="C363">
-        <v>70.56</v>
-      </c>
-      <c r="D363">
-        <v>70.76000000000001</v>
-      </c>
-      <c r="E363">
-        <v>0.002834467120181446</v>
-      </c>
-      <c r="F363" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="2">
-        <v>45845.61805555555</v>
-      </c>
-      <c r="B364" s="2">
-        <v>45845.63194444445</v>
-      </c>
-      <c r="C364">
-        <v>70.735</v>
-      </c>
-      <c r="D364">
-        <v>70.17</v>
-      </c>
-      <c r="E364">
-        <v>-0.007987559199830321</v>
-      </c>
-      <c r="F364" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="A365" s="2">
-        <v>45845.66319444445</v>
-      </c>
-      <c r="B365" s="2">
-        <v>45845.68055555555</v>
-      </c>
-      <c r="C365">
-        <v>70.37</v>
-      </c>
-      <c r="D365">
-        <v>70.45999999999999</v>
-      </c>
-      <c r="E365">
-        <v>0.001278954099758266</v>
-      </c>
-      <c r="F365" t="s">
         <v>7</v>
       </c>
     </row>

--- a/NVDL_rsi_method.xlsx
+++ b/NVDL_rsi_method.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="10">
   <si>
     <t>Buy_Time</t>
   </si>
@@ -40,10 +40,10 @@
     <t>RSI ≥ 60</t>
   </si>
   <si>
-    <t>Profit ≥ 1.0%</t>
+    <t>EMA diff shrinking</t>
   </si>
   <si>
-    <t>EMA diff shrinking</t>
+    <t>Profit ≥ 1.0%</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F360"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,19 +433,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45481.65972222222</v>
+        <v>45481.66319444445</v>
       </c>
       <c r="B2" s="2">
-        <v>45481.6875</v>
+        <v>45481.69444444445</v>
       </c>
       <c r="C2">
-        <v>75.33</v>
+        <v>75.48</v>
       </c>
       <c r="D2">
-        <v>74.19499999999999</v>
+        <v>74.09</v>
       </c>
       <c r="E2">
-        <v>-0.01506703836452947</v>
+        <v>-0.01841547429782725</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -453,19 +453,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45482.75</v>
+        <v>45482.74305555555</v>
       </c>
       <c r="B3" s="2">
-        <v>45482.78472222222</v>
+        <v>45482.76736111111</v>
       </c>
       <c r="C3">
-        <v>76.645</v>
+        <v>76.7</v>
       </c>
       <c r="D3">
-        <v>77.3</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="E3">
-        <v>0.008545893404657853</v>
+        <v>0.001173402868318167</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -473,19 +473,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45484.78125</v>
+        <v>45488.59722222222</v>
       </c>
       <c r="B4" s="2">
-        <v>45484.80555555555</v>
+        <v>45488.63541666666</v>
       </c>
       <c r="C4">
-        <v>74.93000000000001</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="D4">
-        <v>74.87</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="E4">
-        <v>-0.0008007473642066231</v>
+        <v>0.01221941824943535</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -493,19 +493,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45488.60069444445</v>
+        <v>45488.71180555555</v>
       </c>
       <c r="B5" s="2">
-        <v>45488.62847222222</v>
+        <v>45488.72916666666</v>
       </c>
       <c r="C5">
-        <v>75.05</v>
+        <v>73.78</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>73.55</v>
       </c>
       <c r="E5">
-        <v>0.0126582278481013</v>
+        <v>-0.003117375982651179</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -513,39 +513,39 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45488.71180555555</v>
+        <v>45490.56944444445</v>
       </c>
       <c r="B6" s="2">
-        <v>45488.72569444445</v>
+        <v>45490.58680555555</v>
       </c>
       <c r="C6">
-        <v>73.78</v>
+        <v>65.56</v>
       </c>
       <c r="D6">
-        <v>73.81999999999999</v>
+        <v>63.24</v>
       </c>
       <c r="E6">
-        <v>0.0005421523448087835</v>
+        <v>-0.03538743136058572</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45490.56597222222</v>
+        <v>45490.62847222222</v>
       </c>
       <c r="B7" s="2">
-        <v>45490.57986111111</v>
+        <v>45490.66666666666</v>
       </c>
       <c r="C7">
-        <v>66.33</v>
+        <v>63.91</v>
       </c>
       <c r="D7">
-        <v>64.5</v>
+        <v>63.445</v>
       </c>
       <c r="E7">
-        <v>-0.02758932609678876</v>
+        <v>-0.007275856673446978</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -553,19 +553,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45490.625</v>
+        <v>45491.63194444445</v>
       </c>
       <c r="B8" s="2">
-        <v>45490.66319444445</v>
+        <v>45491.64930555555</v>
       </c>
       <c r="C8">
-        <v>64.04000000000001</v>
+        <v>61.55</v>
       </c>
       <c r="D8">
-        <v>63.38</v>
+        <v>62.925</v>
       </c>
       <c r="E8">
-        <v>-0.01030605871330424</v>
+        <v>0.0223395613322502</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -573,19 +573,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45491.62847222222</v>
+        <v>45491.66319444445</v>
       </c>
       <c r="B9" s="2">
-        <v>45491.64236111111</v>
+        <v>45491.68055555555</v>
       </c>
       <c r="C9">
-        <v>62.68</v>
+        <v>62.49</v>
       </c>
       <c r="D9">
-        <v>61.01</v>
+        <v>63.19</v>
       </c>
       <c r="E9">
-        <v>-0.02664326738991707</v>
+        <v>0.01120179228676581</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -593,79 +593,79 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45491.65972222222</v>
+        <v>45491.68402777778</v>
       </c>
       <c r="B10" s="2">
-        <v>45491.67708333334</v>
+        <v>45491.70138888889</v>
       </c>
       <c r="C10">
-        <v>62.655</v>
+        <v>63.8</v>
       </c>
       <c r="D10">
-        <v>63.46</v>
+        <v>64.33</v>
       </c>
       <c r="E10">
-        <v>0.01284813662117947</v>
+        <v>0.00830721003134798</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45491.68055555555</v>
+        <v>45491.82291666666</v>
       </c>
       <c r="B11" s="2">
-        <v>45491.69444444445</v>
+        <v>45492.56944444445</v>
       </c>
       <c r="C11">
-        <v>63.19</v>
+        <v>65.67</v>
       </c>
       <c r="D11">
-        <v>64.68000000000001</v>
+        <v>65.28</v>
       </c>
       <c r="E11">
-        <v>0.02357968032916615</v>
+        <v>-0.005938784833257204</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45491.81944444445</v>
+        <v>45492.64236111111</v>
       </c>
       <c r="B12" s="2">
-        <v>45492.5625</v>
+        <v>45492.65972222222</v>
       </c>
       <c r="C12">
-        <v>65.045</v>
+        <v>63.44</v>
       </c>
       <c r="D12">
-        <v>64.7</v>
+        <v>63.94</v>
       </c>
       <c r="E12">
-        <v>-0.005304020293642845</v>
+        <v>0.007881462799495587</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45492.63888888889</v>
+        <v>45492.75347222222</v>
       </c>
       <c r="B13" s="2">
-        <v>45492.65277777778</v>
+        <v>45492.77777777778</v>
       </c>
       <c r="C13">
-        <v>64.23</v>
+        <v>62.55</v>
       </c>
       <c r="D13">
-        <v>63.36</v>
+        <v>61.86</v>
       </c>
       <c r="E13">
-        <v>-0.01354507239607667</v>
+        <v>-0.011031175059952</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -673,79 +673,79 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45492.64583333334</v>
+        <v>45496.74305555555</v>
       </c>
       <c r="B14" s="2">
-        <v>45492.65972222222</v>
+        <v>45496.78472222222</v>
       </c>
       <c r="C14">
-        <v>63.48</v>
+        <v>66.94</v>
       </c>
       <c r="D14">
-        <v>63.94</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E14">
-        <v>0.007246376811594217</v>
+        <v>-0.005975500448162406</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45492.75</v>
+        <v>45496.77083333334</v>
       </c>
       <c r="B15" s="2">
-        <v>45492.77430555555</v>
+        <v>45496.80208333334</v>
       </c>
       <c r="C15">
-        <v>62.25</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D15">
-        <v>61.92</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="E15">
-        <v>-0.005301204819277081</v>
+        <v>0.007968726507292153</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45496.76736111111</v>
+        <v>45496.8125</v>
       </c>
       <c r="B16" s="2">
-        <v>45496.78819444445</v>
+        <v>45497.56597222222</v>
       </c>
       <c r="C16">
-        <v>66.43000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D16">
-        <v>66.64</v>
+        <v>61.83</v>
       </c>
       <c r="E16">
-        <v>0.003161222339304437</v>
+        <v>-0.07702642185400801</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45496.80208333334</v>
+        <v>45497.62152777778</v>
       </c>
       <c r="B17" s="2">
-        <v>45497.5625</v>
+        <v>45497.67013888889</v>
       </c>
       <c r="C17">
-        <v>67.04000000000001</v>
+        <v>61.7</v>
       </c>
       <c r="D17">
-        <v>62.78</v>
+        <v>59.9</v>
       </c>
       <c r="E17">
-        <v>-0.06354415274463014</v>
+        <v>-0.02917341977309569</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -753,79 +753,79 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45497.61805555555</v>
+        <v>45497.73611111111</v>
       </c>
       <c r="B18" s="2">
-        <v>45497.66666666666</v>
+        <v>45497.75347222222</v>
       </c>
       <c r="C18">
-        <v>61.48</v>
+        <v>60.98</v>
       </c>
       <c r="D18">
-        <v>60</v>
+        <v>59.7</v>
       </c>
       <c r="E18">
-        <v>-0.02407286922576443</v>
+        <v>-0.0209904886848146</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45497.73263888889</v>
+        <v>45497.82638888889</v>
       </c>
       <c r="B19" s="2">
-        <v>45497.74652777778</v>
+        <v>45498.57291666666</v>
       </c>
       <c r="C19">
-        <v>60.98</v>
+        <v>57.01</v>
       </c>
       <c r="D19">
-        <v>60.01</v>
+        <v>55.23</v>
       </c>
       <c r="E19">
-        <v>-0.01590685470646112</v>
+        <v>-0.03122259252762675</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45498.74305555555</v>
+        <v>45498.74652777778</v>
       </c>
       <c r="B20" s="2">
-        <v>45498.76388888889</v>
+        <v>45498.76736111111</v>
       </c>
       <c r="C20">
-        <v>58.71</v>
+        <v>59.115</v>
       </c>
       <c r="D20">
-        <v>57.58</v>
+        <v>58.2</v>
       </c>
       <c r="E20">
-        <v>-0.01924714699369788</v>
+        <v>-0.01547830499873127</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45498.75694444445</v>
+        <v>45498.80555555555</v>
       </c>
       <c r="B21" s="2">
-        <v>45498.77430555555</v>
+        <v>45498.83333333334</v>
       </c>
       <c r="C21">
-        <v>58.31</v>
+        <v>58.065</v>
       </c>
       <c r="D21">
-        <v>57.76</v>
+        <v>55.36</v>
       </c>
       <c r="E21">
-        <v>-0.009432344366318028</v>
+        <v>-0.04658572289675361</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -833,19 +833,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45498.81597222222</v>
+        <v>45498.82291666666</v>
       </c>
       <c r="B22" s="2">
-        <v>45498.83333333334</v>
+        <v>45499.56597222222</v>
       </c>
       <c r="C22">
-        <v>57.53</v>
+        <v>56.7</v>
       </c>
       <c r="D22">
-        <v>55.36</v>
+        <v>58.79</v>
       </c>
       <c r="E22">
-        <v>-0.0377194507213628</v>
+        <v>0.03686067019400346</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -853,59 +853,59 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45499.64583333334</v>
+        <v>45499.82291666666</v>
       </c>
       <c r="B23" s="2">
-        <v>45499.67013888889</v>
+        <v>45502.57638888889</v>
       </c>
       <c r="C23">
-        <v>56.08</v>
+        <v>56.17</v>
       </c>
       <c r="D23">
-        <v>56.325</v>
+        <v>58.53</v>
       </c>
       <c r="E23">
-        <v>0.004368758915834603</v>
+        <v>0.04201531066405553</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45499.81944444445</v>
+        <v>45502.67708333334</v>
       </c>
       <c r="B24" s="2">
-        <v>45502.57291666666</v>
+        <v>45502.70138888889</v>
       </c>
       <c r="C24">
-        <v>56.17</v>
+        <v>56.69</v>
       </c>
       <c r="D24">
-        <v>59.03</v>
+        <v>56.6</v>
       </c>
       <c r="E24">
-        <v>0.05091685953355883</v>
+        <v>-0.00158758158405356</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45503.68402777778</v>
+        <v>45503.6875</v>
       </c>
       <c r="B25" s="2">
         <v>45503.71527777778</v>
       </c>
       <c r="C25">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="D25">
         <v>48</v>
       </c>
       <c r="E25">
-        <v>0.004184100418410101</v>
+        <v>0.00208768267223385</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -913,99 +913,99 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45504.57291666666</v>
+        <v>45503.71527777778</v>
       </c>
       <c r="B26" s="2">
-        <v>45504.58680555555</v>
+        <v>45503.74305555555</v>
       </c>
       <c r="C26">
-        <v>56.07</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>57.77</v>
+        <v>48.73</v>
       </c>
       <c r="E26">
-        <v>0.03031924380238992</v>
+        <v>0.01520833333333327</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45505.67361111111</v>
+        <v>45504.57638888889</v>
       </c>
       <c r="B27" s="2">
-        <v>45505.6875</v>
+        <v>45504.59375</v>
       </c>
       <c r="C27">
-        <v>55.67</v>
+        <v>56.705</v>
       </c>
       <c r="D27">
-        <v>54.07</v>
+        <v>56.87</v>
       </c>
       <c r="E27">
-        <v>-0.02874079396443329</v>
+        <v>0.002909796314257987</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45505.80208333334</v>
+        <v>45505.67708333334</v>
       </c>
       <c r="B28" s="2">
-        <v>45505.82638888889</v>
+        <v>45505.69444444445</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>54.99</v>
       </c>
       <c r="D28">
-        <v>50.05</v>
+        <v>53.66</v>
       </c>
       <c r="E28">
-        <v>0.0009999999999999432</v>
+        <v>-0.02418621567557748</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45506.57638888889</v>
+        <v>45505.76388888889</v>
       </c>
       <c r="B29" s="2">
-        <v>45506.59027777778</v>
+        <v>45505.78125</v>
       </c>
       <c r="C29">
-        <v>46.37</v>
+        <v>49.74</v>
       </c>
       <c r="D29">
-        <v>44.04</v>
+        <v>49.4</v>
       </c>
       <c r="E29">
-        <v>-0.05024800517576015</v>
+        <v>-0.006835544833132356</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45509.59375</v>
+        <v>45505.8125</v>
       </c>
       <c r="B30" s="2">
-        <v>45509.60763888889</v>
+        <v>45505.82986111111</v>
       </c>
       <c r="C30">
-        <v>42.955</v>
+        <v>50.27</v>
       </c>
       <c r="D30">
-        <v>42.97</v>
+        <v>51.32</v>
       </c>
       <c r="E30">
-        <v>0.0003492026539401832</v>
+        <v>0.02088720907101645</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -1013,159 +1013,159 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45509.60416666666</v>
+        <v>45506.57986111111</v>
       </c>
       <c r="B31" s="2">
-        <v>45509.61805555555</v>
+        <v>45506.59722222222</v>
       </c>
       <c r="C31">
-        <v>42.8</v>
+        <v>46.44</v>
       </c>
       <c r="D31">
-        <v>43.44</v>
+        <v>45.5</v>
       </c>
       <c r="E31">
-        <v>0.0149532710280374</v>
+        <v>-0.02024117140396205</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45510.86111111111</v>
+        <v>45506.61111111111</v>
       </c>
       <c r="B32" s="2">
-        <v>45511.56597222222</v>
+        <v>45506.62847222222</v>
       </c>
       <c r="C32">
-        <v>47.66</v>
+        <v>46.04</v>
       </c>
       <c r="D32">
-        <v>49.45</v>
+        <v>47.08</v>
       </c>
       <c r="E32">
-        <v>0.03755770037767533</v>
+        <v>0.02258905299739355</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45512.58680555555</v>
+        <v>45509.59722222222</v>
       </c>
       <c r="B33" s="2">
-        <v>45512.60416666666</v>
+        <v>45509.61458333334</v>
       </c>
       <c r="C33">
-        <v>43.02</v>
+        <v>41.97</v>
       </c>
       <c r="D33">
-        <v>44.11</v>
+        <v>42.42</v>
       </c>
       <c r="E33">
-        <v>0.02533705253370517</v>
+        <v>0.01072194424588999</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45513.69791666666</v>
+        <v>45509.60763888889</v>
       </c>
       <c r="B34" s="2">
-        <v>45513.71875</v>
+        <v>45509.62847222222</v>
       </c>
       <c r="C34">
-        <v>45.8</v>
+        <v>42.97</v>
       </c>
       <c r="D34">
-        <v>46.89</v>
+        <v>43.71</v>
       </c>
       <c r="E34">
-        <v>0.02379912663755466</v>
+        <v>0.01722131719804519</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45513.78819444445</v>
+        <v>45510.86458333334</v>
       </c>
       <c r="B35" s="2">
-        <v>45513.80208333334</v>
+        <v>45511.57291666666</v>
       </c>
       <c r="C35">
-        <v>46.34</v>
+        <v>46.37</v>
       </c>
       <c r="D35">
-        <v>46.45</v>
+        <v>49.48</v>
       </c>
       <c r="E35">
-        <v>0.00237375917134224</v>
+        <v>0.06706922579253827</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45516.56944444445</v>
+        <v>45512.59027777778</v>
       </c>
       <c r="B36" s="2">
-        <v>45516.58333333334</v>
+        <v>45512.60763888889</v>
       </c>
       <c r="C36">
-        <v>48.72</v>
+        <v>42.97</v>
       </c>
       <c r="D36">
-        <v>48.68</v>
+        <v>44.64</v>
       </c>
       <c r="E36">
-        <v>-0.0008210180623973553</v>
+        <v>0.03886432394693977</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45516.69097222222</v>
+        <v>45513.70138888889</v>
       </c>
       <c r="B37" s="2">
-        <v>45516.70486111111</v>
+        <v>45513.72222222222</v>
       </c>
       <c r="C37">
-        <v>51.02</v>
+        <v>45.86</v>
       </c>
       <c r="D37">
-        <v>50.3</v>
+        <v>46.71</v>
       </c>
       <c r="E37">
-        <v>-0.01411211289690329</v>
+        <v>0.01853467073702576</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45517.56597222222</v>
+        <v>45516.57291666666</v>
       </c>
       <c r="B38" s="2">
-        <v>45517.57986111111</v>
+        <v>45516.59027777778</v>
       </c>
       <c r="C38">
-        <v>52.71</v>
+        <v>48.14</v>
       </c>
       <c r="D38">
-        <v>54.41</v>
+        <v>50.93</v>
       </c>
       <c r="E38">
-        <v>0.03225194460254213</v>
+        <v>0.05795596177814705</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1173,19 +1173,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45517.70486111111</v>
+        <v>45516.69444444445</v>
       </c>
       <c r="B39" s="2">
-        <v>45517.71875</v>
+        <v>45516.72569444445</v>
       </c>
       <c r="C39">
-        <v>55.57</v>
+        <v>51.03</v>
       </c>
       <c r="D39">
-        <v>56.06</v>
+        <v>50.88</v>
       </c>
       <c r="E39">
-        <v>0.008817707396077056</v>
+        <v>-0.0029394473838918</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1193,99 +1193,99 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45518.77430555555</v>
+        <v>45517.56944444445</v>
       </c>
       <c r="B40" s="2">
-        <v>45518.78819444445</v>
+        <v>45517.58680555555</v>
       </c>
       <c r="C40">
-        <v>57.65</v>
+        <v>53.04</v>
       </c>
       <c r="D40">
-        <v>57.88</v>
+        <v>55.02</v>
       </c>
       <c r="E40">
-        <v>0.003989592367736409</v>
+        <v>0.03733031674208152</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45519.82291666666</v>
+        <v>45518.72222222222</v>
       </c>
       <c r="B41" s="2">
-        <v>45520.5625</v>
+        <v>45518.73958333334</v>
       </c>
       <c r="C41">
-        <v>62.62</v>
+        <v>57.62</v>
       </c>
       <c r="D41">
-        <v>62.85</v>
+        <v>57.53</v>
       </c>
       <c r="E41">
-        <v>0.003672947939955349</v>
+        <v>-0.001561957653592439</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45520.66319444445</v>
+        <v>45519.82638888889</v>
       </c>
       <c r="B42" s="2">
-        <v>45520.68055555555</v>
+        <v>45520.57291666666</v>
       </c>
       <c r="C42">
-        <v>63.68</v>
+        <v>62.73</v>
       </c>
       <c r="D42">
-        <v>64.20999999999999</v>
+        <v>63.3</v>
       </c>
       <c r="E42">
-        <v>0.008322864321607946</v>
+        <v>0.009086561453849838</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45523.57986111111</v>
+        <v>45523.58333333334</v>
       </c>
       <c r="B43" s="2">
-        <v>45523.59375</v>
+        <v>45523.60069444445</v>
       </c>
       <c r="C43">
-        <v>65.03</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="D43">
-        <v>64.2</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="E43">
-        <v>-0.01276333999692447</v>
+        <v>0.01509962640099625</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45524.64930555555</v>
+        <v>45524.65277777778</v>
       </c>
       <c r="B44" s="2">
-        <v>45524.66666666666</v>
+        <v>45524.67013888889</v>
       </c>
       <c r="C44">
-        <v>68.18000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="D44">
-        <v>68.41</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E44">
-        <v>0.003373423291287617</v>
+        <v>0.007660577489687835</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -1293,19 +1293,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45525.57638888889</v>
+        <v>45526.5625</v>
       </c>
       <c r="B45" s="2">
-        <v>45525.59375</v>
+        <v>45526.57986111111</v>
       </c>
       <c r="C45">
-        <v>67.79000000000001</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="D45">
-        <v>68.79000000000001</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="E45">
-        <v>0.01475143826523086</v>
+        <v>-0.002403166525303954</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1313,19 +1313,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45525.70486111111</v>
+        <v>45526.69791666666</v>
       </c>
       <c r="B46" s="2">
-        <v>45525.73263888889</v>
+        <v>45526.71527777778</v>
       </c>
       <c r="C46">
-        <v>67.90000000000001</v>
+        <v>66.25</v>
       </c>
       <c r="D46">
-        <v>68.105</v>
+        <v>65.88</v>
       </c>
       <c r="E46">
-        <v>0.003019145802650932</v>
+        <v>-0.005584905660377427</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -1333,19 +1333,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45525.84027777778</v>
+        <v>45527.56597222222</v>
       </c>
       <c r="B47" s="2">
-        <v>45526.57291666666</v>
+        <v>45527.58333333334</v>
       </c>
       <c r="C47">
-        <v>68.27</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="D47">
-        <v>70.33</v>
+        <v>68.395</v>
       </c>
       <c r="E47">
-        <v>0.03017430789512235</v>
+        <v>0.02311144353029173</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1353,19 +1353,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45527.5625</v>
+        <v>45527.57638888889</v>
       </c>
       <c r="B48" s="2">
-        <v>45527.57638888889</v>
+        <v>45527.59375</v>
       </c>
       <c r="C48">
-        <v>65.51000000000001</v>
+        <v>67</v>
       </c>
       <c r="D48">
-        <v>67</v>
+        <v>68.61</v>
       </c>
       <c r="E48">
-        <v>0.02274461914211563</v>
+        <v>0.02402985074626865</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1373,19 +1373,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45527.57291666666</v>
+        <v>45527.71875</v>
       </c>
       <c r="B49" s="2">
-        <v>45527.58680555555</v>
+        <v>45527.75</v>
       </c>
       <c r="C49">
-        <v>67.01000000000001</v>
+        <v>67.62</v>
       </c>
       <c r="D49">
-        <v>68.61</v>
+        <v>68.3</v>
       </c>
       <c r="E49">
-        <v>0.02387703327861505</v>
+        <v>0.01005619639160001</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1393,59 +1393,59 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45527.71527777778</v>
+        <v>45530.77083333334</v>
       </c>
       <c r="B50" s="2">
-        <v>45527.73958333334</v>
+        <v>45530.79861111111</v>
       </c>
       <c r="C50">
-        <v>67.23</v>
+        <v>66.23</v>
       </c>
       <c r="D50">
-        <v>68.01000000000001</v>
+        <v>66.56</v>
       </c>
       <c r="E50">
-        <v>0.01160196340919234</v>
+        <v>0.004982636267552442</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45530.64930555555</v>
+        <v>45531.81944444445</v>
       </c>
       <c r="B51" s="2">
-        <v>45530.67013888889</v>
+        <v>45532.56944444445</v>
       </c>
       <c r="C51">
-        <v>66.73999999999999</v>
+        <v>68.41</v>
       </c>
       <c r="D51">
-        <v>65.65000000000001</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="E51">
-        <v>-0.0163320347617619</v>
+        <v>-0.01388685864639677</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45530.77083333334</v>
+        <v>45532.79861111111</v>
       </c>
       <c r="B52" s="2">
-        <v>45530.79513888889</v>
+        <v>45532.81597222222</v>
       </c>
       <c r="C52">
-        <v>66.23</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="D52">
-        <v>66.40000000000001</v>
+        <v>65.89</v>
       </c>
       <c r="E52">
-        <v>0.00256681262267857</v>
+        <v>0.007030414183096342</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1453,119 +1453,119 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45531.58680555555</v>
+        <v>45533.61805555555</v>
       </c>
       <c r="B53" s="2">
-        <v>45531.60763888889</v>
+        <v>45533.63888888889</v>
       </c>
       <c r="C53">
-        <v>65.91</v>
+        <v>61.78</v>
       </c>
       <c r="D53">
-        <v>67.68000000000001</v>
+        <v>60.58</v>
       </c>
       <c r="E53">
-        <v>0.02685480200273115</v>
+        <v>-0.01942376173518943</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45531.81597222222</v>
+        <v>45533.75347222222</v>
       </c>
       <c r="B54" s="2">
-        <v>45531.82986111111</v>
+        <v>45533.77430555555</v>
       </c>
       <c r="C54">
-        <v>68.23999999999999</v>
+        <v>59.36</v>
       </c>
       <c r="D54">
-        <v>68.01000000000001</v>
+        <v>57.09</v>
       </c>
       <c r="E54">
-        <v>-0.003370457209847447</v>
+        <v>-0.03824123989218322</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45532.79513888889</v>
+        <v>45538.66319444445</v>
       </c>
       <c r="B55" s="2">
-        <v>45532.80902777778</v>
+        <v>45538.69791666666</v>
       </c>
       <c r="C55">
-        <v>65.41</v>
+        <v>49.57</v>
       </c>
       <c r="D55">
-        <v>65.8</v>
+        <v>49.99</v>
       </c>
       <c r="E55">
-        <v>0.005962391071701584</v>
+        <v>0.008472866653217706</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45533.61458333334</v>
+        <v>45538.70833333334</v>
       </c>
       <c r="B56" s="2">
-        <v>45533.64583333334</v>
+        <v>45538.74305555555</v>
       </c>
       <c r="C56">
-        <v>61.5</v>
+        <v>49.52</v>
       </c>
       <c r="D56">
-        <v>60.53</v>
+        <v>49.08</v>
       </c>
       <c r="E56">
-        <v>-0.01577235772357722</v>
+        <v>-0.008885298869143876</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45533.75694444445</v>
+        <v>45539.58680555555</v>
       </c>
       <c r="B57" s="2">
-        <v>45533.77083333334</v>
+        <v>45539.61805555555</v>
       </c>
       <c r="C57">
-        <v>59.73</v>
+        <v>46.64</v>
       </c>
       <c r="D57">
-        <v>57.7</v>
+        <v>48.31</v>
       </c>
       <c r="E57">
-        <v>-0.03398627155533223</v>
+        <v>0.03580617495711839</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45533.76736111111</v>
+        <v>45541.63888888889</v>
       </c>
       <c r="B58" s="2">
-        <v>45533.78125</v>
+        <v>45541.65625</v>
       </c>
       <c r="C58">
-        <v>58.32</v>
+        <v>42.49</v>
       </c>
       <c r="D58">
-        <v>57.15</v>
+        <v>41.77</v>
       </c>
       <c r="E58">
-        <v>-0.02006172839506176</v>
+        <v>-0.0169451635678983</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -1573,19 +1573,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45538.65972222222</v>
+        <v>45541.69097222222</v>
       </c>
       <c r="B59" s="2">
-        <v>45538.68055555555</v>
+        <v>45541.70833333334</v>
       </c>
       <c r="C59">
-        <v>49.97</v>
+        <v>42.25</v>
       </c>
       <c r="D59">
-        <v>49.4</v>
+        <v>41.98</v>
       </c>
       <c r="E59">
-        <v>-0.01140684410646388</v>
+        <v>-0.006390532544378772</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -1593,39 +1593,39 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45538.70486111111</v>
+        <v>45544.65625</v>
       </c>
       <c r="B60" s="2">
-        <v>45538.73958333334</v>
+        <v>45544.67708333334</v>
       </c>
       <c r="C60">
-        <v>49.435</v>
+        <v>44.41</v>
       </c>
       <c r="D60">
-        <v>49.04</v>
+        <v>44.8</v>
       </c>
       <c r="E60">
-        <v>-0.007990290280165938</v>
+        <v>0.008781805899572183</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45538.80555555555</v>
+        <v>45545.69444444445</v>
       </c>
       <c r="B61" s="2">
-        <v>45538.81944444445</v>
+        <v>45545.71875</v>
       </c>
       <c r="C61">
-        <v>47.78</v>
+        <v>45.4</v>
       </c>
       <c r="D61">
-        <v>47.28</v>
+        <v>45.75</v>
       </c>
       <c r="E61">
-        <v>-0.01046462955211385</v>
+        <v>0.007709251101321617</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -1633,119 +1633,119 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45539.58333333334</v>
+        <v>45545.70833333334</v>
       </c>
       <c r="B62" s="2">
-        <v>45539.59722222222</v>
+        <v>45545.72916666666</v>
       </c>
       <c r="C62">
-        <v>46.06</v>
+        <v>45.11</v>
       </c>
       <c r="D62">
-        <v>46.81</v>
+        <v>45.505</v>
       </c>
       <c r="E62">
-        <v>0.01628310898827616</v>
+        <v>0.008756373309687501</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45539.67013888889</v>
+        <v>45546.63888888889</v>
       </c>
       <c r="B63" s="2">
-        <v>45539.68402777778</v>
+        <v>45546.66319444445</v>
       </c>
       <c r="C63">
-        <v>46.96</v>
+        <v>47.85</v>
       </c>
       <c r="D63">
-        <v>47.8</v>
+        <v>49.73</v>
       </c>
       <c r="E63">
-        <v>0.01788756388415665</v>
+        <v>0.03928944618599781</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45540.68055555555</v>
+        <v>45548.59722222222</v>
       </c>
       <c r="B64" s="2">
-        <v>45540.70138888889</v>
+        <v>45548.61458333334</v>
       </c>
       <c r="C64">
-        <v>46.63</v>
+        <v>56.7</v>
       </c>
       <c r="D64">
-        <v>46.11</v>
+        <v>56.88</v>
       </c>
       <c r="E64">
-        <v>-0.01115161912931596</v>
+        <v>0.003174603174603169</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45541.6875</v>
+        <v>45548.71527777778</v>
       </c>
       <c r="B65" s="2">
-        <v>45541.70486111111</v>
+        <v>45548.73611111111</v>
       </c>
       <c r="C65">
-        <v>42.32</v>
+        <v>56.52</v>
       </c>
       <c r="D65">
-        <v>41.815</v>
+        <v>56.42</v>
       </c>
       <c r="E65">
-        <v>-0.01193289224952747</v>
+        <v>-0.00176928520877568</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45544.65277777778</v>
+        <v>45548.77083333334</v>
       </c>
       <c r="B66" s="2">
-        <v>45544.67013888889</v>
+        <v>45548.80555555555</v>
       </c>
       <c r="C66">
-        <v>44.3</v>
+        <v>56.1</v>
       </c>
       <c r="D66">
-        <v>44.53</v>
+        <v>56.48</v>
       </c>
       <c r="E66">
-        <v>0.005191873589164875</v>
+        <v>0.006773618538324339</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45548.60763888889</v>
+        <v>45551.62152777778</v>
       </c>
       <c r="B67" s="2">
-        <v>45548.625</v>
+        <v>45551.63888888889</v>
       </c>
       <c r="C67">
-        <v>56.21</v>
+        <v>54.09</v>
       </c>
       <c r="D67">
-        <v>57.07</v>
+        <v>54.55</v>
       </c>
       <c r="E67">
-        <v>0.01529976872442625</v>
+        <v>0.008504344610833679</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -1753,79 +1753,79 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45548.71180555555</v>
+        <v>45551.71875</v>
       </c>
       <c r="B68" s="2">
-        <v>45548.72569444445</v>
+        <v>45551.74305555555</v>
       </c>
       <c r="C68">
-        <v>56.68</v>
+        <v>53.94</v>
       </c>
       <c r="D68">
-        <v>56.6</v>
+        <v>54.64</v>
       </c>
       <c r="E68">
-        <v>-0.001411432604093124</v>
+        <v>0.01297738227660369</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45548.76736111111</v>
+        <v>45551.82638888889</v>
       </c>
       <c r="B69" s="2">
-        <v>45548.78125</v>
+        <v>45552.57291666666</v>
       </c>
       <c r="C69">
-        <v>56.12</v>
+        <v>54.14</v>
       </c>
       <c r="D69">
-        <v>56.35</v>
+        <v>54.53</v>
       </c>
       <c r="E69">
-        <v>0.004098360655737776</v>
+        <v>0.007203546361285566</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45551.71527777778</v>
+        <v>45552.79166666666</v>
       </c>
       <c r="B70" s="2">
-        <v>45551.73958333334</v>
+        <v>45552.81944444445</v>
       </c>
       <c r="C70">
-        <v>54.16</v>
+        <v>53.06</v>
       </c>
       <c r="D70">
-        <v>54.46</v>
+        <v>52.84</v>
       </c>
       <c r="E70">
-        <v>0.0055391432791729</v>
+        <v>-0.004146249528835259</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45551.82291666666</v>
+        <v>45554.57638888889</v>
       </c>
       <c r="B71" s="2">
-        <v>45552.56597222222</v>
+        <v>45554.59375</v>
       </c>
       <c r="C71">
-        <v>54.09</v>
+        <v>55.63</v>
       </c>
       <c r="D71">
-        <v>55.545</v>
+        <v>56.38</v>
       </c>
       <c r="E71">
-        <v>0.02689961175818078</v>
+        <v>0.01348193420816106</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -1833,39 +1833,39 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45552.78819444445</v>
+        <v>45555.56597222222</v>
       </c>
       <c r="B72" s="2">
-        <v>45552.81597222222</v>
+        <v>45555.58333333334</v>
       </c>
       <c r="C72">
-        <v>52.84</v>
+        <v>55.39</v>
       </c>
       <c r="D72">
-        <v>52.98</v>
+        <v>55.07</v>
       </c>
       <c r="E72">
-        <v>0.002649507948523722</v>
+        <v>-0.005777216103989895</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45554.57291666666</v>
+        <v>45555.66666666666</v>
       </c>
       <c r="B73" s="2">
-        <v>45554.58680555555</v>
+        <v>45555.69444444445</v>
       </c>
       <c r="C73">
-        <v>55.58</v>
+        <v>53.645</v>
       </c>
       <c r="D73">
-        <v>55.62</v>
+        <v>53.77</v>
       </c>
       <c r="E73">
-        <v>0.0007196833393306792</v>
+        <v>0.002330133283623823</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -1873,39 +1873,39 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45555.5625</v>
+        <v>45555.73958333334</v>
       </c>
       <c r="B74" s="2">
-        <v>45555.57986111111</v>
+        <v>45555.75694444445</v>
       </c>
       <c r="C74">
-        <v>55.27</v>
+        <v>53.6</v>
       </c>
       <c r="D74">
-        <v>55.06</v>
+        <v>53.14</v>
       </c>
       <c r="E74">
-        <v>-0.003799529582051761</v>
+        <v>-0.008582089552238822</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45555.66319444445</v>
+        <v>45555.78472222222</v>
       </c>
       <c r="B75" s="2">
-        <v>45555.69097222222</v>
+        <v>45555.8125</v>
       </c>
       <c r="C75">
-        <v>53.7</v>
+        <v>53.46</v>
       </c>
       <c r="D75">
-        <v>53.89</v>
+        <v>54.06</v>
       </c>
       <c r="E75">
-        <v>0.003538175046554892</v>
+        <v>0.01122334455667792</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -1913,39 +1913,39 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45555.73611111111</v>
+        <v>45558.73263888889</v>
       </c>
       <c r="B76" s="2">
-        <v>45555.75</v>
+        <v>45558.75694444445</v>
       </c>
       <c r="C76">
-        <v>53.83</v>
+        <v>52.98</v>
       </c>
       <c r="D76">
-        <v>53.2</v>
+        <v>53.33</v>
       </c>
       <c r="E76">
-        <v>-0.01170351105331591</v>
+        <v>0.006606266515666316</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45555.78125</v>
+        <v>45559.82986111111</v>
       </c>
       <c r="B77" s="2">
-        <v>45555.80902777778</v>
+        <v>45560.57638888889</v>
       </c>
       <c r="C77">
-        <v>53.22</v>
+        <v>57.86</v>
       </c>
       <c r="D77">
-        <v>54.02</v>
+        <v>60.25</v>
       </c>
       <c r="E77">
-        <v>0.01503194287861714</v>
+        <v>0.04130660214310405</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -1953,39 +1953,39 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45558.65972222222</v>
+        <v>45560.75694444445</v>
       </c>
       <c r="B78" s="2">
-        <v>45558.67361111111</v>
+        <v>45560.77777777778</v>
       </c>
       <c r="C78">
-        <v>53.52</v>
+        <v>59.92</v>
       </c>
       <c r="D78">
-        <v>53.14</v>
+        <v>60.32</v>
       </c>
       <c r="E78">
-        <v>-0.007100149476831139</v>
+        <v>0.006675567423230951</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45558.73263888889</v>
+        <v>45561.66666666666</v>
       </c>
       <c r="B79" s="2">
-        <v>45558.74652777778</v>
+        <v>45561.68402777778</v>
       </c>
       <c r="C79">
-        <v>52.98</v>
+        <v>60.93</v>
       </c>
       <c r="D79">
-        <v>53.32</v>
+        <v>60.17</v>
       </c>
       <c r="E79">
-        <v>0.006417516043790174</v>
+        <v>-0.01247333005087802</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -1993,79 +1993,79 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45559.79861111111</v>
+        <v>45561.75</v>
       </c>
       <c r="B80" s="2">
-        <v>45559.8125</v>
+        <v>45561.77083333334</v>
       </c>
       <c r="C80">
-        <v>57.86</v>
+        <v>60.15</v>
       </c>
       <c r="D80">
-        <v>57.22</v>
+        <v>60.58</v>
       </c>
       <c r="E80">
-        <v>-0.01106118216384377</v>
+        <v>0.007148794679966745</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45560.70138888889</v>
+        <v>45562.58680555555</v>
       </c>
       <c r="B81" s="2">
-        <v>45560.71527777778</v>
+        <v>45562.60416666666</v>
       </c>
       <c r="C81">
-        <v>60.29</v>
+        <v>59.01</v>
       </c>
       <c r="D81">
-        <v>59.73</v>
+        <v>57.36</v>
       </c>
       <c r="E81">
-        <v>-0.009288439210482705</v>
+        <v>-0.02796136248093541</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45561.66319444445</v>
+        <v>45562.65625</v>
       </c>
       <c r="B82" s="2">
-        <v>45561.67708333334</v>
+        <v>45562.6875</v>
       </c>
       <c r="C82">
-        <v>61.24</v>
+        <v>57.44</v>
       </c>
       <c r="D82">
-        <v>60.11</v>
+        <v>57.82</v>
       </c>
       <c r="E82">
-        <v>-0.01845199216198567</v>
+        <v>0.006615598885793917</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45561.74652777778</v>
+        <v>45562.8125</v>
       </c>
       <c r="B83" s="2">
-        <v>45561.76736111111</v>
+        <v>45562.82986111111</v>
       </c>
       <c r="C83">
-        <v>60.01</v>
+        <v>57.24</v>
       </c>
       <c r="D83">
-        <v>60.67</v>
+        <v>58.08</v>
       </c>
       <c r="E83">
-        <v>0.01099816697217137</v>
+        <v>0.0146750524109014</v>
       </c>
       <c r="F83" t="s">
         <v>7</v>
@@ -2073,119 +2073,119 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45562.58333333334</v>
+        <v>45565.64583333334</v>
       </c>
       <c r="B84" s="2">
-        <v>45562.59722222222</v>
+        <v>45565.66319444445</v>
       </c>
       <c r="C84">
-        <v>59.39</v>
+        <v>57.51</v>
       </c>
       <c r="D84">
-        <v>58.15</v>
+        <v>57.4</v>
       </c>
       <c r="E84">
-        <v>-0.02087893584778586</v>
+        <v>-0.001912710832898617</v>
       </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45562.65277777778</v>
+        <v>45565.78819444445</v>
       </c>
       <c r="B85" s="2">
-        <v>45562.68402777778</v>
+        <v>45565.82986111111</v>
       </c>
       <c r="C85">
-        <v>57.45</v>
+        <v>56.98</v>
       </c>
       <c r="D85">
-        <v>57.52</v>
+        <v>58.04</v>
       </c>
       <c r="E85">
-        <v>0.001218450826805923</v>
+        <v>0.01860301860301864</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45562.80902777778</v>
+        <v>45566.66319444445</v>
       </c>
       <c r="B86" s="2">
-        <v>45562.82638888889</v>
+        <v>45566.6875</v>
       </c>
       <c r="C86">
-        <v>57.28</v>
+        <v>53.96</v>
       </c>
       <c r="D86">
-        <v>58.27</v>
+        <v>53.96</v>
       </c>
       <c r="E86">
-        <v>0.01728351955307266</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45565.61111111111</v>
+        <v>45566.68402777778</v>
       </c>
       <c r="B87" s="2">
-        <v>45565.64930555555</v>
+        <v>45566.70138888889</v>
       </c>
       <c r="C87">
-        <v>56.6</v>
+        <v>54.55</v>
       </c>
       <c r="D87">
-        <v>57.25</v>
+        <v>54.04</v>
       </c>
       <c r="E87">
-        <v>0.0114840989399293</v>
+        <v>-0.009349220898258442</v>
       </c>
       <c r="F87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45565.64236111111</v>
+        <v>45566.71527777778</v>
       </c>
       <c r="B88" s="2">
-        <v>45565.65625</v>
+        <v>45566.73263888889</v>
       </c>
       <c r="C88">
-        <v>57.62</v>
+        <v>53.34</v>
       </c>
       <c r="D88">
-        <v>57.8</v>
+        <v>53.49</v>
       </c>
       <c r="E88">
-        <v>0.003123915307185</v>
+        <v>0.002812148481439793</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45565.78472222222</v>
+        <v>45566.75</v>
       </c>
       <c r="B89" s="2">
-        <v>45565.82638888889</v>
+        <v>45566.77083333334</v>
       </c>
       <c r="C89">
-        <v>57.1</v>
+        <v>54.29</v>
       </c>
       <c r="D89">
-        <v>57.73</v>
+        <v>54.9</v>
       </c>
       <c r="E89">
-        <v>0.01103327495621708</v>
+        <v>0.01123595505617976</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
@@ -2193,39 +2193,39 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45566.65972222222</v>
+        <v>45567.74652777778</v>
       </c>
       <c r="B90" s="2">
-        <v>45566.67361111111</v>
+        <v>45567.78472222222</v>
       </c>
       <c r="C90">
-        <v>54.29</v>
+        <v>55.31</v>
       </c>
       <c r="D90">
-        <v>54.68</v>
+        <v>55.43</v>
       </c>
       <c r="E90">
-        <v>0.007183643396573965</v>
+        <v>0.002169589585969941</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45566.67708333334</v>
+        <v>45568.65277777778</v>
       </c>
       <c r="B91" s="2">
-        <v>45566.69444444445</v>
+        <v>45568.67361111111</v>
       </c>
       <c r="C91">
-        <v>54.61</v>
+        <v>59.63</v>
       </c>
       <c r="D91">
-        <v>53.67</v>
+        <v>59.555</v>
       </c>
       <c r="E91">
-        <v>-0.01721296465848741</v>
+        <v>-0.001257756163005246</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
@@ -2233,39 +2233,39 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45566.71180555555</v>
+        <v>45568.73611111111</v>
       </c>
       <c r="B92" s="2">
-        <v>45566.72569444445</v>
+        <v>45568.76041666666</v>
       </c>
       <c r="C92">
-        <v>53.47</v>
+        <v>59.02</v>
       </c>
       <c r="D92">
-        <v>53.01</v>
+        <v>59.4</v>
       </c>
       <c r="E92">
-        <v>-0.008602954927997024</v>
+        <v>0.006438495425279489</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45566.74652777778</v>
+        <v>45568.82638888889</v>
       </c>
       <c r="B93" s="2">
-        <v>45566.76736111111</v>
+        <v>45569.57638888889</v>
       </c>
       <c r="C93">
-        <v>54.25</v>
+        <v>59.14</v>
       </c>
       <c r="D93">
-        <v>54.58</v>
+        <v>59.69</v>
       </c>
       <c r="E93">
-        <v>0.006082949308755729</v>
+        <v>0.009299966181941108</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
@@ -2273,119 +2273,119 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45567.74305555555</v>
+        <v>45573.56597222222</v>
       </c>
       <c r="B94" s="2">
-        <v>45567.78125</v>
+        <v>45573.58333333334</v>
       </c>
       <c r="C94">
-        <v>55.26</v>
+        <v>66.92</v>
       </c>
       <c r="D94">
-        <v>55.555</v>
+        <v>67.55</v>
       </c>
       <c r="E94">
-        <v>0.005338400289540386</v>
+        <v>0.009414225941422527</v>
       </c>
       <c r="F94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45568.64930555555</v>
+        <v>45573.75347222222</v>
       </c>
       <c r="B95" s="2">
-        <v>45568.67013888889</v>
+        <v>45573.77083333334</v>
       </c>
       <c r="C95">
-        <v>59.36</v>
+        <v>68.62</v>
       </c>
       <c r="D95">
-        <v>59.35</v>
+        <v>68.58</v>
       </c>
       <c r="E95">
-        <v>-0.0001684636118598048</v>
+        <v>-0.0005829204313612103</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45568.73263888889</v>
+        <v>45574.71875</v>
       </c>
       <c r="B96" s="2">
-        <v>45568.75694444445</v>
+        <v>45574.73958333334</v>
       </c>
       <c r="C96">
-        <v>59.125</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D96">
-        <v>59.36</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E96">
-        <v>0.003974630021141639</v>
+        <v>0.006030298573319765</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45568.82291666666</v>
+        <v>45575.73263888889</v>
       </c>
       <c r="B97" s="2">
-        <v>45569.57291666666</v>
+        <v>45575.75</v>
       </c>
       <c r="C97">
-        <v>59.23</v>
+        <v>71.11</v>
       </c>
       <c r="D97">
-        <v>60.41</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="E97">
-        <v>0.01992233665372277</v>
+        <v>-0.003656307129798975</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45573.5625</v>
+        <v>45580.65277777778</v>
       </c>
       <c r="B98" s="2">
-        <v>45573.57638888889</v>
+        <v>45580.67013888889</v>
       </c>
       <c r="C98">
-        <v>66.785</v>
+        <v>66.59</v>
       </c>
       <c r="D98">
-        <v>66.91</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E98">
-        <v>0.00187167777195478</v>
+        <v>-0.00360414476648159</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45573.6875</v>
+        <v>45580.68402777778</v>
       </c>
       <c r="B99" s="2">
-        <v>45573.70833333334</v>
+        <v>45580.70486111111</v>
       </c>
       <c r="C99">
-        <v>68.72</v>
+        <v>66.59</v>
       </c>
       <c r="D99">
-        <v>68.28</v>
+        <v>67.11</v>
       </c>
       <c r="E99">
-        <v>-0.006402793946449326</v>
+        <v>0.007808980327376423</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -2393,179 +2393,179 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45573.75</v>
+        <v>45583.57638888889</v>
       </c>
       <c r="B100" s="2">
-        <v>45573.76736111111</v>
+        <v>45583.60416666666</v>
       </c>
       <c r="C100">
-        <v>68.56</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D100">
-        <v>68.84</v>
+        <v>74.08</v>
       </c>
       <c r="E100">
-        <v>0.004084014002333739</v>
+        <v>-0.0002699055330633741</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45574.70138888889</v>
+        <v>45583.70138888889</v>
       </c>
       <c r="B101" s="2">
-        <v>45574.71875</v>
+        <v>45583.72222222222</v>
       </c>
       <c r="C101">
-        <v>68.13</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D101">
-        <v>67.98999999999999</v>
+        <v>74.33</v>
       </c>
       <c r="E101">
-        <v>-0.002054895053574058</v>
+        <v>0.003103913630229473</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45574.71527777778</v>
+        <v>45583.8125</v>
       </c>
       <c r="B102" s="2">
-        <v>45574.72916666666</v>
+        <v>45583.82986111111</v>
       </c>
       <c r="C102">
-        <v>68.17</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="D102">
-        <v>68.15000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="E102">
-        <v>-0.0002933841865922843</v>
+        <v>-0.001082104693629278</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45575.73263888889</v>
+        <v>45583.82291666666</v>
       </c>
       <c r="B103" s="2">
-        <v>45575.74652777778</v>
+        <v>45586.57291666666</v>
       </c>
       <c r="C103">
-        <v>71.11</v>
+        <v>73.89</v>
       </c>
       <c r="D103">
-        <v>70.79000000000001</v>
+        <v>76.98</v>
       </c>
       <c r="E103">
-        <v>-0.004500070313598554</v>
+        <v>0.0418189200162404</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45579.68055555555</v>
+        <v>45586.65972222222</v>
       </c>
       <c r="B104" s="2">
-        <v>45579.70138888889</v>
+        <v>45586.67708333334</v>
       </c>
       <c r="C104">
-        <v>74.83</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="D104">
-        <v>74.79000000000001</v>
+        <v>77.45</v>
       </c>
       <c r="E104">
-        <v>-0.0005345449685953767</v>
+        <v>0.002070125501358475</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45580.56597222222</v>
+        <v>45587.81944444445</v>
       </c>
       <c r="B105" s="2">
-        <v>45580.57986111111</v>
+        <v>45587.87152777778</v>
       </c>
       <c r="C105">
-        <v>74.11</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="D105">
-        <v>71.54000000000001</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="E105">
-        <v>-0.03467818108217505</v>
+        <v>-0.00100225507391629</v>
       </c>
       <c r="F105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45580.64930555555</v>
+        <v>45589.69444444445</v>
       </c>
       <c r="B106" s="2">
-        <v>45580.66319444445</v>
+        <v>45589.72222222222</v>
       </c>
       <c r="C106">
-        <v>67.36</v>
+        <v>75.44</v>
       </c>
       <c r="D106">
-        <v>66.41</v>
+        <v>75.25</v>
       </c>
       <c r="E106">
-        <v>-0.014103325415677</v>
+        <v>-0.002518557794273565</v>
       </c>
       <c r="F106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45580.6875</v>
+        <v>45593.59722222222</v>
       </c>
       <c r="B107" s="2">
-        <v>45580.72569444445</v>
+        <v>45593.61458333334</v>
       </c>
       <c r="C107">
-        <v>67</v>
+        <v>77.13</v>
       </c>
       <c r="D107">
-        <v>66.77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E107">
-        <v>-0.003432835820895582</v>
+        <v>0.003500583430571895</v>
       </c>
       <c r="F107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45582.73263888889</v>
+        <v>45593.69444444445</v>
       </c>
       <c r="B108" s="2">
-        <v>45582.74652777778</v>
+        <v>45593.72569444445</v>
       </c>
       <c r="C108">
-        <v>75.75</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="D108">
-        <v>75.56</v>
+        <v>76.89</v>
       </c>
       <c r="E108">
-        <v>-0.002508250825082478</v>
+        <v>0.008261211644374449</v>
       </c>
       <c r="F108" t="s">
         <v>7</v>
@@ -2573,79 +2573,79 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45582.81597222222</v>
+        <v>45594.59027777778</v>
       </c>
       <c r="B109" s="2">
-        <v>45582.82986111111</v>
+        <v>45594.60763888889</v>
       </c>
       <c r="C109">
-        <v>73.53</v>
+        <v>75.94</v>
       </c>
       <c r="D109">
-        <v>72.84999999999999</v>
+        <v>76.25</v>
       </c>
       <c r="E109">
-        <v>-0.009247926016591961</v>
+        <v>0.004082170134316596</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45583.57291666666</v>
+        <v>45594.77777777778</v>
       </c>
       <c r="B110" s="2">
-        <v>45583.59722222222</v>
+        <v>45594.79513888889</v>
       </c>
       <c r="C110">
-        <v>73.62</v>
+        <v>77.69</v>
       </c>
       <c r="D110">
-        <v>74.11</v>
+        <v>77.83</v>
       </c>
       <c r="E110">
-        <v>0.006655800054332992</v>
+        <v>0.001802033723773981</v>
       </c>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45583.66319444445</v>
+        <v>45595.62152777778</v>
       </c>
       <c r="B111" s="2">
-        <v>45583.67708333334</v>
+        <v>45595.64583333334</v>
       </c>
       <c r="C111">
-        <v>73.8</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="D111">
-        <v>73.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E111">
-        <v>-0.008130081300812931</v>
+        <v>0.01004688546550569</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45583.69791666666</v>
+        <v>45595.76736111111</v>
       </c>
       <c r="B112" s="2">
-        <v>45583.71875</v>
+        <v>45595.79513888889</v>
       </c>
       <c r="C112">
-        <v>73.94</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="D112">
-        <v>74.08</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="E112">
-        <v>0.00189342710305654</v>
+        <v>-0.005816259087904983</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
@@ -2653,59 +2653,59 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45583.80902777778</v>
+        <v>45595.83333333334</v>
       </c>
       <c r="B113" s="2">
-        <v>45583.82291666666</v>
+        <v>45596.57638888889</v>
       </c>
       <c r="C113">
-        <v>74.06999999999999</v>
+        <v>75.09</v>
       </c>
       <c r="D113">
-        <v>73.89</v>
+        <v>68.66</v>
       </c>
       <c r="E113">
-        <v>-0.002430133657351055</v>
+        <v>-0.08563057664136378</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45586.56597222222</v>
+        <v>45596.57291666666</v>
       </c>
       <c r="B114" s="2">
-        <v>45586.57986111111</v>
+        <v>45596.59027777778</v>
       </c>
       <c r="C114">
-        <v>75.92</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D114">
-        <v>77.34999999999999</v>
+        <v>69.08</v>
       </c>
       <c r="E114">
-        <v>0.01883561643835607</v>
+        <v>-0.007471264367816035</v>
       </c>
       <c r="F114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45586.65625</v>
+        <v>45596.66319444445</v>
       </c>
       <c r="B115" s="2">
-        <v>45586.67013888889</v>
+        <v>45596.71875</v>
       </c>
       <c r="C115">
-        <v>77.06</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="D115">
-        <v>77.39</v>
+        <v>68.53</v>
       </c>
       <c r="E115">
-        <v>0.004282377368284431</v>
+        <v>0.005133470225872606</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
@@ -2713,139 +2713,139 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45587.81597222222</v>
+        <v>45597.74652777778</v>
       </c>
       <c r="B116" s="2">
-        <v>45587.83333333334</v>
+        <v>45597.76736111111</v>
       </c>
       <c r="C116">
-        <v>79.81999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="D116">
-        <v>79.79000000000001</v>
+        <v>70.625</v>
       </c>
       <c r="E116">
-        <v>-0.0003758456527184531</v>
+        <v>0.004623044096728348</v>
       </c>
       <c r="F116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45588.67361111111</v>
+        <v>45597.77430555555</v>
       </c>
       <c r="B117" s="2">
-        <v>45588.6875</v>
+        <v>45597.80555555555</v>
       </c>
       <c r="C117">
-        <v>75.97</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="D117">
-        <v>75.12</v>
+        <v>70.785</v>
       </c>
       <c r="E117">
-        <v>-0.01118862708964057</v>
+        <v>0.001485568760611061</v>
       </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45589.69097222222</v>
+        <v>45601.61805555555</v>
       </c>
       <c r="B118" s="2">
-        <v>45589.71875</v>
+        <v>45601.63541666666</v>
       </c>
       <c r="C118">
-        <v>75.34</v>
+        <v>73.62</v>
       </c>
       <c r="D118">
-        <v>75.31</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="E118">
-        <v>-0.0003981948500132882</v>
+        <v>0.005704971475142647</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45590.72569444445</v>
+        <v>45601.77777777778</v>
       </c>
       <c r="B119" s="2">
-        <v>45590.73958333334</v>
+        <v>45601.79513888889</v>
       </c>
       <c r="C119">
-        <v>78.52</v>
+        <v>74.42</v>
       </c>
       <c r="D119">
-        <v>78.14</v>
+        <v>74.8</v>
       </c>
       <c r="E119">
-        <v>-0.004839531329597497</v>
+        <v>0.005106154259607571</v>
       </c>
       <c r="F119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45593.59375</v>
+        <v>45603.61805555555</v>
       </c>
       <c r="B120" s="2">
-        <v>45593.60763888889</v>
+        <v>45603.63541666666</v>
       </c>
       <c r="C120">
-        <v>77.38</v>
+        <v>83.3</v>
       </c>
       <c r="D120">
-        <v>77.01000000000001</v>
+        <v>84.59</v>
       </c>
       <c r="E120">
-        <v>-0.004781597311966792</v>
+        <v>0.01548619447779119</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45593.70486111111</v>
+        <v>45603.70138888889</v>
       </c>
       <c r="B121" s="2">
-        <v>45593.72222222222</v>
+        <v>45603.72569444445</v>
       </c>
       <c r="C121">
-        <v>76.2</v>
+        <v>83.97</v>
       </c>
       <c r="D121">
-        <v>76.86</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="E121">
-        <v>0.0086614173228346</v>
+        <v>-0.002739073478623365</v>
       </c>
       <c r="F121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45594.77430555555</v>
+        <v>45604.67361111111</v>
       </c>
       <c r="B122" s="2">
-        <v>45594.78819444445</v>
+        <v>45604.71875</v>
       </c>
       <c r="C122">
-        <v>77.59999999999999</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="D122">
-        <v>77.45999999999999</v>
+        <v>82.81</v>
       </c>
       <c r="E122">
-        <v>-0.001804123711340214</v>
+        <v>-0.002168936016387428</v>
       </c>
       <c r="F122" t="s">
         <v>7</v>
@@ -2853,19 +2853,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45595.61805555555</v>
+        <v>45604.85763888889</v>
       </c>
       <c r="B123" s="2">
-        <v>45595.63194444445</v>
+        <v>45607.61111111111</v>
       </c>
       <c r="C123">
-        <v>74.43000000000001</v>
+        <v>82.84</v>
       </c>
       <c r="D123">
-        <v>74.59999999999999</v>
+        <v>80.47499999999999</v>
       </c>
       <c r="E123">
-        <v>0.002284025258632104</v>
+        <v>-0.02854901014002908</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
@@ -2873,19 +2873,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45595.76388888889</v>
+        <v>45607.66319444445</v>
       </c>
       <c r="B124" s="2">
-        <v>45595.79166666666</v>
+        <v>45607.68055555555</v>
       </c>
       <c r="C124">
-        <v>75.84999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D124">
-        <v>75.13</v>
+        <v>81.43000000000001</v>
       </c>
       <c r="E124">
-        <v>-0.009492419248516796</v>
+        <v>-0.00208333333333318</v>
       </c>
       <c r="F124" t="s">
         <v>7</v>
@@ -2893,59 +2893,59 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45595.82986111111</v>
+        <v>45607.74652777778</v>
       </c>
       <c r="B125" s="2">
-        <v>45596.57291666666</v>
+        <v>45607.76388888889</v>
       </c>
       <c r="C125">
-        <v>74.87</v>
+        <v>80.73</v>
       </c>
       <c r="D125">
-        <v>69.59999999999999</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="E125">
-        <v>-0.07038867370108201</v>
+        <v>-0.01164375077418553</v>
       </c>
       <c r="F125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45596.56944444445</v>
+        <v>45607.75347222222</v>
       </c>
       <c r="B126" s="2">
-        <v>45596.58333333334</v>
+        <v>45607.77083333334</v>
       </c>
       <c r="C126">
-        <v>71.13</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="D126">
-        <v>68.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E126">
-        <v>-0.03978630676226625</v>
+        <v>0.0007496251874061476</v>
       </c>
       <c r="F126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45596.65972222222</v>
+        <v>45607.79513888889</v>
       </c>
       <c r="B127" s="2">
-        <v>45596.67361111111</v>
+        <v>45607.8125</v>
       </c>
       <c r="C127">
-        <v>67.45</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D127">
-        <v>68.61</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="E127">
-        <v>0.01719792438843583</v>
+        <v>0.002372034956304768</v>
       </c>
       <c r="F127" t="s">
         <v>8</v>
@@ -2953,159 +2953,159 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45597.74305555555</v>
+        <v>45607.81597222222</v>
       </c>
       <c r="B128" s="2">
-        <v>45597.76041666666</v>
+        <v>45607.83680555555</v>
       </c>
       <c r="C128">
-        <v>70.75</v>
+        <v>80.38</v>
       </c>
       <c r="D128">
-        <v>70.44</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="E128">
-        <v>-0.004381625441696145</v>
+        <v>0.004105498880318467</v>
       </c>
       <c r="F128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45597.77083333334</v>
+        <v>45608.78472222222</v>
       </c>
       <c r="B129" s="2">
-        <v>45597.80208333334</v>
+        <v>45608.80555555555</v>
       </c>
       <c r="C129">
-        <v>70.66</v>
+        <v>83.75</v>
       </c>
       <c r="D129">
-        <v>70.81</v>
+        <v>84.05</v>
       </c>
       <c r="E129">
-        <v>0.002122841777526262</v>
+        <v>0.003582089552238772</v>
       </c>
       <c r="F129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45601.61458333334</v>
+        <v>45609.61458333334</v>
       </c>
       <c r="B130" s="2">
-        <v>45601.63194444445</v>
+        <v>45609.63541666666</v>
       </c>
       <c r="C130">
-        <v>73.58</v>
+        <v>83.53</v>
       </c>
       <c r="D130">
-        <v>73.73999999999999</v>
+        <v>82.89</v>
       </c>
       <c r="E130">
-        <v>0.002174503941288347</v>
+        <v>-0.007661917873817797</v>
       </c>
       <c r="F130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45601.76736111111</v>
+        <v>45609.6875</v>
       </c>
       <c r="B131" s="2">
-        <v>45601.78125</v>
+        <v>45609.70486111111</v>
       </c>
       <c r="C131">
-        <v>74.88</v>
+        <v>82.43000000000001</v>
       </c>
       <c r="D131">
-        <v>74.3</v>
+        <v>82.11</v>
       </c>
       <c r="E131">
-        <v>-0.007745726495726473</v>
+        <v>-0.003882081766347293</v>
       </c>
       <c r="F131" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45601.77430555555</v>
+        <v>45609.71180555555</v>
       </c>
       <c r="B132" s="2">
-        <v>45601.78819444445</v>
+        <v>45609.74305555555</v>
       </c>
       <c r="C132">
-        <v>74.34999999999999</v>
+        <v>82.31</v>
       </c>
       <c r="D132">
-        <v>74.39</v>
+        <v>82.03</v>
       </c>
       <c r="E132">
-        <v>0.0005379959650303464</v>
+        <v>-0.003401773782043508</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45603.61458333334</v>
+        <v>45610.79166666666</v>
       </c>
       <c r="B133" s="2">
-        <v>45603.62847222222</v>
+        <v>45610.8125</v>
       </c>
       <c r="C133">
-        <v>83.12</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="D133">
-        <v>84.27</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E133">
-        <v>0.0138354186717997</v>
+        <v>-0.001700060716454166</v>
       </c>
       <c r="F133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45603.69791666666</v>
+        <v>45610.82986111111</v>
       </c>
       <c r="B134" s="2">
-        <v>45603.71875</v>
+        <v>45610.84722222222</v>
       </c>
       <c r="C134">
-        <v>83.91</v>
+        <v>82.27</v>
       </c>
       <c r="D134">
-        <v>83.58</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="E134">
-        <v>-0.003932785126921682</v>
+        <v>-0.01324905797982241</v>
       </c>
       <c r="F134" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45604.67013888889</v>
+        <v>45610.84027777778</v>
       </c>
       <c r="B135" s="2">
-        <v>45604.71180555555</v>
+        <v>45610.85763888889</v>
       </c>
       <c r="C135">
-        <v>82.42</v>
+        <v>81.14</v>
       </c>
       <c r="D135">
-        <v>82.87</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="E135">
-        <v>0.005459839844697923</v>
+        <v>0.0004929751047572868</v>
       </c>
       <c r="F135" t="s">
         <v>8</v>
@@ -3113,139 +3113,139 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45604.85763888889</v>
+        <v>45611.67361111111</v>
       </c>
       <c r="B136" s="2">
-        <v>45607.60763888889</v>
+        <v>45611.70486111111</v>
       </c>
       <c r="C136">
-        <v>82.84</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="D136">
-        <v>82.095</v>
+        <v>76</v>
       </c>
       <c r="E136">
-        <v>-0.008993239980685713</v>
+        <v>-0.02301066975189621</v>
       </c>
       <c r="F136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45607.74305555555</v>
+        <v>45611.74305555555</v>
       </c>
       <c r="B137" s="2">
-        <v>45607.76041666666</v>
+        <v>45611.76736111111</v>
       </c>
       <c r="C137">
-        <v>80.84999999999999</v>
+        <v>76.03</v>
       </c>
       <c r="D137">
-        <v>80.06</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="E137">
-        <v>-0.009771181199752531</v>
+        <v>-0.004998027094567874</v>
       </c>
       <c r="F137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45607.79166666666</v>
+        <v>45614.65277777778</v>
       </c>
       <c r="B138" s="2">
-        <v>45607.80902777778</v>
+        <v>45614.67013888889</v>
       </c>
       <c r="C138">
-        <v>79.90000000000001</v>
+        <v>74.68000000000001</v>
       </c>
       <c r="D138">
-        <v>79.89</v>
+        <v>74.53</v>
       </c>
       <c r="E138">
-        <v>-0.0001251564455570102</v>
+        <v>-0.002008569898232534</v>
       </c>
       <c r="F138" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45607.8125</v>
+        <v>45616.78125</v>
       </c>
       <c r="B139" s="2">
-        <v>45607.83333333334</v>
+        <v>45616.79861111111</v>
       </c>
       <c r="C139">
-        <v>80.29000000000001</v>
+        <v>78.69</v>
       </c>
       <c r="D139">
-        <v>80.41</v>
+        <v>78.45</v>
       </c>
       <c r="E139">
-        <v>0.00149458213974331</v>
+        <v>-0.00304994281357218</v>
       </c>
       <c r="F139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45608.78125</v>
+        <v>45617.67013888889</v>
       </c>
       <c r="B140" s="2">
-        <v>45608.79513888889</v>
+        <v>45617.69097222222</v>
       </c>
       <c r="C140">
-        <v>83.63</v>
+        <v>78.25</v>
       </c>
       <c r="D140">
-        <v>83.47</v>
+        <v>79.25</v>
       </c>
       <c r="E140">
-        <v>-0.001913189046992665</v>
+        <v>0.01277955271565495</v>
       </c>
       <c r="F140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45609.61111111111</v>
+        <v>45617.68055555555</v>
       </c>
       <c r="B141" s="2">
-        <v>45609.625</v>
+        <v>45617.69791666666</v>
       </c>
       <c r="C141">
-        <v>84.01000000000001</v>
+        <v>78.06999999999999</v>
       </c>
       <c r="D141">
-        <v>82.88</v>
+        <v>78.61</v>
       </c>
       <c r="E141">
-        <v>-0.01345077966908713</v>
+        <v>0.006916869476111263</v>
       </c>
       <c r="F141" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45609.68402777778</v>
+        <v>45618.70486111111</v>
       </c>
       <c r="B142" s="2">
-        <v>45609.70138888889</v>
+        <v>45618.73263888889</v>
       </c>
       <c r="C142">
-        <v>82.73</v>
+        <v>76.48</v>
       </c>
       <c r="D142">
-        <v>82.23</v>
+        <v>76.08</v>
       </c>
       <c r="E142">
-        <v>-0.006043756799226399</v>
+        <v>-0.005230125523012627</v>
       </c>
       <c r="F142" t="s">
         <v>6</v>
@@ -3253,219 +3253,219 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45609.70833333334</v>
+        <v>45618.82291666666</v>
       </c>
       <c r="B143" s="2">
-        <v>45609.73958333334</v>
+        <v>45618.84722222222</v>
       </c>
       <c r="C143">
-        <v>82.06</v>
+        <v>76.22</v>
       </c>
       <c r="D143">
-        <v>81.86</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="E143">
-        <v>-0.002437241043139201</v>
+        <v>-0.001967987404880683</v>
       </c>
       <c r="F143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45610.83680555555</v>
+        <v>45621.61458333334</v>
       </c>
       <c r="B144" s="2">
-        <v>45610.85069444445</v>
+        <v>45621.63194444445</v>
       </c>
       <c r="C144">
-        <v>81.45999999999999</v>
+        <v>72.31</v>
       </c>
       <c r="D144">
-        <v>81.54000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="E144">
-        <v>0.0009820770930519581</v>
+        <v>-0.0250311160282119</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45611.67013888889</v>
+        <v>45621.76041666666</v>
       </c>
       <c r="B145" s="2">
-        <v>45611.69097222222</v>
+        <v>45621.77777777778</v>
       </c>
       <c r="C145">
-        <v>77.95999999999999</v>
+        <v>71.59</v>
       </c>
       <c r="D145">
-        <v>77.26000000000001</v>
+        <v>70.48</v>
       </c>
       <c r="E145">
-        <v>-0.008978963571061939</v>
+        <v>-0.01550495879312752</v>
       </c>
       <c r="F145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45611.69444444445</v>
+        <v>45621.82986111111</v>
       </c>
       <c r="B146" s="2">
-        <v>45611.70833333334</v>
+        <v>45621.84722222222</v>
       </c>
       <c r="C146">
-        <v>76.93000000000001</v>
+        <v>70.66</v>
       </c>
       <c r="D146">
-        <v>75.93000000000001</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="E146">
-        <v>-0.01299883010529052</v>
+        <v>-0.002830455703368283</v>
       </c>
       <c r="F146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45611.75</v>
+        <v>45622.61805555555</v>
       </c>
       <c r="B147" s="2">
-        <v>45611.76388888889</v>
+        <v>45622.63541666666</v>
       </c>
       <c r="C147">
-        <v>76.39</v>
+        <v>70.69</v>
       </c>
       <c r="D147">
-        <v>75.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E147">
-        <v>-0.0142688833616966</v>
+        <v>-0.008346300749752488</v>
       </c>
       <c r="F147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45611.75694444445</v>
+        <v>45622.84375</v>
       </c>
       <c r="B148" s="2">
-        <v>45611.77083333334</v>
+        <v>45622.86805555555</v>
       </c>
       <c r="C148">
-        <v>75.52</v>
+        <v>70.36</v>
       </c>
       <c r="D148">
-        <v>75.65000000000001</v>
+        <v>70.61</v>
       </c>
       <c r="E148">
-        <v>0.001721398305084874</v>
+        <v>0.003553155201819216</v>
       </c>
       <c r="F148" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45614.65972222222</v>
+        <v>45623.68402777778</v>
       </c>
       <c r="B149" s="2">
-        <v>45614.67361111111</v>
+        <v>45623.72569444445</v>
       </c>
       <c r="C149">
-        <v>74.59999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D149">
-        <v>74.65000000000001</v>
+        <v>66.14</v>
       </c>
       <c r="E149">
-        <v>0.0006702412868634232</v>
+        <v>0.008231707317073267</v>
       </c>
       <c r="F149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45614.76736111111</v>
+        <v>45628.6875</v>
       </c>
       <c r="B150" s="2">
-        <v>45614.78819444445</v>
+        <v>45628.71180555555</v>
       </c>
       <c r="C150">
-        <v>74.34999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="D150">
-        <v>74.77</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="E150">
-        <v>0.005648957632817777</v>
+        <v>0.009114763154260415</v>
       </c>
       <c r="F150" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45616.77777777778</v>
+        <v>45628.82638888889</v>
       </c>
       <c r="B151" s="2">
-        <v>45616.79166666666</v>
+        <v>45628.85763888889</v>
       </c>
       <c r="C151">
-        <v>78.76000000000001</v>
+        <v>71.91</v>
       </c>
       <c r="D151">
-        <v>78.90000000000001</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="E151">
-        <v>0.001777552056881673</v>
+        <v>0.004171881518564833</v>
       </c>
       <c r="F151" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45617.66666666666</v>
+        <v>45629.68402777778</v>
       </c>
       <c r="B152" s="2">
-        <v>45617.6875</v>
+        <v>45629.70486111111</v>
       </c>
       <c r="C152">
-        <v>78.41</v>
+        <v>72.78</v>
       </c>
       <c r="D152">
-        <v>79.87</v>
+        <v>72.23</v>
       </c>
       <c r="E152">
-        <v>0.01862007397015697</v>
+        <v>-0.007557021159659208</v>
       </c>
       <c r="F152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45618.6875</v>
+        <v>45635.67361111111</v>
       </c>
       <c r="B153" s="2">
-        <v>45618.70486111111</v>
+        <v>45635.70138888889</v>
       </c>
       <c r="C153">
-        <v>76.09999999999999</v>
+        <v>70.45</v>
       </c>
       <c r="D153">
-        <v>76.48</v>
+        <v>71.33</v>
       </c>
       <c r="E153">
-        <v>0.004993429697766225</v>
+        <v>0.01249112845990057</v>
       </c>
       <c r="F153" t="s">
         <v>9</v>
@@ -3473,119 +3473,119 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45618.70138888889</v>
+        <v>45635.70486111111</v>
       </c>
       <c r="B154" s="2">
-        <v>45618.76041666666</v>
+        <v>45635.75694444445</v>
       </c>
       <c r="C154">
-        <v>76.31999999999999</v>
+        <v>71.64</v>
       </c>
       <c r="D154">
-        <v>76.3</v>
+        <v>72.52</v>
       </c>
       <c r="E154">
-        <v>-0.0002620545073374741</v>
+        <v>0.01228364042434388</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45621.61111111111</v>
+        <v>45636.61111111111</v>
       </c>
       <c r="B155" s="2">
-        <v>45621.625</v>
+        <v>45636.62847222222</v>
       </c>
       <c r="C155">
-        <v>73.06999999999999</v>
+        <v>74.55</v>
       </c>
       <c r="D155">
-        <v>71.89</v>
+        <v>74.36</v>
       </c>
       <c r="E155">
-        <v>-0.01614889831668253</v>
+        <v>-0.002548625083836321</v>
       </c>
       <c r="F155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45621.75694444445</v>
+        <v>45636.75347222222</v>
       </c>
       <c r="B156" s="2">
-        <v>45621.77430555555</v>
+        <v>45636.77777777778</v>
       </c>
       <c r="C156">
-        <v>71.67</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="D156">
-        <v>70.86</v>
+        <v>69.38</v>
       </c>
       <c r="E156">
-        <v>-0.011301799916283</v>
+        <v>-0.001151742009789783</v>
       </c>
       <c r="F156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45621.82638888889</v>
+        <v>45636.8125</v>
       </c>
       <c r="B157" s="2">
-        <v>45621.84027777778</v>
+        <v>45636.82986111111</v>
       </c>
       <c r="C157">
-        <v>70.95999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D157">
-        <v>70.38</v>
+        <v>67.98</v>
       </c>
       <c r="E157">
-        <v>-0.008173618940248003</v>
+        <v>-0.01048034934497815</v>
       </c>
       <c r="F157" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45622.60416666666</v>
+        <v>45637.60416666666</v>
       </c>
       <c r="B158" s="2">
-        <v>45622.61805555555</v>
+        <v>45637.62152777778</v>
       </c>
       <c r="C158">
-        <v>72.41</v>
+        <v>68.97</v>
       </c>
       <c r="D158">
-        <v>70.69</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E158">
-        <v>-0.02375362518989088</v>
+        <v>0.02073365231259978</v>
       </c>
       <c r="F158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45622.61458333334</v>
+        <v>45638.67013888889</v>
       </c>
       <c r="B159" s="2">
-        <v>45622.62847222222</v>
+        <v>45638.69444444445</v>
       </c>
       <c r="C159">
-        <v>71.51000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="D159">
-        <v>70.84</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="E159">
-        <v>-0.009369318976366964</v>
+        <v>-0.01053380782918142</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -3593,99 +3593,99 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45622.84027777778</v>
+        <v>45639.61111111111</v>
       </c>
       <c r="B160" s="2">
-        <v>45622.86458333334</v>
+        <v>45639.63194444445</v>
       </c>
       <c r="C160">
-        <v>70.28</v>
+        <v>70.98</v>
       </c>
       <c r="D160">
-        <v>70.55</v>
+        <v>71.16</v>
       </c>
       <c r="E160">
-        <v>0.003841775754126295</v>
+        <v>0.002535925612848585</v>
       </c>
       <c r="F160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45623.6875</v>
+        <v>45639.84722222222</v>
       </c>
       <c r="B161" s="2">
-        <v>45623.71875</v>
+        <v>45642.60416666666</v>
       </c>
       <c r="C161">
-        <v>66.01000000000001</v>
+        <v>66.53</v>
       </c>
       <c r="D161">
-        <v>65.84999999999999</v>
+        <v>65.33</v>
       </c>
       <c r="E161">
-        <v>-0.002423875170428887</v>
+        <v>-0.01803697580039084</v>
       </c>
       <c r="F161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45623.72916666666</v>
+        <v>45642.63194444445</v>
       </c>
       <c r="B162" s="2">
-        <v>45623.75694444445</v>
+        <v>45642.64930555555</v>
       </c>
       <c r="C162">
-        <v>65.89</v>
+        <v>63.945</v>
       </c>
       <c r="D162">
-        <v>66.94</v>
+        <v>65.09</v>
       </c>
       <c r="E162">
-        <v>0.01593565032630137</v>
+        <v>0.01790601297990465</v>
       </c>
       <c r="F162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45625.70833333334</v>
+        <v>45642.65625</v>
       </c>
       <c r="B163" s="2">
-        <v>45625.72222222222</v>
+        <v>45642.6875</v>
       </c>
       <c r="C163">
-        <v>72.56</v>
+        <v>64.52</v>
       </c>
       <c r="D163">
-        <v>72.68000000000001</v>
+        <v>63.66</v>
       </c>
       <c r="E163">
-        <v>0.001653803748621893</v>
+        <v>-0.01332920024798511</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45628.61458333334</v>
+        <v>45642.72222222222</v>
       </c>
       <c r="B164" s="2">
-        <v>45628.62847222222</v>
+        <v>45642.76736111111</v>
       </c>
       <c r="C164">
-        <v>73.86</v>
+        <v>63.72</v>
       </c>
       <c r="D164">
-        <v>73.55</v>
+        <v>64.17</v>
       </c>
       <c r="E164">
-        <v>-0.004197129704847038</v>
+        <v>0.007062146892655412</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
@@ -3693,59 +3693,59 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45628.68402777778</v>
+        <v>45643.87152777778</v>
       </c>
       <c r="B165" s="2">
-        <v>45628.69791666666</v>
+        <v>45644.61805555555</v>
       </c>
       <c r="C165">
-        <v>72.56</v>
+        <v>63.1</v>
       </c>
       <c r="D165">
-        <v>73.09</v>
+        <v>67.2</v>
       </c>
       <c r="E165">
-        <v>0.007304299889746432</v>
+        <v>0.06497622820919179</v>
       </c>
       <c r="F165" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45628.70138888889</v>
+        <v>45645.61458333334</v>
       </c>
       <c r="B166" s="2">
-        <v>45628.71527777778</v>
+        <v>45645.63194444445</v>
       </c>
       <c r="C166">
-        <v>72.95</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="D166">
-        <v>73.06</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="E166">
-        <v>0.001507882111034948</v>
+        <v>0.007319732128952081</v>
       </c>
       <c r="F166" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45628.79513888889</v>
+        <v>45645.86111111111</v>
       </c>
       <c r="B167" s="2">
-        <v>45628.80902777778</v>
+        <v>45646.57638888889</v>
       </c>
       <c r="C167">
-        <v>71.91</v>
+        <v>64.08</v>
       </c>
       <c r="D167">
-        <v>71.7</v>
+        <v>62.79</v>
       </c>
       <c r="E167">
-        <v>-0.002920317062995324</v>
+        <v>-0.02013108614232208</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -3753,99 +3753,99 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45628.82291666666</v>
+        <v>45646.80555555555</v>
       </c>
       <c r="B168" s="2">
-        <v>45628.85416666666</v>
+        <v>45646.83680555555</v>
       </c>
       <c r="C168">
-        <v>71.69</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="D168">
-        <v>72.36</v>
+        <v>66.78</v>
       </c>
       <c r="E168">
-        <v>0.009345794392523388</v>
+        <v>-0.007136485280999166</v>
       </c>
       <c r="F168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45629.68055555555</v>
+        <v>45652.61805555555</v>
       </c>
       <c r="B169" s="2">
-        <v>45629.70138888889</v>
+        <v>45652.63541666666</v>
       </c>
       <c r="C169">
-        <v>72.56</v>
+        <v>70.86</v>
       </c>
       <c r="D169">
-        <v>72.59999999999999</v>
+        <v>70.19</v>
       </c>
       <c r="E169">
-        <v>0.000551267916207167</v>
+        <v>-0.009455263900649191</v>
       </c>
       <c r="F169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45632.75</v>
+        <v>45652.83680555555</v>
       </c>
       <c r="B170" s="2">
-        <v>45632.83680555555</v>
+        <v>45652.85416666666</v>
       </c>
       <c r="C170">
-        <v>75.88</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D170">
-        <v>75.69</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="E170">
-        <v>-0.002503953610964651</v>
+        <v>-0.0008264462809915712</v>
       </c>
       <c r="F170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45635.67013888889</v>
+        <v>45653.67013888889</v>
       </c>
       <c r="B171" s="2">
-        <v>45635.68402777778</v>
+        <v>45653.69444444445</v>
       </c>
       <c r="C171">
-        <v>70.90000000000001</v>
+        <v>68.16</v>
       </c>
       <c r="D171">
-        <v>71.26000000000001</v>
+        <v>68.48</v>
       </c>
       <c r="E171">
-        <v>0.005077574047954858</v>
+        <v>0.004694835680751282</v>
       </c>
       <c r="F171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45636.60763888889</v>
+        <v>45653.68402777778</v>
       </c>
       <c r="B172" s="2">
-        <v>45636.62152777778</v>
+        <v>45653.70138888889</v>
       </c>
       <c r="C172">
-        <v>72.73999999999999</v>
+        <v>69.11</v>
       </c>
       <c r="D172">
-        <v>74.22</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E172">
-        <v>0.02034643937310976</v>
+        <v>-0.01027347706554759</v>
       </c>
       <c r="F172" t="s">
         <v>7</v>
@@ -3853,19 +3853,19 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45636.75</v>
+        <v>45657.72916666666</v>
       </c>
       <c r="B173" s="2">
-        <v>45636.77083333334</v>
+        <v>45657.74652777778</v>
       </c>
       <c r="C173">
-        <v>69.61</v>
+        <v>67.05</v>
       </c>
       <c r="D173">
-        <v>69.70999999999999</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E173">
-        <v>0.001436575204711885</v>
+        <v>0.006562266964951495</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -3873,79 +3873,79 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45636.80208333334</v>
+        <v>45657.75694444445</v>
       </c>
       <c r="B174" s="2">
-        <v>45636.82291666666</v>
+        <v>45657.78125</v>
       </c>
       <c r="C174">
-        <v>68.93000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="D174">
-        <v>68.7</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E174">
-        <v>-0.003336718409981198</v>
+        <v>-0.01747371538575458</v>
       </c>
       <c r="F174" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45636.87152777778</v>
+        <v>45663.85763888889</v>
       </c>
       <c r="B175" s="2">
-        <v>45637.61458333334</v>
+        <v>45664.60416666666</v>
       </c>
       <c r="C175">
-        <v>68.05</v>
+        <v>82.61</v>
       </c>
       <c r="D175">
-        <v>70.66500000000001</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="E175">
-        <v>0.03842762674504055</v>
+        <v>0.005205180970826859</v>
       </c>
       <c r="F175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45637.61458333334</v>
+        <v>45664.61111111111</v>
       </c>
       <c r="B176" s="2">
-        <v>45637.62847222222</v>
+        <v>45664.63194444445</v>
       </c>
       <c r="C176">
-        <v>70.66500000000001</v>
+        <v>82.5</v>
       </c>
       <c r="D176">
-        <v>69.98999999999999</v>
+        <v>77.435</v>
       </c>
       <c r="E176">
-        <v>-0.00955211207811521</v>
+        <v>-0.06139393939393937</v>
       </c>
       <c r="F176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45638.66666666666</v>
+        <v>45665.69097222222</v>
       </c>
       <c r="B177" s="2">
-        <v>45638.69097222222</v>
+        <v>45665.72569444445</v>
       </c>
       <c r="C177">
-        <v>70.3</v>
+        <v>72.11</v>
       </c>
       <c r="D177">
-        <v>69.43000000000001</v>
+        <v>70</v>
       </c>
       <c r="E177">
-        <v>-0.01237553342816487</v>
+        <v>-0.02926085147691027</v>
       </c>
       <c r="F177" t="s">
         <v>6</v>
@@ -3953,39 +3953,39 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45638.74305555555</v>
+        <v>45667.67361111111</v>
       </c>
       <c r="B178" s="2">
-        <v>45638.75694444445</v>
+        <v>45667.71527777778</v>
       </c>
       <c r="C178">
-        <v>70.76000000000001</v>
+        <v>66.44</v>
       </c>
       <c r="D178">
-        <v>71.36</v>
+        <v>66.7</v>
       </c>
       <c r="E178">
-        <v>0.008479366873939999</v>
+        <v>0.003913305237808626</v>
       </c>
       <c r="F178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45639.60763888889</v>
+        <v>45671.85763888889</v>
       </c>
       <c r="B179" s="2">
-        <v>45639.62152777778</v>
+        <v>45672.61458333334</v>
       </c>
       <c r="C179">
-        <v>70.825</v>
+        <v>61.88</v>
       </c>
       <c r="D179">
-        <v>71.78</v>
+        <v>64.7</v>
       </c>
       <c r="E179">
-        <v>0.01348393928697491</v>
+        <v>0.04557207498383969</v>
       </c>
       <c r="F179" t="s">
         <v>9</v>
@@ -3993,239 +3993,239 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45639.72569444445</v>
+        <v>45672.60763888889</v>
       </c>
       <c r="B180" s="2">
-        <v>45639.74305555555</v>
+        <v>45672.625</v>
       </c>
       <c r="C180">
-        <v>66.25</v>
+        <v>62.93</v>
       </c>
       <c r="D180">
-        <v>66.34</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="E180">
-        <v>0.001358490566037787</v>
+        <v>0.03623073255998719</v>
       </c>
       <c r="F180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45639.75</v>
+        <v>45673.74652777778</v>
       </c>
       <c r="B181" s="2">
-        <v>45639.77777777778</v>
+        <v>45673.77083333334</v>
       </c>
       <c r="C181">
-        <v>66.63</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="D181">
-        <v>67.15000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="E181">
-        <v>0.007804292360798593</v>
+        <v>-0.01393095093882498</v>
       </c>
       <c r="F181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45639.84375</v>
+        <v>45673.80208333334</v>
       </c>
       <c r="B182" s="2">
-        <v>45639.85763888889</v>
+        <v>45673.83333333334</v>
       </c>
       <c r="C182">
-        <v>66.8</v>
+        <v>66.16</v>
       </c>
       <c r="D182">
-        <v>66.92</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E182">
-        <v>0.001796407185628811</v>
+        <v>0.006650544135429228</v>
       </c>
       <c r="F182" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45642.65277777778</v>
+        <v>45674.61458333334</v>
       </c>
       <c r="B183" s="2">
-        <v>45642.68402777778</v>
+        <v>45674.63194444445</v>
       </c>
       <c r="C183">
-        <v>64.78</v>
+        <v>67.23</v>
       </c>
       <c r="D183">
-        <v>63.84</v>
+        <v>68.28</v>
       </c>
       <c r="E183">
-        <v>-0.01451065143562824</v>
+        <v>0.01561802766622039</v>
       </c>
       <c r="F183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45642.6875</v>
+        <v>45679.61805555555</v>
       </c>
       <c r="B184" s="2">
-        <v>45642.70138888889</v>
+        <v>45679.63541666666</v>
       </c>
       <c r="C184">
-        <v>63.66</v>
+        <v>78.11</v>
       </c>
       <c r="D184">
-        <v>64.04000000000001</v>
+        <v>77</v>
       </c>
       <c r="E184">
-        <v>0.005969211435752587</v>
+        <v>-0.01421072845986429</v>
       </c>
       <c r="F184" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45642.71875</v>
+        <v>45684.65625</v>
       </c>
       <c r="B185" s="2">
-        <v>45642.76388888889</v>
+        <v>45684.67361111111</v>
       </c>
       <c r="C185">
-        <v>63.76</v>
+        <v>54.23</v>
       </c>
       <c r="D185">
-        <v>64.345</v>
+        <v>51.6</v>
       </c>
       <c r="E185">
-        <v>0.00917503136762862</v>
+        <v>-0.04849714180342975</v>
       </c>
       <c r="F185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45643.86805555555</v>
+        <v>45686.69791666666</v>
       </c>
       <c r="B186" s="2">
-        <v>45644.61111111111</v>
+        <v>45686.71527777778</v>
       </c>
       <c r="C186">
-        <v>62.43</v>
+        <v>51.29</v>
       </c>
       <c r="D186">
-        <v>67.91</v>
+        <v>51.75</v>
       </c>
       <c r="E186">
-        <v>0.08777831170911415</v>
+        <v>0.008968609865470869</v>
       </c>
       <c r="F186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45645.61111111111</v>
+        <v>45686.72222222222</v>
       </c>
       <c r="B187" s="2">
-        <v>45645.63888888889</v>
+        <v>45686.75347222222</v>
       </c>
       <c r="C187">
-        <v>63.71</v>
+        <v>51.64</v>
       </c>
       <c r="D187">
-        <v>63.7</v>
+        <v>50.68</v>
       </c>
       <c r="E187">
-        <v>-0.0001569612305760165</v>
+        <v>-0.01859024012393495</v>
       </c>
       <c r="F187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45645.85763888889</v>
+        <v>45687.67013888889</v>
       </c>
       <c r="B188" s="2">
-        <v>45646.54513888889</v>
+        <v>45687.6875</v>
       </c>
       <c r="C188">
-        <v>64.01000000000001</v>
+        <v>47.69</v>
       </c>
       <c r="D188">
-        <v>60.28</v>
+        <v>47.9</v>
       </c>
       <c r="E188">
-        <v>-0.05827214497734735</v>
+        <v>0.004403438876074667</v>
       </c>
       <c r="F188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45645.87152777778</v>
+        <v>45687.69444444445</v>
       </c>
       <c r="B189" s="2">
-        <v>45646.60416666666</v>
+        <v>45687.71527777778</v>
       </c>
       <c r="C189">
-        <v>63.43</v>
+        <v>48.56</v>
       </c>
       <c r="D189">
-        <v>61.35</v>
+        <v>48.99</v>
       </c>
       <c r="E189">
-        <v>-0.03279205423301274</v>
+        <v>0.008855024711696864</v>
       </c>
       <c r="F189" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45646.61805555555</v>
+        <v>45687.70486111111</v>
       </c>
       <c r="B190" s="2">
-        <v>45646.63541666666</v>
+        <v>45687.72222222222</v>
       </c>
       <c r="C190">
-        <v>61.93</v>
+        <v>49.76</v>
       </c>
       <c r="D190">
-        <v>63.75</v>
+        <v>48.77</v>
       </c>
       <c r="E190">
-        <v>0.02938801873082513</v>
+        <v>-0.01989549839228286</v>
       </c>
       <c r="F190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45646.63194444445</v>
+        <v>45687.77083333334</v>
       </c>
       <c r="B191" s="2">
-        <v>45646.65277777778</v>
+        <v>45687.79166666666</v>
       </c>
       <c r="C191">
-        <v>63.87</v>
+        <v>48.72</v>
       </c>
       <c r="D191">
-        <v>65.48</v>
+        <v>49.65</v>
       </c>
       <c r="E191">
-        <v>0.02520745263817139</v>
+        <v>0.01908866995073891</v>
       </c>
       <c r="F191" t="s">
         <v>8</v>
@@ -4233,399 +4233,399 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45649.61111111111</v>
+        <v>45691.72916666666</v>
       </c>
       <c r="B192" s="2">
-        <v>45649.625</v>
+        <v>45691.74652777778</v>
       </c>
       <c r="C192">
-        <v>69.08</v>
+        <v>45.6</v>
       </c>
       <c r="D192">
-        <v>69.65000000000001</v>
+        <v>46.015</v>
       </c>
       <c r="E192">
-        <v>0.008251302837290206</v>
+        <v>0.009100877192982438</v>
       </c>
       <c r="F192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45652.61458333334</v>
+        <v>45691.75694444445</v>
       </c>
       <c r="B193" s="2">
-        <v>45652.62847222222</v>
+        <v>45691.77777777778</v>
       </c>
       <c r="C193">
-        <v>71.78</v>
+        <v>45.53</v>
       </c>
       <c r="D193">
-        <v>70.95</v>
+        <v>45.87</v>
       </c>
       <c r="E193">
-        <v>-0.01156310950125381</v>
+        <v>0.007467603777728889</v>
       </c>
       <c r="F193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2">
-        <v>45652.83333333334</v>
+        <v>45691.78125</v>
       </c>
       <c r="B194" s="2">
-        <v>45652.85069444445</v>
+        <v>45691.79861111111</v>
       </c>
       <c r="C194">
-        <v>72.58</v>
+        <v>46.33</v>
       </c>
       <c r="D194">
-        <v>72.56</v>
+        <v>47.45</v>
       </c>
       <c r="E194">
-        <v>-0.0002755580049599893</v>
+        <v>0.02417440103604586</v>
       </c>
       <c r="F194" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2">
-        <v>45653.66666666666</v>
+        <v>45692.89930555555</v>
       </c>
       <c r="B195" s="2">
-        <v>45653.69097222222</v>
+        <v>45693.57638888889</v>
       </c>
       <c r="C195">
-        <v>67.87</v>
+        <v>47.95</v>
       </c>
       <c r="D195">
-        <v>68.86</v>
+        <v>49.37</v>
       </c>
       <c r="E195">
-        <v>0.01458670988654774</v>
+        <v>0.02961418143899884</v>
       </c>
       <c r="F195" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2">
-        <v>45653.75694444445</v>
+        <v>45695.83680555555</v>
       </c>
       <c r="B196" s="2">
-        <v>45653.77083333334</v>
+        <v>45695.85416666666</v>
       </c>
       <c r="C196">
-        <v>68.73</v>
+        <v>55.71</v>
       </c>
       <c r="D196">
-        <v>68.19</v>
+        <v>56.26</v>
       </c>
       <c r="E196">
-        <v>-0.007856831078131911</v>
+        <v>0.009872554299048594</v>
       </c>
       <c r="F196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2">
-        <v>45657.72569444445</v>
+        <v>45700.57291666666</v>
       </c>
       <c r="B197" s="2">
-        <v>45657.73958333334</v>
+        <v>45700.61111111111</v>
       </c>
       <c r="C197">
-        <v>67.3</v>
+        <v>58.19</v>
       </c>
       <c r="D197">
-        <v>66.55</v>
+        <v>58.67</v>
       </c>
       <c r="E197">
-        <v>-0.01114413075780089</v>
+        <v>0.008248840006874102</v>
       </c>
       <c r="F197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2">
-        <v>45657.75347222222</v>
+        <v>45700.62847222222</v>
       </c>
       <c r="B198" s="2">
-        <v>45657.77777777778</v>
+        <v>45700.64583333334</v>
       </c>
       <c r="C198">
-        <v>67.68000000000001</v>
+        <v>57.63</v>
       </c>
       <c r="D198">
-        <v>66.41</v>
+        <v>58.29</v>
       </c>
       <c r="E198">
-        <v>-0.01876477541371173</v>
+        <v>0.01145236855804263</v>
       </c>
       <c r="F198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="2">
-        <v>45663.85416666666</v>
+        <v>45700.65277777778</v>
       </c>
       <c r="B199" s="2">
-        <v>45663.86805555555</v>
+        <v>45700.67013888889</v>
       </c>
       <c r="C199">
-        <v>82.88</v>
+        <v>58.31</v>
       </c>
       <c r="D199">
-        <v>82</v>
+        <v>57.9</v>
       </c>
       <c r="E199">
-        <v>-0.01061776061776056</v>
+        <v>-0.007031383982164357</v>
       </c>
       <c r="F199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2">
-        <v>45664.60763888889</v>
+        <v>45700.70486111111</v>
       </c>
       <c r="B200" s="2">
-        <v>45664.62847222222</v>
+        <v>45700.72222222222</v>
       </c>
       <c r="C200">
-        <v>82.72</v>
+        <v>58.4</v>
       </c>
       <c r="D200">
-        <v>77.90000000000001</v>
+        <v>58.53</v>
       </c>
       <c r="E200">
-        <v>-0.05826885880077361</v>
+        <v>0.002226027397260318</v>
       </c>
       <c r="F200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="2">
-        <v>45665.60416666666</v>
+        <v>45700.79513888889</v>
       </c>
       <c r="B201" s="2">
-        <v>45665.61805555555</v>
+        <v>45700.8125</v>
       </c>
       <c r="C201">
-        <v>73.83</v>
+        <v>57.42</v>
       </c>
       <c r="D201">
-        <v>73.77</v>
+        <v>57.78</v>
       </c>
       <c r="E201">
-        <v>-0.000812677773262932</v>
+        <v>0.006269592476489018</v>
       </c>
       <c r="F201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2">
-        <v>45665.71875</v>
+        <v>45700.82638888889</v>
       </c>
       <c r="B202" s="2">
-        <v>45665.73263888889</v>
+        <v>45700.85416666666</v>
       </c>
       <c r="C202">
-        <v>70.76000000000001</v>
+        <v>57.78</v>
       </c>
       <c r="D202">
-        <v>70.06</v>
+        <v>58.37</v>
       </c>
       <c r="E202">
-        <v>-0.009892594686263466</v>
+        <v>0.01021114572516435</v>
       </c>
       <c r="F202" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="2">
-        <v>45667.66666666666</v>
+        <v>45706.76388888889</v>
       </c>
       <c r="B203" s="2">
-        <v>45667.6875</v>
+        <v>45706.79166666666</v>
       </c>
       <c r="C203">
-        <v>66.5</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="D203">
-        <v>67.015</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="E203">
-        <v>0.007744360902255647</v>
+        <v>-0.003777576307041402</v>
       </c>
       <c r="F203" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2">
-        <v>45672.60416666666</v>
+        <v>45707.61111111111</v>
       </c>
       <c r="B204" s="2">
-        <v>45672.61805555555</v>
+        <v>45707.62847222222</v>
       </c>
       <c r="C204">
-        <v>64.17</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="D204">
-        <v>64.52</v>
+        <v>63.37</v>
       </c>
       <c r="E204">
-        <v>0.005454262116253612</v>
+        <v>-0.01736703364862766</v>
       </c>
       <c r="F204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>45673.67708333334</v>
+        <v>45707.64583333334</v>
       </c>
       <c r="B205" s="2">
-        <v>45673.69097222222</v>
+        <v>45707.67361111111</v>
       </c>
       <c r="C205">
-        <v>67.59</v>
+        <v>65.69</v>
       </c>
       <c r="D205">
-        <v>65.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E205">
-        <v>-0.02944222518123996</v>
+        <v>0.00167453189222103</v>
       </c>
       <c r="F205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="2">
-        <v>45673.74305555555</v>
+        <v>45707.81944444445</v>
       </c>
       <c r="B206" s="2">
-        <v>45673.75694444445</v>
+        <v>45707.83680555555</v>
       </c>
       <c r="C206">
-        <v>66.02</v>
+        <v>66.05</v>
       </c>
       <c r="D206">
-        <v>65.72</v>
+        <v>66.37</v>
       </c>
       <c r="E206">
-        <v>-0.004544077552256849</v>
+        <v>0.004844814534443715</v>
       </c>
       <c r="F206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2">
-        <v>45673.79861111111</v>
+        <v>45709.69097222222</v>
       </c>
       <c r="B207" s="2">
-        <v>45673.82986111111</v>
+        <v>45709.70833333334</v>
       </c>
       <c r="C207">
-        <v>66.06999999999999</v>
+        <v>65.11</v>
       </c>
       <c r="D207">
-        <v>66.7</v>
+        <v>65.27</v>
       </c>
       <c r="E207">
-        <v>0.009535341304677005</v>
+        <v>0.002457379818768186</v>
       </c>
       <c r="F207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>45674.61111111111</v>
+        <v>45709.79861111111</v>
       </c>
       <c r="B208" s="2">
-        <v>45674.62847222222</v>
+        <v>45709.81597222222</v>
       </c>
       <c r="C208">
-        <v>67.18000000000001</v>
+        <v>62.79</v>
       </c>
       <c r="D208">
-        <v>68.03</v>
+        <v>61.11</v>
       </c>
       <c r="E208">
-        <v>0.01265257517118181</v>
+        <v>-0.02675585284280936</v>
       </c>
       <c r="F208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2">
-        <v>45679.61458333334</v>
+        <v>45709.87152777778</v>
       </c>
       <c r="B209" s="2">
-        <v>45679.62847222222</v>
+        <v>45712.58680555555</v>
       </c>
       <c r="C209">
-        <v>78.09</v>
+        <v>60.44</v>
       </c>
       <c r="D209">
-        <v>77.45</v>
+        <v>62.57</v>
       </c>
       <c r="E209">
-        <v>-0.008195671660904092</v>
+        <v>0.03524156187955001</v>
       </c>
       <c r="F209" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2">
-        <v>45681.77777777778</v>
+        <v>45712.5625</v>
       </c>
       <c r="B210" s="2">
-        <v>45681.79513888889</v>
+        <v>45712.60763888889</v>
       </c>
       <c r="C210">
-        <v>73.55</v>
+        <v>62.79</v>
       </c>
       <c r="D210">
-        <v>72.63</v>
+        <v>63.14</v>
       </c>
       <c r="E210">
-        <v>-0.01250849762066624</v>
+        <v>0.005574136008918641</v>
       </c>
       <c r="F210" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>45681.82291666666</v>
+        <v>45712.86805555555</v>
       </c>
       <c r="B211" s="2">
-        <v>45681.85069444445</v>
+        <v>45713.59027777778</v>
       </c>
       <c r="C211">
-        <v>72.92</v>
+        <v>57.19</v>
       </c>
       <c r="D211">
-        <v>72.515</v>
+        <v>56.37</v>
       </c>
       <c r="E211">
-        <v>-0.005554031815688441</v>
+        <v>-0.01433817100891765</v>
       </c>
       <c r="F211" t="s">
         <v>6</v>
@@ -4633,59 +4633,59 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2">
-        <v>45684.65277777778</v>
+        <v>45713.66666666666</v>
       </c>
       <c r="B212" s="2">
-        <v>45684.66666666666</v>
+        <v>45713.6875</v>
       </c>
       <c r="C212">
-        <v>54.57</v>
+        <v>52.85</v>
       </c>
       <c r="D212">
-        <v>52.6</v>
+        <v>53.42</v>
       </c>
       <c r="E212">
-        <v>-0.03610042147700199</v>
+        <v>0.01078524124881741</v>
       </c>
       <c r="F212" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
-        <v>45684.72222222222</v>
+        <v>45714.61805555555</v>
       </c>
       <c r="B213" s="2">
-        <v>45684.73611111111</v>
+        <v>45714.63541666666</v>
       </c>
       <c r="C213">
-        <v>48.925</v>
+        <v>57.5</v>
       </c>
       <c r="D213">
-        <v>49.94</v>
+        <v>57.21</v>
       </c>
       <c r="E213">
-        <v>0.02074603985692388</v>
+        <v>-0.00504347826086955</v>
       </c>
       <c r="F213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>45684.73611111111</v>
+        <v>45714.83333333334</v>
       </c>
       <c r="B214" s="2">
-        <v>45684.75</v>
+        <v>45714.85763888889</v>
       </c>
       <c r="C214">
-        <v>49.94</v>
+        <v>55.7</v>
       </c>
       <c r="D214">
-        <v>49.12</v>
+        <v>57.25</v>
       </c>
       <c r="E214">
-        <v>-0.01641970364437325</v>
+        <v>0.0278276481149012</v>
       </c>
       <c r="F214" t="s">
         <v>7</v>
@@ -4693,119 +4693,119 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2">
-        <v>45685.63194444445</v>
+        <v>45715.875</v>
       </c>
       <c r="B215" s="2">
-        <v>45685.64583333334</v>
+        <v>45715.89583333334</v>
       </c>
       <c r="C215">
-        <v>48.86</v>
+        <v>48.02</v>
       </c>
       <c r="D215">
-        <v>50.41</v>
+        <v>48.6</v>
       </c>
       <c r="E215">
-        <v>0.0317232910356119</v>
+        <v>0.01207830070803828</v>
       </c>
       <c r="F215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2">
-        <v>45686.70833333334</v>
+        <v>45716.77083333334</v>
       </c>
       <c r="B216" s="2">
-        <v>45686.74652777778</v>
+        <v>45716.78819444445</v>
       </c>
       <c r="C216">
-        <v>51.29</v>
+        <v>47.8</v>
       </c>
       <c r="D216">
-        <v>51.59</v>
+        <v>47.32</v>
       </c>
       <c r="E216">
-        <v>0.005849093390524552</v>
+        <v>-0.01004184100418404</v>
       </c>
       <c r="F216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2">
-        <v>45686.80555555555</v>
+        <v>45716.78819444445</v>
       </c>
       <c r="B217" s="2">
-        <v>45686.82986111111</v>
+        <v>45716.81597222222</v>
       </c>
       <c r="C217">
-        <v>50.12</v>
+        <v>47.32</v>
       </c>
       <c r="D217">
-        <v>50.96</v>
+        <v>48.36</v>
       </c>
       <c r="E217">
-        <v>0.01675977653631292</v>
+        <v>0.02197802197802196</v>
       </c>
       <c r="F217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2">
-        <v>45687.70138888889</v>
+        <v>45719.70833333334</v>
       </c>
       <c r="B218" s="2">
-        <v>45687.71875</v>
+        <v>45719.72916666666</v>
       </c>
       <c r="C218">
-        <v>49.46</v>
+        <v>46.425</v>
       </c>
       <c r="D218">
-        <v>48.75</v>
+        <v>45.52</v>
       </c>
       <c r="E218">
-        <v>-0.01435503437120907</v>
+        <v>-0.01949380721593956</v>
       </c>
       <c r="F218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2">
-        <v>45687.76736111111</v>
+        <v>45720.61805555555</v>
       </c>
       <c r="B219" s="2">
-        <v>45687.78125</v>
+        <v>45720.63541666666</v>
       </c>
       <c r="C219">
-        <v>48.51</v>
+        <v>42.55</v>
       </c>
       <c r="D219">
-        <v>48.84</v>
+        <v>39.57</v>
       </c>
       <c r="E219">
-        <v>0.006802721088435486</v>
+        <v>-0.07003525264394823</v>
       </c>
       <c r="F219" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2">
-        <v>45691.72569444445</v>
+        <v>45721.63888888889</v>
       </c>
       <c r="B220" s="2">
-        <v>45691.73958333334</v>
+        <v>45721.66319444445</v>
       </c>
       <c r="C220">
-        <v>45.63</v>
+        <v>43.49</v>
       </c>
       <c r="D220">
-        <v>45.49</v>
+        <v>43.72</v>
       </c>
       <c r="E220">
-        <v>-0.003068156914310773</v>
+        <v>0.005288572085536833</v>
       </c>
       <c r="F220" t="s">
         <v>9</v>
@@ -4813,79 +4813,79 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2">
-        <v>45691.75347222222</v>
+        <v>45723.73958333334</v>
       </c>
       <c r="B221" s="2">
-        <v>45691.76736111111</v>
+        <v>45723.75694444445</v>
       </c>
       <c r="C221">
-        <v>45.7</v>
+        <v>39.38</v>
       </c>
       <c r="D221">
-        <v>45.7</v>
+        <v>39.9</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.01320467242254942</v>
       </c>
       <c r="F221" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2">
-        <v>45691.77777777778</v>
+        <v>45728.64930555555</v>
       </c>
       <c r="B222" s="2">
-        <v>45691.79166666666</v>
+        <v>45728.66666666666</v>
       </c>
       <c r="C222">
-        <v>45.87</v>
+        <v>42.59</v>
       </c>
       <c r="D222">
-        <v>46.65</v>
+        <v>42.66</v>
       </c>
       <c r="E222">
-        <v>0.01700457815565732</v>
+        <v>0.001643578304766217</v>
       </c>
       <c r="F222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2">
-        <v>45691.86805555555</v>
+        <v>45733.66319444445</v>
       </c>
       <c r="B223" s="2">
-        <v>45691.90972222222</v>
+        <v>45733.69444444445</v>
       </c>
       <c r="C223">
-        <v>46.21</v>
+        <v>45.56</v>
       </c>
       <c r="D223">
-        <v>47.45</v>
+        <v>44.72</v>
       </c>
       <c r="E223">
-        <v>0.02683401861069037</v>
+        <v>-0.01843722563652334</v>
       </c>
       <c r="F223" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2">
-        <v>45692.61805555555</v>
+        <v>45733.73958333334</v>
       </c>
       <c r="B224" s="2">
-        <v>45692.63541666666</v>
+        <v>45733.75694444445</v>
       </c>
       <c r="C224">
-        <v>48.23</v>
+        <v>45.61</v>
       </c>
       <c r="D224">
-        <v>49.28</v>
+        <v>45.91</v>
       </c>
       <c r="E224">
-        <v>0.02177068214804073</v>
+        <v>0.006577504933128637</v>
       </c>
       <c r="F224" t="s">
         <v>7</v>
@@ -4893,199 +4893,199 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>45692.89930555555</v>
+        <v>45734.62847222222</v>
       </c>
       <c r="B225" s="2">
-        <v>45693.56597222222</v>
+        <v>45734.64583333334</v>
       </c>
       <c r="C225">
-        <v>47.95</v>
+        <v>42.74</v>
       </c>
       <c r="D225">
-        <v>49.23</v>
+        <v>43.8</v>
       </c>
       <c r="E225">
-        <v>0.02669447340980175</v>
+        <v>0.0248011230697238</v>
       </c>
       <c r="F225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="2">
-        <v>45693.81597222222</v>
+        <v>45735.57291666666</v>
       </c>
       <c r="B226" s="2">
-        <v>45693.83680555555</v>
+        <v>45735.59027777778</v>
       </c>
       <c r="C226">
-        <v>51.85</v>
+        <v>43.3</v>
       </c>
       <c r="D226">
-        <v>52.25</v>
+        <v>44.16</v>
       </c>
       <c r="E226">
-        <v>0.00771456123432977</v>
+        <v>0.01986143187066973</v>
       </c>
       <c r="F226" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="2">
-        <v>45694.84375</v>
+        <v>45736.72569444445</v>
       </c>
       <c r="B227" s="2">
-        <v>45695.55902777778</v>
+        <v>45736.76388888889</v>
       </c>
       <c r="C227">
-        <v>55.49</v>
+        <v>44.37</v>
       </c>
       <c r="D227">
-        <v>55.61</v>
+        <v>44.86</v>
       </c>
       <c r="E227">
-        <v>0.002162551811137096</v>
+        <v>0.01104349785891373</v>
       </c>
       <c r="F227" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="2">
-        <v>45695.67361111111</v>
+        <v>45737.77430555555</v>
       </c>
       <c r="B228" s="2">
-        <v>45695.69791666666</v>
+        <v>45737.79861111111</v>
       </c>
       <c r="C228">
-        <v>56.3</v>
+        <v>43.83</v>
       </c>
       <c r="D228">
-        <v>55.47</v>
+        <v>43.49</v>
       </c>
       <c r="E228">
-        <v>-0.01474245115452928</v>
+        <v>-0.007757243896874203</v>
       </c>
       <c r="F228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="2">
-        <v>45699.61805555555</v>
+        <v>45740.56597222222</v>
       </c>
       <c r="B229" s="2">
-        <v>45699.63194444445</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="C229">
-        <v>60.52</v>
+        <v>46.15</v>
       </c>
       <c r="D229">
-        <v>60.36</v>
+        <v>46</v>
       </c>
       <c r="E229">
-        <v>-0.002643754130865891</v>
+        <v>-0.003250270855904628</v>
       </c>
       <c r="F229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="2">
-        <v>45699.77083333334</v>
+        <v>45742.64930555555</v>
       </c>
       <c r="B230" s="2">
-        <v>45699.78472222222</v>
+        <v>45742.67361111111</v>
       </c>
       <c r="C230">
-        <v>59.95</v>
+        <v>41.98</v>
       </c>
       <c r="D230">
-        <v>60.14</v>
+        <v>40.99</v>
       </c>
       <c r="E230">
-        <v>0.003169307756463682</v>
+        <v>-0.02358265840876596</v>
       </c>
       <c r="F230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="2">
-        <v>45700.56944444445</v>
+        <v>45742.77430555555</v>
       </c>
       <c r="B231" s="2">
-        <v>45700.60416666666</v>
+        <v>45742.79861111111</v>
       </c>
       <c r="C231">
-        <v>58.31</v>
+        <v>40.67</v>
       </c>
       <c r="D231">
-        <v>57.72</v>
+        <v>40.64</v>
       </c>
       <c r="E231">
-        <v>-0.01011833304750477</v>
+        <v>-0.0007376444553725384</v>
       </c>
       <c r="F231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2">
-        <v>45700.625</v>
+        <v>45744.64930555555</v>
       </c>
       <c r="B232" s="2">
-        <v>45700.63888888889</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="C232">
-        <v>57.905</v>
+        <v>38.26</v>
       </c>
       <c r="D232">
-        <v>58.55</v>
+        <v>37.92</v>
       </c>
       <c r="E232">
-        <v>0.0111389344616181</v>
+        <v>-0.008886565603763625</v>
       </c>
       <c r="F232" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="2">
-        <v>45700.64930555555</v>
+        <v>45748.75</v>
       </c>
       <c r="B233" s="2">
-        <v>45700.66319444445</v>
+        <v>45748.76736111111</v>
       </c>
       <c r="C233">
-        <v>58.49</v>
+        <v>36.87</v>
       </c>
       <c r="D233">
-        <v>58.21</v>
+        <v>36.59</v>
       </c>
       <c r="E233">
-        <v>-0.004787143101384872</v>
+        <v>-0.007594250067805642</v>
       </c>
       <c r="F233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="2">
-        <v>45700.70138888889</v>
+        <v>45748.81944444445</v>
       </c>
       <c r="B234" s="2">
-        <v>45700.71875</v>
+        <v>45749.5625</v>
       </c>
       <c r="C234">
-        <v>58.06</v>
+        <v>37.74</v>
       </c>
       <c r="D234">
-        <v>58.66</v>
+        <v>36.54</v>
       </c>
       <c r="E234">
-        <v>0.01033413709955209</v>
+        <v>-0.03179650238473775</v>
       </c>
       <c r="F234" t="s">
         <v>7</v>
@@ -5093,59 +5093,59 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="2">
-        <v>45700.79166666666</v>
+        <v>45749.81944444445</v>
       </c>
       <c r="B235" s="2">
-        <v>45700.80555555555</v>
+        <v>45750.50694444445</v>
       </c>
       <c r="C235">
-        <v>57.43</v>
+        <v>38.28</v>
       </c>
       <c r="D235">
-        <v>57.61</v>
+        <v>34.34</v>
       </c>
       <c r="E235">
-        <v>0.003134250391781294</v>
+        <v>-0.1029258098223615</v>
       </c>
       <c r="F235" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="2">
-        <v>45706.76041666666</v>
+        <v>45750.61805555555</v>
       </c>
       <c r="B236" s="2">
-        <v>45706.78472222222</v>
+        <v>45750.63541666666</v>
       </c>
       <c r="C236">
-        <v>66.09999999999999</v>
+        <v>33.3</v>
       </c>
       <c r="D236">
-        <v>66.16</v>
+        <v>33.46</v>
       </c>
       <c r="E236">
-        <v>0.0009077155824508665</v>
+        <v>0.004804804804804916</v>
       </c>
       <c r="F236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="2">
-        <v>45707.60763888889</v>
+        <v>45751.63888888889</v>
       </c>
       <c r="B237" s="2">
-        <v>45707.62152777778</v>
+        <v>45751.65972222222</v>
       </c>
       <c r="C237">
-        <v>65.02</v>
+        <v>28.55</v>
       </c>
       <c r="D237">
-        <v>64.03</v>
+        <v>28.35</v>
       </c>
       <c r="E237">
-        <v>-0.01522608428175938</v>
+        <v>-0.007005253940455316</v>
       </c>
       <c r="F237" t="s">
         <v>6</v>
@@ -5153,39 +5153,39 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="2">
-        <v>45707.64236111111</v>
+        <v>45751.72569444445</v>
       </c>
       <c r="B238" s="2">
-        <v>45707.66666666666</v>
+        <v>45751.74652777778</v>
       </c>
       <c r="C238">
-        <v>65.20999999999999</v>
+        <v>27.51</v>
       </c>
       <c r="D238">
-        <v>66.09</v>
+        <v>28.55</v>
       </c>
       <c r="E238">
-        <v>0.01349486275111194</v>
+        <v>0.0378044347509996</v>
       </c>
       <c r="F238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="2">
-        <v>45707.73958333334</v>
+        <v>45751.73958333334</v>
       </c>
       <c r="B239" s="2">
-        <v>45707.75347222222</v>
+        <v>45751.75694444445</v>
       </c>
       <c r="C239">
-        <v>66.48</v>
+        <v>28.21</v>
       </c>
       <c r="D239">
-        <v>66.22</v>
+        <v>27.74</v>
       </c>
       <c r="E239">
-        <v>-0.003910950661853266</v>
+        <v>-0.01666075859624255</v>
       </c>
       <c r="F239" t="s">
         <v>7</v>
@@ -5193,59 +5193,59 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="2">
-        <v>45707.81944444445</v>
+        <v>45751.8125</v>
       </c>
       <c r="B240" s="2">
-        <v>45707.83333333334</v>
+        <v>45751.82986111111</v>
       </c>
       <c r="C240">
-        <v>66.05</v>
+        <v>28.73</v>
       </c>
       <c r="D240">
-        <v>66.31999999999999</v>
+        <v>27.64</v>
       </c>
       <c r="E240">
-        <v>0.00408781226343673</v>
+        <v>-0.03793943612948137</v>
       </c>
       <c r="F240" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="2">
-        <v>45709.69097222222</v>
+        <v>45754.81597222222</v>
       </c>
       <c r="B241" s="2">
-        <v>45709.70486111111</v>
+        <v>45755.50347222222</v>
       </c>
       <c r="C241">
-        <v>65.11</v>
+        <v>29.82</v>
       </c>
       <c r="D241">
-        <v>65.04000000000001</v>
+        <v>32</v>
       </c>
       <c r="E241">
-        <v>-0.001075103670711</v>
+        <v>0.07310529845741112</v>
       </c>
       <c r="F241" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2">
-        <v>45709.79513888889</v>
+        <v>45754.82638888889</v>
       </c>
       <c r="B242" s="2">
-        <v>45709.8125</v>
+        <v>45755.51388888889</v>
       </c>
       <c r="C242">
-        <v>62.25</v>
+        <v>29.19</v>
       </c>
       <c r="D242">
-        <v>62</v>
+        <v>32.09</v>
       </c>
       <c r="E242">
-        <v>-0.004016064257028112</v>
+        <v>0.09934909215484762</v>
       </c>
       <c r="F242" t="s">
         <v>9</v>
@@ -5253,19 +5253,19 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="2">
-        <v>45709.86805555555</v>
+        <v>45755.67708333334</v>
       </c>
       <c r="B243" s="2">
-        <v>45712.57291666666</v>
+        <v>45755.69444444445</v>
       </c>
       <c r="C243">
-        <v>61</v>
+        <v>31.92</v>
       </c>
       <c r="D243">
-        <v>62.47</v>
+        <v>30.88</v>
       </c>
       <c r="E243">
-        <v>0.02409836065573769</v>
+        <v>-0.03258145363408529</v>
       </c>
       <c r="F243" t="s">
         <v>6</v>
@@ -5273,119 +5273,119 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="2">
-        <v>45712.55902777778</v>
+        <v>45755.75</v>
       </c>
       <c r="B244" s="2">
-        <v>45712.58680555555</v>
+        <v>45755.77083333334</v>
       </c>
       <c r="C244">
-        <v>62.73</v>
+        <v>31.14</v>
       </c>
       <c r="D244">
-        <v>62.57</v>
+        <v>30.98</v>
       </c>
       <c r="E244">
-        <v>-0.002550613741431478</v>
+        <v>-0.005138086062941559</v>
       </c>
       <c r="F244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2">
-        <v>45712.86458333334</v>
+        <v>45756.53125</v>
       </c>
       <c r="B245" s="2">
-        <v>45713.57638888889</v>
+        <v>45756.56597222222</v>
       </c>
       <c r="C245">
-        <v>58.01</v>
+        <v>29.37</v>
       </c>
       <c r="D245">
-        <v>56.97</v>
+        <v>30.49</v>
       </c>
       <c r="E245">
-        <v>-0.01792794345802446</v>
+        <v>0.03813415049370097</v>
       </c>
       <c r="F245" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2">
-        <v>45713.84027777778</v>
+        <v>45757.61111111111</v>
       </c>
       <c r="B246" s="2">
-        <v>45713.85416666666</v>
+        <v>45757.62847222222</v>
       </c>
       <c r="C246">
-        <v>54.84</v>
+        <v>36.47</v>
       </c>
       <c r="D246">
-        <v>54.94</v>
+        <v>36.38</v>
       </c>
       <c r="E246">
-        <v>0.00182348650619975</v>
+        <v>-0.002467781738415034</v>
       </c>
       <c r="F246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="2">
-        <v>45714.61458333334</v>
+        <v>45757.71875</v>
       </c>
       <c r="B247" s="2">
-        <v>45714.62847222222</v>
+        <v>45757.73958333334</v>
       </c>
       <c r="C247">
-        <v>57.14</v>
+        <v>33.36</v>
       </c>
       <c r="D247">
-        <v>56.85</v>
+        <v>34.46</v>
       </c>
       <c r="E247">
-        <v>-0.005075253762688119</v>
+        <v>0.03297362110311755</v>
       </c>
       <c r="F247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="2">
-        <v>45714.82986111111</v>
+        <v>45758.5625</v>
       </c>
       <c r="B248" s="2">
-        <v>45714.84375</v>
+        <v>45758.58333333334</v>
       </c>
       <c r="C248">
-        <v>55.6</v>
+        <v>35.34</v>
       </c>
       <c r="D248">
-        <v>56.08</v>
+        <v>35.97</v>
       </c>
       <c r="E248">
-        <v>0.0086330935251798</v>
+        <v>0.01782682512733434</v>
       </c>
       <c r="F248" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="2">
-        <v>45714.83680555555</v>
+        <v>45758.65625</v>
       </c>
       <c r="B249" s="2">
-        <v>45714.85416666666</v>
+        <v>45758.68402777778</v>
       </c>
       <c r="C249">
-        <v>55.96</v>
+        <v>35.8</v>
       </c>
       <c r="D249">
-        <v>56.65</v>
+        <v>36.01</v>
       </c>
       <c r="E249">
-        <v>0.01233023588277337</v>
+        <v>0.005865921787709521</v>
       </c>
       <c r="F249" t="s">
         <v>7</v>
@@ -5393,79 +5393,79 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="2">
-        <v>45715.91319444445</v>
+        <v>45758.81597222222</v>
       </c>
       <c r="B250" s="2">
-        <v>45716.61111111111</v>
+        <v>45761.54166666666</v>
       </c>
       <c r="C250">
-        <v>48.18</v>
+        <v>36.41</v>
       </c>
       <c r="D250">
-        <v>46.9</v>
+        <v>39.39</v>
       </c>
       <c r="E250">
-        <v>-0.02656704026567043</v>
+        <v>0.0818456468003297</v>
       </c>
       <c r="F250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2">
-        <v>45716.78472222222</v>
+        <v>45761.61458333334</v>
       </c>
       <c r="B251" s="2">
-        <v>45716.80208333334</v>
+        <v>45761.63541666666</v>
       </c>
       <c r="C251">
-        <v>48.35</v>
+        <v>37.98</v>
       </c>
       <c r="D251">
-        <v>47.98</v>
+        <v>37.59</v>
       </c>
       <c r="E251">
-        <v>-0.007652533609100404</v>
+        <v>-0.01026856240126365</v>
       </c>
       <c r="F251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2">
-        <v>45720.61458333334</v>
+        <v>45761.70486111111</v>
       </c>
       <c r="B252" s="2">
-        <v>45720.63194444445</v>
+        <v>45761.72569444445</v>
       </c>
       <c r="C252">
-        <v>42.72</v>
+        <v>36.43</v>
       </c>
       <c r="D252">
-        <v>40.86</v>
+        <v>36.69</v>
       </c>
       <c r="E252">
-        <v>-0.04353932584269662</v>
+        <v>0.007136975020587373</v>
       </c>
       <c r="F252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="2">
-        <v>45721.63888888889</v>
+        <v>45763.69444444445</v>
       </c>
       <c r="B253" s="2">
-        <v>45721.65972222222</v>
+        <v>45763.71875</v>
       </c>
       <c r="C253">
-        <v>43.49</v>
+        <v>32.12</v>
       </c>
       <c r="D253">
-        <v>44.09</v>
+        <v>31.87</v>
       </c>
       <c r="E253">
-        <v>0.01379627500574848</v>
+        <v>-0.007783312577833016</v>
       </c>
       <c r="F253" t="s">
         <v>8</v>
@@ -5473,19 +5473,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="2">
-        <v>45721.69444444445</v>
+        <v>45763.74652777778</v>
       </c>
       <c r="B254" s="2">
-        <v>45721.71527777778</v>
+        <v>45763.76388888889</v>
       </c>
       <c r="C254">
-        <v>42.84</v>
+        <v>30.9</v>
       </c>
       <c r="D254">
-        <v>43.81</v>
+        <v>31.19</v>
       </c>
       <c r="E254">
-        <v>0.02264239028944908</v>
+        <v>0.009385113268608502</v>
       </c>
       <c r="F254" t="s">
         <v>8</v>
@@ -5493,19 +5493,19 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="2">
-        <v>45721.71180555555</v>
+        <v>45763.82638888889</v>
       </c>
       <c r="B255" s="2">
-        <v>45721.73263888889</v>
+        <v>45763.84375</v>
       </c>
       <c r="C255">
-        <v>43.87</v>
+        <v>32.13</v>
       </c>
       <c r="D255">
-        <v>44.32</v>
+        <v>32.41</v>
       </c>
       <c r="E255">
-        <v>0.0102575792113062</v>
+        <v>0.008714596949890881</v>
       </c>
       <c r="F255" t="s">
         <v>7</v>
@@ -5513,39 +5513,39 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="2">
-        <v>45722.79166666666</v>
+        <v>45764.65972222222</v>
       </c>
       <c r="B256" s="2">
-        <v>45722.80902777778</v>
+        <v>45764.67708333334</v>
       </c>
       <c r="C256">
-        <v>40.16</v>
+        <v>29.96</v>
       </c>
       <c r="D256">
-        <v>39.59</v>
+        <v>30.44</v>
       </c>
       <c r="E256">
-        <v>-0.0141932270916333</v>
+        <v>0.01602136181575435</v>
       </c>
       <c r="F256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="2">
-        <v>45727.59722222222</v>
+        <v>45764.82638888889</v>
       </c>
       <c r="B257" s="2">
-        <v>45727.61111111111</v>
+        <v>45768.57638888889</v>
       </c>
       <c r="C257">
-        <v>37.08</v>
+        <v>30.46</v>
       </c>
       <c r="D257">
-        <v>36.32</v>
+        <v>28.23</v>
       </c>
       <c r="E257">
-        <v>-0.02049622437971947</v>
+        <v>-0.07321076822061721</v>
       </c>
       <c r="F257" t="s">
         <v>6</v>
@@ -5553,19 +5553,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="2">
-        <v>45727.63888888889</v>
+        <v>45768.64583333334</v>
       </c>
       <c r="B258" s="2">
-        <v>45727.65277777778</v>
+        <v>45768.71875</v>
       </c>
       <c r="C258">
-        <v>38.06</v>
+        <v>27.27</v>
       </c>
       <c r="D258">
-        <v>39.16</v>
+        <v>26.92</v>
       </c>
       <c r="E258">
-        <v>0.02890173410404609</v>
+        <v>-0.01283461679501276</v>
       </c>
       <c r="F258" t="s">
         <v>8</v>
@@ -5573,39 +5573,39 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="2">
-        <v>45728.64583333334</v>
+        <v>45769.79166666666</v>
       </c>
       <c r="B259" s="2">
-        <v>45728.66319444445</v>
+        <v>45769.81597222222</v>
       </c>
       <c r="C259">
-        <v>42.25</v>
+        <v>28.87</v>
       </c>
       <c r="D259">
-        <v>42.87</v>
+        <v>28.08</v>
       </c>
       <c r="E259">
-        <v>0.01467455621301769</v>
+        <v>-0.02736404572220307</v>
       </c>
       <c r="F259" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="2">
-        <v>45728.77430555555</v>
+        <v>45770.50347222222</v>
       </c>
       <c r="B260" s="2">
-        <v>45728.80208333334</v>
+        <v>45770.56944444445</v>
       </c>
       <c r="C260">
-        <v>43.1</v>
+        <v>32.07</v>
       </c>
       <c r="D260">
-        <v>43.01</v>
+        <v>31.92</v>
       </c>
       <c r="E260">
-        <v>-0.002088167053364348</v>
+        <v>-0.004677268475210433</v>
       </c>
       <c r="F260" t="s">
         <v>7</v>
@@ -5613,39 +5613,39 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="2">
-        <v>45733.65972222222</v>
+        <v>45775.6875</v>
       </c>
       <c r="B261" s="2">
-        <v>45733.67361111111</v>
+        <v>45775.71875</v>
       </c>
       <c r="C261">
-        <v>45.79</v>
+        <v>33.51</v>
       </c>
       <c r="D261">
-        <v>45.75</v>
+        <v>33.3</v>
       </c>
       <c r="E261">
-        <v>-0.0008735531775496648</v>
+        <v>-0.006266786034019722</v>
       </c>
       <c r="F261" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2">
-        <v>45733.73611111111</v>
+        <v>45775.73611111111</v>
       </c>
       <c r="B262" s="2">
-        <v>45733.75</v>
+        <v>45775.77777777778</v>
       </c>
       <c r="C262">
-        <v>45.55</v>
+        <v>33.4</v>
       </c>
       <c r="D262">
-        <v>45.42</v>
+        <v>33.94</v>
       </c>
       <c r="E262">
-        <v>-0.002854006586168945</v>
+        <v>0.01616766467065866</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -5653,19 +5653,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="2">
-        <v>45734.625</v>
+        <v>45776.65625</v>
       </c>
       <c r="B263" s="2">
-        <v>45734.64236111111</v>
+        <v>45776.68402777778</v>
       </c>
       <c r="C263">
-        <v>42.78</v>
+        <v>35.04</v>
       </c>
       <c r="D263">
-        <v>43.67</v>
+        <v>34.84</v>
       </c>
       <c r="E263">
-        <v>0.02080411407199627</v>
+        <v>-0.005707762557077504</v>
       </c>
       <c r="F263" t="s">
         <v>7</v>
@@ -5673,159 +5673,159 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="2">
-        <v>45735.56944444445</v>
+        <v>45776.73263888889</v>
       </c>
       <c r="B264" s="2">
-        <v>45735.58680555555</v>
+        <v>45776.75347222222</v>
       </c>
       <c r="C264">
-        <v>42.89</v>
+        <v>34.96</v>
       </c>
       <c r="D264">
-        <v>44.27</v>
+        <v>35.475</v>
       </c>
       <c r="E264">
-        <v>0.03217533224527868</v>
+        <v>0.01473112128146455</v>
       </c>
       <c r="F264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="2">
-        <v>45736.72916666666</v>
+        <v>45779.56597222222</v>
       </c>
       <c r="B265" s="2">
-        <v>45736.76388888889</v>
+        <v>45779.58333333334</v>
       </c>
       <c r="C265">
-        <v>44.58</v>
+        <v>38.77</v>
       </c>
       <c r="D265">
-        <v>44.86</v>
+        <v>38.09</v>
       </c>
       <c r="E265">
-        <v>0.00628084342754601</v>
+        <v>-0.01753933453701315</v>
       </c>
       <c r="F265" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="2">
-        <v>45737.77083333334</v>
+        <v>45782.62847222222</v>
       </c>
       <c r="B266" s="2">
-        <v>45737.78819444445</v>
+        <v>45782.65625</v>
       </c>
       <c r="C266">
-        <v>43.8</v>
+        <v>37.85</v>
       </c>
       <c r="D266">
-        <v>43.79</v>
+        <v>37.79</v>
       </c>
       <c r="E266">
-        <v>-0.0002283105022830596</v>
+        <v>-0.001585204755614327</v>
       </c>
       <c r="F266" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="2">
-        <v>45740.5625</v>
+        <v>45790.77777777778</v>
       </c>
       <c r="B267" s="2">
-        <v>45740.57638888889</v>
+        <v>45790.79513888889</v>
       </c>
       <c r="C267">
-        <v>46.19</v>
+        <v>48.99</v>
       </c>
       <c r="D267">
-        <v>45.73</v>
+        <v>49.39</v>
       </c>
       <c r="E267">
-        <v>-0.009958865555315022</v>
+        <v>0.008164931618697665</v>
       </c>
       <c r="F267" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="2">
-        <v>45741.8125</v>
+        <v>45790.80208333334</v>
       </c>
       <c r="B268" s="2">
-        <v>45742.5625</v>
+        <v>45790.81944444445</v>
       </c>
       <c r="C268">
-        <v>46.42</v>
+        <v>49.2</v>
       </c>
       <c r="D268">
-        <v>44.04</v>
+        <v>49.22</v>
       </c>
       <c r="E268">
-        <v>-0.051271003877639</v>
+        <v>0.0004065040650405695</v>
       </c>
       <c r="F268" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="2">
-        <v>45742.65277777778</v>
+        <v>45791.63194444445</v>
       </c>
       <c r="B269" s="2">
-        <v>45742.67013888889</v>
+        <v>45791.64930555555</v>
       </c>
       <c r="C269">
-        <v>41.87</v>
+        <v>52.14</v>
       </c>
       <c r="D269">
-        <v>41.33</v>
+        <v>52.24</v>
       </c>
       <c r="E269">
-        <v>-0.01289706233580127</v>
+        <v>0.001917913310318401</v>
       </c>
       <c r="F269" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="2">
-        <v>45742.73263888889</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="B270" s="2">
-        <v>45742.76041666666</v>
+        <v>45793.56944444445</v>
       </c>
       <c r="C270">
-        <v>40.31</v>
+        <v>52.51</v>
       </c>
       <c r="D270">
-        <v>40.7</v>
+        <v>52.85</v>
       </c>
       <c r="E270">
-        <v>0.009675018605805025</v>
+        <v>0.006474957151018919</v>
       </c>
       <c r="F270" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="2">
-        <v>45744.64583333334</v>
+        <v>45793.72222222222</v>
       </c>
       <c r="B271" s="2">
-        <v>45744.65972222222</v>
+        <v>45793.73958333334</v>
       </c>
       <c r="C271">
-        <v>38.26</v>
+        <v>53.165</v>
       </c>
       <c r="D271">
-        <v>37.99</v>
+        <v>53.2</v>
       </c>
       <c r="E271">
-        <v>-0.007056978567694616</v>
+        <v>0.0006583278472680089</v>
       </c>
       <c r="F271" t="s">
         <v>7</v>
@@ -5833,139 +5833,139 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2">
-        <v>45747.64930555555</v>
+        <v>45796.57986111111</v>
       </c>
       <c r="B272" s="2">
-        <v>45747.66319444445</v>
+        <v>45796.60069444445</v>
       </c>
       <c r="C272">
-        <v>35.19</v>
+        <v>52.05</v>
       </c>
       <c r="D272">
-        <v>34.84</v>
+        <v>52.91</v>
       </c>
       <c r="E272">
-        <v>-0.00994600738846247</v>
+        <v>0.01652257444764648</v>
       </c>
       <c r="F272" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="2">
-        <v>45748.74652777778</v>
+        <v>45797.625</v>
       </c>
       <c r="B273" s="2">
-        <v>45748.76041666666</v>
+        <v>45797.65277777778</v>
       </c>
       <c r="C273">
-        <v>37.23</v>
+        <v>51.59</v>
       </c>
       <c r="D273">
-        <v>36.57</v>
+        <v>51.675</v>
       </c>
       <c r="E273">
-        <v>-0.01772763900080571</v>
+        <v>0.001647606125217944</v>
       </c>
       <c r="F273" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="2">
-        <v>45748.81597222222</v>
+        <v>45798.78472222222</v>
       </c>
       <c r="B274" s="2">
-        <v>45748.82986111111</v>
+        <v>45798.80902777778</v>
       </c>
       <c r="C274">
-        <v>37.7</v>
+        <v>50.805</v>
       </c>
       <c r="D274">
-        <v>38.24</v>
+        <v>49.57</v>
       </c>
       <c r="E274">
-        <v>0.01432360742705568</v>
+        <v>-0.02430863104025193</v>
       </c>
       <c r="F274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="2">
-        <v>45749.81597222222</v>
+        <v>45798.82986111111</v>
       </c>
       <c r="B275" s="2">
-        <v>45749.86458333334</v>
+        <v>45799.56944444445</v>
       </c>
       <c r="C275">
-        <v>38.1</v>
+        <v>50.16</v>
       </c>
       <c r="D275">
-        <v>35.75</v>
+        <v>50.21</v>
       </c>
       <c r="E275">
-        <v>-0.06167979002624675</v>
+        <v>0.0009968102073366083</v>
       </c>
       <c r="F275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="2">
-        <v>45750.61458333334</v>
+        <v>45804.81944444445</v>
       </c>
       <c r="B276" s="2">
-        <v>45750.62847222222</v>
+        <v>45805.56944444445</v>
       </c>
       <c r="C276">
-        <v>33.17</v>
+        <v>52.53</v>
       </c>
       <c r="D276">
-        <v>32.7</v>
+        <v>53.05</v>
       </c>
       <c r="E276">
-        <v>-0.01416943020801926</v>
+        <v>0.009899105273177156</v>
       </c>
       <c r="F276" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="2">
-        <v>45751.72222222222</v>
+        <v>45805.63541666666</v>
       </c>
       <c r="B277" s="2">
-        <v>45751.73611111111</v>
+        <v>45805.66319444445</v>
       </c>
       <c r="C277">
-        <v>27.66</v>
+        <v>52.64</v>
       </c>
       <c r="D277">
-        <v>27.86</v>
+        <v>52.84</v>
       </c>
       <c r="E277">
-        <v>0.007230657989877053</v>
+        <v>0.003799392097264492</v>
       </c>
       <c r="F277" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="2">
-        <v>45751.73611111111</v>
+        <v>45805.86111111111</v>
       </c>
       <c r="B278" s="2">
-        <v>45751.75</v>
+        <v>45806.55555555555</v>
       </c>
       <c r="C278">
-        <v>27.86</v>
+        <v>56.02</v>
       </c>
       <c r="D278">
-        <v>28.48</v>
+        <v>58.33</v>
       </c>
       <c r="E278">
-        <v>0.02225412778176601</v>
+        <v>0.04123527311674393</v>
       </c>
       <c r="F278" t="s">
         <v>7</v>
@@ -5973,79 +5973,79 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="2">
-        <v>45751.80902777778</v>
+        <v>45806.70833333334</v>
       </c>
       <c r="B279" s="2">
-        <v>45751.82291666666</v>
+        <v>45806.72569444445</v>
       </c>
       <c r="C279">
-        <v>28.21</v>
+        <v>56.54</v>
       </c>
       <c r="D279">
-        <v>28.11</v>
+        <v>56.11</v>
       </c>
       <c r="E279">
-        <v>-0.003544842254519724</v>
+        <v>-0.00760523523169437</v>
       </c>
       <c r="F279" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="2">
-        <v>45754.8125</v>
+        <v>45811.56597222222</v>
       </c>
       <c r="B280" s="2">
-        <v>45754.82986111111</v>
+        <v>45811.58333333334</v>
       </c>
       <c r="C280">
-        <v>29.72</v>
+        <v>54.77</v>
       </c>
       <c r="D280">
-        <v>29.62</v>
+        <v>57.04</v>
       </c>
       <c r="E280">
-        <v>-0.003364737550470992</v>
+        <v>0.04144604710607989</v>
       </c>
       <c r="F280" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="2">
-        <v>45754.82291666666</v>
+        <v>45812.60416666666</v>
       </c>
       <c r="B281" s="2">
-        <v>45755.50694444445</v>
+        <v>45812.64930555555</v>
       </c>
       <c r="C281">
-        <v>29.49</v>
+        <v>57.07</v>
       </c>
       <c r="D281">
-        <v>32.35</v>
+        <v>57.11</v>
       </c>
       <c r="E281">
-        <v>0.09698202780603606</v>
+        <v>0.0007008936393902076</v>
       </c>
       <c r="F281" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2">
-        <v>45755.51041666666</v>
+        <v>45812.71527777778</v>
       </c>
       <c r="B282" s="2">
-        <v>45755.56597222222</v>
+        <v>45812.75694444445</v>
       </c>
       <c r="C282">
-        <v>32.24</v>
+        <v>56.82</v>
       </c>
       <c r="D282">
-        <v>32.94</v>
+        <v>57.14</v>
       </c>
       <c r="E282">
-        <v>0.02171215880893287</v>
+        <v>0.005631819781766989</v>
       </c>
       <c r="F282" t="s">
         <v>7</v>
@@ -6053,39 +6053,39 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="2">
-        <v>45755.74652777778</v>
+        <v>45813.75694444445</v>
       </c>
       <c r="B283" s="2">
-        <v>45755.76736111111</v>
+        <v>45813.77777777778</v>
       </c>
       <c r="C283">
-        <v>31.14</v>
+        <v>56.415</v>
       </c>
       <c r="D283">
-        <v>30.62</v>
+        <v>56.63</v>
       </c>
       <c r="E283">
-        <v>-0.01669877970456004</v>
+        <v>0.003811043162279596</v>
       </c>
       <c r="F283" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="2">
-        <v>45757.60763888889</v>
+        <v>45813.82638888889</v>
       </c>
       <c r="B284" s="2">
-        <v>45757.62152777778</v>
+        <v>45814.54861111111</v>
       </c>
       <c r="C284">
-        <v>36.78</v>
+        <v>55.945</v>
       </c>
       <c r="D284">
-        <v>36.03</v>
+        <v>57.77</v>
       </c>
       <c r="E284">
-        <v>-0.02039151712887439</v>
+        <v>0.03262132451514885</v>
       </c>
       <c r="F284" t="s">
         <v>6</v>
@@ -6093,219 +6093,219 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="2">
-        <v>45757.71527777778</v>
+        <v>45814.55555555555</v>
       </c>
       <c r="B285" s="2">
-        <v>45757.72916666666</v>
+        <v>45814.57638888889</v>
       </c>
       <c r="C285">
-        <v>33.32</v>
+        <v>57.86</v>
       </c>
       <c r="D285">
-        <v>34.21</v>
+        <v>58.15</v>
       </c>
       <c r="E285">
-        <v>0.0267106842737095</v>
+        <v>0.00501209816799169</v>
       </c>
       <c r="F285" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="2">
-        <v>45758.54861111111</v>
+        <v>45818.57986111111</v>
       </c>
       <c r="B286" s="2">
-        <v>45758.57986111111</v>
+        <v>45818.61458333334</v>
       </c>
       <c r="C286">
-        <v>35.38</v>
+        <v>58.12</v>
       </c>
       <c r="D286">
-        <v>36.76</v>
+        <v>58.02</v>
       </c>
       <c r="E286">
-        <v>0.03900508762012423</v>
+        <v>-0.001720578114246289</v>
       </c>
       <c r="F286" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="2">
-        <v>45758.8125</v>
+        <v>45821.75694444445</v>
       </c>
       <c r="B287" s="2">
-        <v>45758.82638888889</v>
+        <v>45821.77430555555</v>
       </c>
       <c r="C287">
-        <v>36.47</v>
+        <v>57.65</v>
       </c>
       <c r="D287">
-        <v>36.68</v>
+        <v>56.7</v>
       </c>
       <c r="E287">
-        <v>0.00575815738963534</v>
+        <v>-0.01647875108412829</v>
       </c>
       <c r="F287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2">
-        <v>45761.70138888889</v>
+        <v>45824.78472222222</v>
       </c>
       <c r="B288" s="2">
-        <v>45761.71527777778</v>
+        <v>45824.8125</v>
       </c>
       <c r="C288">
-        <v>36.53</v>
+        <v>59.91</v>
       </c>
       <c r="D288">
-        <v>36.72</v>
+        <v>59.66</v>
       </c>
       <c r="E288">
-        <v>0.005201204489460655</v>
+        <v>-0.004172926055750292</v>
       </c>
       <c r="F288" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="2">
-        <v>45763.69097222222</v>
+        <v>45824.80902777778</v>
       </c>
       <c r="B289" s="2">
-        <v>45763.71180555555</v>
+        <v>45824.82638888889</v>
       </c>
       <c r="C289">
-        <v>32.33</v>
+        <v>59.82</v>
       </c>
       <c r="D289">
-        <v>31.8</v>
+        <v>59.37</v>
       </c>
       <c r="E289">
-        <v>-0.01639344262295074</v>
+        <v>-0.007522567703109375</v>
       </c>
       <c r="F289" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="2">
-        <v>45763.74305555555</v>
+        <v>45828.65972222222</v>
       </c>
       <c r="B290" s="2">
-        <v>45763.75694444445</v>
+        <v>45828.67708333334</v>
       </c>
       <c r="C290">
-        <v>31.38</v>
+        <v>58.79</v>
       </c>
       <c r="D290">
-        <v>31.08</v>
+        <v>58.82</v>
       </c>
       <c r="E290">
-        <v>-0.009560229445506715</v>
+        <v>0.0005102908657935217</v>
       </c>
       <c r="F290" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="2">
-        <v>45763.82291666666</v>
+        <v>45831.57291666666</v>
       </c>
       <c r="B291" s="2">
-        <v>45763.83680555555</v>
+        <v>45831.62152777778</v>
       </c>
       <c r="C291">
-        <v>31.31</v>
+        <v>58.49</v>
       </c>
       <c r="D291">
-        <v>32.41</v>
+        <v>58.63</v>
       </c>
       <c r="E291">
-        <v>0.03513254551261571</v>
+        <v>0.002393571550692436</v>
       </c>
       <c r="F291" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="2">
-        <v>45764.65625</v>
+        <v>45831.71180555555</v>
       </c>
       <c r="B292" s="2">
-        <v>45764.67013888889</v>
+        <v>45831.74652777778</v>
       </c>
       <c r="C292">
-        <v>30.07</v>
+        <v>58.66</v>
       </c>
       <c r="D292">
-        <v>30.4</v>
+        <v>59.15</v>
       </c>
       <c r="E292">
-        <v>0.01097439308280673</v>
+        <v>0.008353221957040607</v>
       </c>
       <c r="F292" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="2">
-        <v>45764.82291666666</v>
+        <v>45835.57291666666</v>
       </c>
       <c r="B293" s="2">
-        <v>45768.56597222222</v>
+        <v>45835.59027777778</v>
       </c>
       <c r="C293">
-        <v>30.3</v>
+        <v>68.545</v>
       </c>
       <c r="D293">
-        <v>28.46</v>
+        <v>69.41</v>
       </c>
       <c r="E293">
-        <v>-0.06072607260726072</v>
+        <v>0.01261944707856145</v>
       </c>
       <c r="F293" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="2">
-        <v>45768.64236111111</v>
+        <v>45835.72569444445</v>
       </c>
       <c r="B294" s="2">
-        <v>45768.71527777778</v>
+        <v>45835.74305555555</v>
       </c>
       <c r="C294">
-        <v>27.3</v>
+        <v>70.04000000000001</v>
       </c>
       <c r="D294">
-        <v>26.92</v>
+        <v>69.39</v>
       </c>
       <c r="E294">
-        <v>-0.01391941391941388</v>
+        <v>-0.009280411193603736</v>
       </c>
       <c r="F294" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="2">
-        <v>45769.78472222222</v>
+        <v>45835.80902777778</v>
       </c>
       <c r="B295" s="2">
-        <v>45769.80555555555</v>
+        <v>45835.84027777778</v>
       </c>
       <c r="C295">
-        <v>28.86</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D295">
-        <v>28.45</v>
+        <v>69.44</v>
       </c>
       <c r="E295">
-        <v>-0.01420651420651421</v>
+        <v>0.002888503755054923</v>
       </c>
       <c r="F295" t="s">
         <v>7</v>
@@ -6313,19 +6313,19 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="2">
-        <v>45769.82986111111</v>
+        <v>45839.66666666666</v>
       </c>
       <c r="B296" s="2">
-        <v>45770.5625</v>
+        <v>45839.69097222222</v>
       </c>
       <c r="C296">
-        <v>29</v>
+        <v>65.61</v>
       </c>
       <c r="D296">
-        <v>32.3</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="E296">
-        <v>0.1137931034482758</v>
+        <v>0.01752781588172543</v>
       </c>
       <c r="F296" t="s">
         <v>7</v>
@@ -6333,1282 +6333,62 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="2">
-        <v>45770.69444444445</v>
+        <v>45840.75694444445</v>
       </c>
       <c r="B297" s="2">
-        <v>45770.71180555555</v>
+        <v>45840.77430555555</v>
       </c>
       <c r="C297">
-        <v>31.83</v>
+        <v>69.38</v>
       </c>
       <c r="D297">
-        <v>32.155</v>
+        <v>69.37</v>
       </c>
       <c r="E297">
-        <v>0.0102104932453661</v>
+        <v>-0.0001441337561255536</v>
       </c>
       <c r="F297" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="2">
-        <v>45771.57291666666</v>
+        <v>45845.56944444445</v>
       </c>
       <c r="B298" s="2">
-        <v>45771.58680555555</v>
+        <v>45845.59375</v>
       </c>
       <c r="C298">
-        <v>32.27</v>
+        <v>70.86</v>
       </c>
       <c r="D298">
-        <v>32.54</v>
+        <v>70.89</v>
       </c>
       <c r="E298">
-        <v>0.008366904245429067</v>
+        <v>0.0004233700254022176</v>
       </c>
       <c r="F298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="2">
-        <v>45772.78819444445</v>
+        <v>45847.74652777778</v>
       </c>
       <c r="B299" s="2">
-        <v>45772.80208333334</v>
+        <v>45847.79166666666</v>
       </c>
       <c r="C299">
-        <v>36.43</v>
+        <v>74.34</v>
       </c>
       <c r="D299">
-        <v>36.1</v>
+        <v>74.55</v>
       </c>
       <c r="E299">
-        <v>-0.00905846829536092</v>
+        <v>0.002824858757062063</v>
       </c>
       <c r="F299" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="A300" s="2">
-        <v>45775.68402777778</v>
-      </c>
-      <c r="B300" s="2">
-        <v>45775.70833333334</v>
-      </c>
-      <c r="C300">
-        <v>33.39</v>
-      </c>
-      <c r="D300">
-        <v>33.53</v>
-      </c>
-      <c r="E300">
-        <v>0.004192872117400436</v>
-      </c>
-      <c r="F300" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301" s="2">
-        <v>45775.72916666666</v>
-      </c>
-      <c r="B301" s="2">
-        <v>45775.75347222222</v>
-      </c>
-      <c r="C301">
-        <v>33.25</v>
-      </c>
-      <c r="D301">
-        <v>33.65</v>
-      </c>
-      <c r="E301">
-        <v>0.01203007518796988</v>
-      </c>
-      <c r="F301" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="2">
-        <v>45776.65277777778</v>
-      </c>
-      <c r="B302" s="2">
-        <v>45776.68055555555</v>
-      </c>
-      <c r="C302">
-        <v>35.03</v>
-      </c>
-      <c r="D302">
-        <v>34.9</v>
-      </c>
-      <c r="E302">
-        <v>-0.003711104767342351</v>
-      </c>
-      <c r="F302" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="2">
-        <v>45776.72916666666</v>
-      </c>
-      <c r="B303" s="2">
-        <v>45776.75</v>
-      </c>
-      <c r="C303">
-        <v>34.82</v>
-      </c>
-      <c r="D303">
-        <v>35.26</v>
-      </c>
-      <c r="E303">
-        <v>0.012636415852958</v>
-      </c>
-      <c r="F303" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" s="2">
-        <v>45779.5625</v>
-      </c>
-      <c r="B304" s="2">
-        <v>45779.57638888889</v>
-      </c>
-      <c r="C304">
-        <v>38.815</v>
-      </c>
-      <c r="D304">
-        <v>38.08</v>
-      </c>
-      <c r="E304">
-        <v>-0.01893597835888186</v>
-      </c>
-      <c r="F304" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="A305" s="2">
-        <v>45782.62152777778</v>
-      </c>
-      <c r="B305" s="2">
-        <v>45782.65277777778</v>
-      </c>
-      <c r="C305">
-        <v>37.85</v>
-      </c>
-      <c r="D305">
-        <v>37.82</v>
-      </c>
-      <c r="E305">
-        <v>-0.0007926023778071634</v>
-      </c>
-      <c r="F305" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="A306" s="2">
-        <v>45783.68402777778</v>
-      </c>
-      <c r="B306" s="2">
-        <v>45783.70833333334</v>
-      </c>
-      <c r="C306">
-        <v>37.43</v>
-      </c>
-      <c r="D306">
-        <v>37.38</v>
-      </c>
-      <c r="E306">
-        <v>-0.001335826876836686</v>
-      </c>
-      <c r="F306" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="A307" s="2">
-        <v>45785.64236111111</v>
-      </c>
-      <c r="B307" s="2">
-        <v>45785.66319444445</v>
-      </c>
-      <c r="C307">
-        <v>40.29</v>
-      </c>
-      <c r="D307">
-        <v>40.76</v>
-      </c>
-      <c r="E307">
-        <v>0.01166542566393643</v>
-      </c>
-      <c r="F307" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308" s="2">
-        <v>45790.77430555555</v>
-      </c>
-      <c r="B308" s="2">
-        <v>45790.78819444445</v>
-      </c>
-      <c r="C308">
-        <v>49.27</v>
-      </c>
-      <c r="D308">
-        <v>49.39</v>
-      </c>
-      <c r="E308">
-        <v>0.002435559163791302</v>
-      </c>
-      <c r="F308" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="A309" s="2">
-        <v>45790.79861111111</v>
-      </c>
-      <c r="B309" s="2">
-        <v>45790.8125</v>
-      </c>
-      <c r="C309">
-        <v>49.17</v>
-      </c>
-      <c r="D309">
-        <v>49.195</v>
-      </c>
-      <c r="E309">
-        <v>0.000508440105755513</v>
-      </c>
-      <c r="F309" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="A310" s="2">
-        <v>45791.62847222222</v>
-      </c>
-      <c r="B310" s="2">
-        <v>45791.64236111111</v>
-      </c>
-      <c r="C310">
-        <v>51.88</v>
-      </c>
-      <c r="D310">
-        <v>52.23</v>
-      </c>
-      <c r="E310">
-        <v>0.006746337702390021</v>
-      </c>
-      <c r="F310" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="A311" s="2">
-        <v>45792.84027777778</v>
-      </c>
-      <c r="B311" s="2">
-        <v>45793.5625</v>
-      </c>
-      <c r="C311">
-        <v>52.74</v>
-      </c>
-      <c r="D311">
-        <v>53.65</v>
-      </c>
-      <c r="E311">
-        <v>0.01725445582100866</v>
-      </c>
-      <c r="F311" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312" s="2">
-        <v>45793.71875</v>
-      </c>
-      <c r="B312" s="2">
-        <v>45793.73263888889</v>
-      </c>
-      <c r="C312">
-        <v>53.16</v>
-      </c>
-      <c r="D312">
-        <v>53.34</v>
-      </c>
-      <c r="E312">
-        <v>0.003386004514672815</v>
-      </c>
-      <c r="F312" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="A313" s="2">
-        <v>45793.80208333334</v>
-      </c>
-      <c r="B313" s="2">
-        <v>45793.81597222222</v>
-      </c>
-      <c r="C313">
-        <v>52.85</v>
-      </c>
-      <c r="D313">
-        <v>52.65</v>
-      </c>
-      <c r="E313">
-        <v>-0.003784295175023706</v>
-      </c>
-      <c r="F313" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="A314" s="2">
-        <v>45796.57638888889</v>
-      </c>
-      <c r="B314" s="2">
-        <v>45796.59722222222</v>
-      </c>
-      <c r="C314">
-        <v>52.18</v>
-      </c>
-      <c r="D314">
-        <v>53.235</v>
-      </c>
-      <c r="E314">
-        <v>0.02021847451130701</v>
-      </c>
-      <c r="F314" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="A315" s="2">
-        <v>45796.71875</v>
-      </c>
-      <c r="B315" s="2">
-        <v>45796.73958333334</v>
-      </c>
-      <c r="C315">
-        <v>53.17</v>
-      </c>
-      <c r="D315">
-        <v>52.99</v>
-      </c>
-      <c r="E315">
-        <v>-0.003385367688546167</v>
-      </c>
-      <c r="F315" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="A316" s="2">
-        <v>45796.80555555555</v>
-      </c>
-      <c r="B316" s="2">
-        <v>45796.81944444445</v>
-      </c>
-      <c r="C316">
-        <v>52.82</v>
-      </c>
-      <c r="D316">
-        <v>52.81</v>
-      </c>
-      <c r="E316">
-        <v>-0.0001893222264293452</v>
-      </c>
-      <c r="F316" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="A317" s="2">
-        <v>45797.62152777778</v>
-      </c>
-      <c r="B317" s="2">
-        <v>45797.64583333334</v>
-      </c>
-      <c r="C317">
-        <v>51.62</v>
-      </c>
-      <c r="D317">
-        <v>51.73</v>
-      </c>
-      <c r="E317">
-        <v>0.002130956993413395</v>
-      </c>
-      <c r="F317" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318" s="2">
-        <v>45798.78125</v>
-      </c>
-      <c r="B318" s="2">
-        <v>45798.80208333334</v>
-      </c>
-      <c r="C318">
-        <v>50.88</v>
-      </c>
-      <c r="D318">
-        <v>49.59</v>
-      </c>
-      <c r="E318">
-        <v>-0.02535377358490564</v>
-      </c>
-      <c r="F318" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="A319" s="2">
-        <v>45798.82638888889</v>
-      </c>
-      <c r="B319" s="2">
-        <v>45799.56597222222</v>
-      </c>
-      <c r="C319">
-        <v>50.22</v>
-      </c>
-      <c r="D319">
-        <v>50.22</v>
-      </c>
-      <c r="E319">
-        <v>0</v>
-      </c>
-      <c r="F319" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
-      <c r="A320" s="2">
-        <v>45800.68055555555</v>
-      </c>
-      <c r="B320" s="2">
-        <v>45800.69444444445</v>
-      </c>
-      <c r="C320">
-        <v>49.5</v>
-      </c>
-      <c r="D320">
-        <v>49.37</v>
-      </c>
-      <c r="E320">
-        <v>-0.002626262626262678</v>
-      </c>
-      <c r="F320" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
-      <c r="A321" s="2">
-        <v>45800.82638888889</v>
-      </c>
-      <c r="B321" s="2">
-        <v>45804.50347222222</v>
-      </c>
-      <c r="C321">
-        <v>49.76</v>
-      </c>
-      <c r="D321">
-        <v>52.15</v>
-      </c>
-      <c r="E321">
-        <v>0.04803054662379422</v>
-      </c>
-      <c r="F321" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
-      <c r="A322" s="2">
-        <v>45804.81597222222</v>
-      </c>
-      <c r="B322" s="2">
-        <v>45805.56597222222</v>
-      </c>
-      <c r="C322">
-        <v>52.27</v>
-      </c>
-      <c r="D322">
-        <v>53.16</v>
-      </c>
-      <c r="E322">
-        <v>0.01702697532045138</v>
-      </c>
-      <c r="F322" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="A323" s="2">
-        <v>45805.62847222222</v>
-      </c>
-      <c r="B323" s="2">
-        <v>45805.65972222222</v>
-      </c>
-      <c r="C323">
-        <v>52.69</v>
-      </c>
-      <c r="D323">
-        <v>53.015</v>
-      </c>
-      <c r="E323">
-        <v>0.006168153349781796</v>
-      </c>
-      <c r="F323" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
-      <c r="A324" s="2">
-        <v>45805.85763888889</v>
-      </c>
-      <c r="B324" s="2">
-        <v>45806.53819444445</v>
-      </c>
-      <c r="C324">
-        <v>56.15</v>
-      </c>
-      <c r="D324">
-        <v>57.88</v>
-      </c>
-      <c r="E324">
-        <v>0.03081032947462162</v>
-      </c>
-      <c r="F324" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
-      <c r="A325" s="2">
-        <v>45806.62847222222</v>
-      </c>
-      <c r="B325" s="2">
-        <v>45806.64236111111</v>
-      </c>
-      <c r="C325">
-        <v>57.31</v>
-      </c>
-      <c r="D325">
-        <v>57.58</v>
-      </c>
-      <c r="E325">
-        <v>0.004711219682428826</v>
-      </c>
-      <c r="F325" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
-      <c r="A326" s="2">
-        <v>45806.70486111111</v>
-      </c>
-      <c r="B326" s="2">
-        <v>45806.71875</v>
-      </c>
-      <c r="C326">
-        <v>56.64</v>
-      </c>
-      <c r="D326">
-        <v>56.27</v>
-      </c>
-      <c r="E326">
-        <v>-0.006532485875706169</v>
-      </c>
-      <c r="F326" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
-      <c r="A327" s="2">
-        <v>45806.78819444445</v>
-      </c>
-      <c r="B327" s="2">
-        <v>45806.81944444445</v>
-      </c>
-      <c r="C327">
-        <v>55.5</v>
-      </c>
-      <c r="D327">
-        <v>55.39</v>
-      </c>
-      <c r="E327">
-        <v>-0.001981981981981972</v>
-      </c>
-      <c r="F327" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
-      <c r="A328" s="2">
-        <v>45811.56597222222</v>
-      </c>
-      <c r="B328" s="2">
-        <v>45811.57986111111</v>
-      </c>
-      <c r="C328">
-        <v>54.77</v>
-      </c>
-      <c r="D328">
-        <v>56.395</v>
-      </c>
-      <c r="E328">
-        <v>0.02966952711338324</v>
-      </c>
-      <c r="F328" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
-      <c r="A329" s="2">
-        <v>45812.60069444445</v>
-      </c>
-      <c r="B329" s="2">
-        <v>45812.64583333334</v>
-      </c>
-      <c r="C329">
-        <v>56.9</v>
-      </c>
-      <c r="D329">
-        <v>57.065</v>
-      </c>
-      <c r="E329">
-        <v>0.002899824253075556</v>
-      </c>
-      <c r="F329" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330" s="2">
-        <v>45812.71180555555</v>
-      </c>
-      <c r="B330" s="2">
-        <v>45812.75347222222</v>
-      </c>
-      <c r="C330">
-        <v>56.71</v>
-      </c>
-      <c r="D330">
-        <v>57.09</v>
-      </c>
-      <c r="E330">
-        <v>0.006700758243696042</v>
-      </c>
-      <c r="F330" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
-      <c r="A331" s="2">
-        <v>45813.82291666666</v>
-      </c>
-      <c r="B331" s="2">
-        <v>45813.86805555555</v>
-      </c>
-      <c r="C331">
-        <v>56.33</v>
-      </c>
-      <c r="D331">
-        <v>55.35</v>
-      </c>
-      <c r="E331">
-        <v>-0.0173974791407775</v>
-      </c>
-      <c r="F331" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
-      <c r="A332" s="2">
-        <v>45814.52083333334</v>
-      </c>
-      <c r="B332" s="2">
-        <v>45814.5625</v>
-      </c>
-      <c r="C332">
-        <v>57.3</v>
-      </c>
-      <c r="D332">
-        <v>57.63</v>
-      </c>
-      <c r="E332">
-        <v>0.005759162303665016</v>
-      </c>
-      <c r="F332" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="A333" s="2">
-        <v>45814.54861111111</v>
-      </c>
-      <c r="B333" s="2">
-        <v>45814.56944444445</v>
-      </c>
-      <c r="C333">
-        <v>57.77</v>
-      </c>
-      <c r="D333">
-        <v>58.53</v>
-      </c>
-      <c r="E333">
-        <v>0.0131556171023022</v>
-      </c>
-      <c r="F333" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
-      <c r="A334" s="2">
-        <v>45817.78819444445</v>
-      </c>
-      <c r="B334" s="2">
-        <v>45817.80208333334</v>
-      </c>
-      <c r="C334">
-        <v>58.33</v>
-      </c>
-      <c r="D334">
-        <v>58.14</v>
-      </c>
-      <c r="E334">
-        <v>-0.003257328990227974</v>
-      </c>
-      <c r="F334" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
-      <c r="A335" s="2">
-        <v>45818.56597222222</v>
-      </c>
-      <c r="B335" s="2">
-        <v>45818.57986111111</v>
-      </c>
-      <c r="C335">
-        <v>58.22</v>
-      </c>
-      <c r="D335">
-        <v>58.12</v>
-      </c>
-      <c r="E335">
-        <v>-0.001717622810030942</v>
-      </c>
-      <c r="F335" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
-      <c r="A336" s="2">
-        <v>45818.57638888889</v>
-      </c>
-      <c r="B336" s="2">
-        <v>45818.61111111111</v>
-      </c>
-      <c r="C336">
-        <v>57.92</v>
-      </c>
-      <c r="D336">
-        <v>58.01</v>
-      </c>
-      <c r="E336">
-        <v>0.001553867403314853</v>
-      </c>
-      <c r="F336" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="A337" s="2">
-        <v>45821.75347222222</v>
-      </c>
-      <c r="B337" s="2">
-        <v>45821.76736111111</v>
-      </c>
-      <c r="C337">
-        <v>57.73</v>
-      </c>
-      <c r="D337">
-        <v>57.1</v>
-      </c>
-      <c r="E337">
-        <v>-0.01091287025809796</v>
-      </c>
-      <c r="F337" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="A338" s="2">
-        <v>45824.80555555555</v>
-      </c>
-      <c r="B338" s="2">
-        <v>45824.82291666666</v>
-      </c>
-      <c r="C338">
-        <v>59.88</v>
-      </c>
-      <c r="D338">
-        <v>59.59</v>
-      </c>
-      <c r="E338">
-        <v>-0.004843019372077473</v>
-      </c>
-      <c r="F338" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339" s="2">
-        <v>45825.79861111111</v>
-      </c>
-      <c r="B339" s="2">
-        <v>45825.8125</v>
-      </c>
-      <c r="C339">
-        <v>59.13</v>
-      </c>
-      <c r="D339">
-        <v>59.15</v>
-      </c>
-      <c r="E339">
-        <v>0.0003382377811600883</v>
-      </c>
-      <c r="F339" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="2">
-        <v>45825.82638888889</v>
-      </c>
-      <c r="B340" s="2">
-        <v>45826.56944444445</v>
-      </c>
-      <c r="C340">
-        <v>59.32</v>
-      </c>
-      <c r="D340">
-        <v>59</v>
-      </c>
-      <c r="E340">
-        <v>-0.00539447066756575</v>
-      </c>
-      <c r="F340" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="2">
-        <v>45826.76388888889</v>
-      </c>
-      <c r="B341" s="2">
-        <v>45826.78472222222</v>
-      </c>
-      <c r="C341">
-        <v>59.78</v>
-      </c>
-      <c r="D341">
-        <v>59.54</v>
-      </c>
-      <c r="E341">
-        <v>-0.004014720642355336</v>
-      </c>
-      <c r="F341" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="2">
-        <v>45826.82986111111</v>
-      </c>
-      <c r="B342" s="2">
-        <v>45828.56944444445</v>
-      </c>
-      <c r="C342">
-        <v>60.12</v>
-      </c>
-      <c r="D342">
-        <v>60.35</v>
-      </c>
-      <c r="E342">
-        <v>0.003825681969394611</v>
-      </c>
-      <c r="F342" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="2">
-        <v>45828.65625</v>
-      </c>
-      <c r="B343" s="2">
-        <v>45828.67013888889</v>
-      </c>
-      <c r="C343">
-        <v>59.04</v>
-      </c>
-      <c r="D343">
-        <v>59.08</v>
-      </c>
-      <c r="E343">
-        <v>0.0006775067750677363</v>
-      </c>
-      <c r="F343" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="2">
-        <v>45831.56944444445</v>
-      </c>
-      <c r="B344" s="2">
-        <v>45831.59722222222</v>
-      </c>
-      <c r="C344">
-        <v>58.35</v>
-      </c>
-      <c r="D344">
-        <v>58.79</v>
-      </c>
-      <c r="E344">
-        <v>0.007540702656383851</v>
-      </c>
-      <c r="F344" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="A345" s="2">
-        <v>45831.70833333334</v>
-      </c>
-      <c r="B345" s="2">
-        <v>45831.73263888889</v>
-      </c>
-      <c r="C345">
-        <v>58.3</v>
-      </c>
-      <c r="D345">
-        <v>59.34</v>
-      </c>
-      <c r="E345">
-        <v>0.01783876500857644</v>
-      </c>
-      <c r="F345" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="A346" s="2">
-        <v>45831.72569444445</v>
-      </c>
-      <c r="B346" s="2">
-        <v>45831.73958333334</v>
-      </c>
-      <c r="C346">
-        <v>59.13</v>
-      </c>
-      <c r="D346">
-        <v>59.47</v>
-      </c>
-      <c r="E346">
-        <v>0.005750042279722582</v>
-      </c>
-      <c r="F346" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="A347" s="2">
-        <v>45835.56944444445</v>
-      </c>
-      <c r="B347" s="2">
-        <v>45835.58333333334</v>
-      </c>
-      <c r="C347">
-        <v>68.92</v>
-      </c>
-      <c r="D347">
-        <v>68.91</v>
-      </c>
-      <c r="E347">
-        <v>-0.0001450957632037887</v>
-      </c>
-      <c r="F347" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="2">
-        <v>45835.80555555555</v>
-      </c>
-      <c r="B348" s="2">
-        <v>45835.82986111111</v>
-      </c>
-      <c r="C348">
-        <v>69.34</v>
-      </c>
-      <c r="D348">
-        <v>70.31</v>
-      </c>
-      <c r="E348">
-        <v>0.01398903951543119</v>
-      </c>
-      <c r="F348" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="2">
-        <v>45838.79513888889</v>
-      </c>
-      <c r="B349" s="2">
-        <v>45838.82291666666</v>
-      </c>
-      <c r="C349">
-        <v>70.45</v>
-      </c>
-      <c r="D349">
-        <v>70.69</v>
-      </c>
-      <c r="E349">
-        <v>0.003406671398154647</v>
-      </c>
-      <c r="F349" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="2">
-        <v>45839.66319444445</v>
-      </c>
-      <c r="B350" s="2">
-        <v>45839.6875</v>
-      </c>
-      <c r="C350">
-        <v>65.81999999999999</v>
-      </c>
-      <c r="D350">
-        <v>66.64</v>
-      </c>
-      <c r="E350">
-        <v>0.01245821938620491</v>
-      </c>
-      <c r="F350" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="A351" s="2">
-        <v>45839.78125</v>
-      </c>
-      <c r="B351" s="2">
-        <v>45839.79513888889</v>
-      </c>
-      <c r="C351">
-        <v>67.09</v>
-      </c>
-      <c r="D351">
-        <v>66.23</v>
-      </c>
-      <c r="E351">
-        <v>-0.01281860187807422</v>
-      </c>
-      <c r="F351" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="2">
-        <v>45840.57291666666</v>
-      </c>
-      <c r="B352" s="2">
-        <v>45840.59375</v>
-      </c>
-      <c r="C352">
-        <v>67.14</v>
-      </c>
-      <c r="D352">
-        <v>67.95</v>
-      </c>
-      <c r="E352">
-        <v>0.01206434316353891</v>
-      </c>
-      <c r="F352" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="A353" s="2">
-        <v>45840.68055555555</v>
-      </c>
-      <c r="B353" s="2">
-        <v>45840.69791666666</v>
-      </c>
-      <c r="C353">
-        <v>69.56999999999999</v>
-      </c>
-      <c r="D353">
-        <v>69.485</v>
-      </c>
-      <c r="E353">
-        <v>-0.001221791001868532</v>
-      </c>
-      <c r="F353" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
-      <c r="A354" s="2">
-        <v>45840.75347222222</v>
-      </c>
-      <c r="B354" s="2">
-        <v>45840.76736111111</v>
-      </c>
-      <c r="C354">
-        <v>69.53</v>
-      </c>
-      <c r="D354">
-        <v>69.48</v>
-      </c>
-      <c r="E354">
-        <v>-0.0007191140514885252</v>
-      </c>
-      <c r="F354" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="A355" s="2">
-        <v>45840.77777777778</v>
-      </c>
-      <c r="B355" s="2">
-        <v>45840.79166666666</v>
-      </c>
-      <c r="C355">
-        <v>69.42</v>
-      </c>
-      <c r="D355">
-        <v>69.31</v>
-      </c>
-      <c r="E355">
-        <v>-0.001584557764333037</v>
-      </c>
-      <c r="F355" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="2">
-        <v>45840.78819444445</v>
-      </c>
-      <c r="B356" s="2">
-        <v>45840.80208333334</v>
-      </c>
-      <c r="C356">
-        <v>69.25</v>
-      </c>
-      <c r="D356">
-        <v>69.23999999999999</v>
-      </c>
-      <c r="E356">
-        <v>-0.0001444043321300378</v>
-      </c>
-      <c r="F356" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="A357" s="2">
-        <v>45845.56597222222</v>
-      </c>
-      <c r="B357" s="2">
-        <v>45845.59027777778</v>
-      </c>
-      <c r="C357">
-        <v>70.91</v>
-      </c>
-      <c r="D357">
-        <v>70.54000000000001</v>
-      </c>
-      <c r="E357">
-        <v>-0.005217881822027787</v>
-      </c>
-      <c r="F357" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="2">
-        <v>45845.58680555555</v>
-      </c>
-      <c r="B358" s="2">
-        <v>45845.61458333334</v>
-      </c>
-      <c r="C358">
-        <v>70.39</v>
-      </c>
-      <c r="D358">
-        <v>70.76000000000001</v>
-      </c>
-      <c r="E358">
-        <v>0.005256428469953183</v>
-      </c>
-      <c r="F358" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="A359" s="2">
-        <v>45845.61805555555</v>
-      </c>
-      <c r="B359" s="2">
-        <v>45845.63194444445</v>
-      </c>
-      <c r="C359">
-        <v>70.51000000000001</v>
-      </c>
-      <c r="D359">
-        <v>70.17</v>
-      </c>
-      <c r="E359">
-        <v>-0.00482201106226072</v>
-      </c>
-      <c r="F359" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="2">
-        <v>45845.66319444445</v>
-      </c>
-      <c r="B360" s="2">
-        <v>45845.68055555555</v>
-      </c>
-      <c r="C360">
-        <v>70.37</v>
-      </c>
-      <c r="D360">
-        <v>70.45999999999999</v>
-      </c>
-      <c r="E360">
-        <v>0.001278954099758266</v>
-      </c>
-      <c r="F360" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
